--- a/data/temp.xlsx
+++ b/data/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="221">
   <si>
     <t>Database</t>
   </si>
@@ -358,21 +358,18 @@
     <t>vial sc2</t>
   </si>
   <si>
-    <t>vial sc3</t>
+    <t>combined sc3</t>
+  </si>
+  <si>
+    <t>treatment of hazardous waste, hazardous waste incineration</t>
   </si>
   <si>
     <t>pill sc1</t>
   </si>
   <si>
-    <t>treatment of hazardous waste, hazardous waste incineration</t>
-  </si>
-  <si>
     <t>pill sc2</t>
   </si>
   <si>
-    <t>pill sc3</t>
-  </si>
-  <si>
     <t>alchohol wipes</t>
   </si>
   <si>
@@ -677,6 +674,9 @@
   </si>
   <si>
     <t>Scenerio3</t>
+  </si>
+  <si>
+    <t>pill</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1131,16 +1131,16 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1151,22 +1151,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1177,19 +1177,19 @@
         <v>0.00041</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1200,19 +1200,19 @@
         <v>0.00036</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1223,19 +1223,19 @@
         <v>0.00041</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1246,19 +1246,19 @@
         <v>0.00015</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1272,16 +1272,16 @@
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1313,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1334,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1346,16 +1346,16 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1366,22 +1366,22 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
         <v>122</v>
       </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H24" t="s">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1392,19 +1392,19 @@
         <v>0.00438</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1415,19 +1415,19 @@
         <v>0.00438</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1438,19 +1438,19 @@
         <v>0.00312</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1461,19 +1461,19 @@
         <v>0.025</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1484,19 +1484,19 @@
         <v>0.00312</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1510,16 +1510,16 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1530,19 +1530,19 @@
         <v>0.7618</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1574,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1595,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1607,16 +1607,16 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1627,22 +1627,22 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
         <v>124</v>
       </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H40" t="s">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1653,19 +1653,19 @@
         <v>0.00196</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1676,19 +1676,19 @@
         <v>0.01534</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1699,19 +1699,19 @@
         <v>0.02998</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1722,19 +1722,19 @@
         <v>0.00252</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1745,19 +1745,19 @@
         <v>0.00112</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1768,19 +1768,19 @@
         <v>0.00736</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1791,19 +1791,19 @@
         <v>0.01563</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1814,19 +1814,19 @@
         <v>0.00397</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1837,19 +1837,19 @@
         <v>0.01534</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1860,19 +1860,19 @@
         <v>0.0003</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1883,19 +1883,19 @@
         <v>0.00196</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1927,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1935,7 +1935,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -1960,16 +1960,16 @@
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1983,19 +1983,19 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H60" t="s">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2006,19 +2006,19 @@
         <v>0.01033</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2029,19 +2029,19 @@
         <v>0.98967</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2073,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2081,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2094,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -2106,16 +2106,16 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2129,19 +2129,19 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H71" t="s">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2152,19 +2152,19 @@
         <v>0.06804</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>0.95897</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2219,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2240,7 +2240,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -2252,16 +2252,16 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2275,19 +2275,19 @@
         <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H82" t="s">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2298,19 +2298,19 @@
         <v>0.0012</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2321,19 +2321,19 @@
         <v>0.006</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2344,19 +2344,19 @@
         <v>0.00551</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2367,19 +2367,19 @@
         <v>0.00124</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2390,19 +2390,19 @@
         <v>0.00307</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2413,19 +2413,19 @@
         <v>0.0005</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2449,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2457,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2478,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -2490,16 +2490,16 @@
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -2510,22 +2510,22 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" t="s">
         <v>128</v>
       </c>
-      <c r="D97" t="s">
-        <v>129</v>
-      </c>
       <c r="E97" t="s">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H97" t="s">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -2536,19 +2536,19 @@
         <v>0.005292</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -2559,19 +2559,19 @@
         <v>6.999999999999999E-05</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -2582,19 +2582,19 @@
         <v>0.0005</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -2605,19 +2605,19 @@
         <v>0.00247</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -2628,19 +2628,19 @@
         <v>0.00247</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -2654,13 +2654,13 @@
         <v>50</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H103" t="s">
         <v>1</v>
@@ -2674,19 +2674,19 @@
         <v>0.0559</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -2697,19 +2697,19 @@
         <v>0.1222749382</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -2733,7 +2733,7 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -2741,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -2749,7 +2749,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -2762,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -2774,16 +2774,16 @@
         <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -2794,22 +2794,22 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H114" t="s">
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -2820,19 +2820,19 @@
         <v>0.22</v>
       </c>
       <c r="C115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -2843,19 +2843,19 @@
         <v>0.32</v>
       </c>
       <c r="C116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -2866,19 +2866,19 @@
         <v>0.18</v>
       </c>
       <c r="C117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -2889,19 +2889,19 @@
         <v>21.97777777777778</v>
       </c>
       <c r="C118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -2912,19 +2912,19 @@
         <v>5.18</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G119" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -2935,19 +2935,19 @@
         <v>8.91</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -2958,19 +2958,19 @@
         <v>4.02</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -2981,16 +2981,16 @@
         <v>1.3</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H122" t="s">
         <v>1</v>
@@ -3004,16 +3004,16 @@
         <v>0.36</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G123" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H123" t="s">
         <v>1</v>
@@ -3030,13 +3030,13 @@
         <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H124" t="s">
         <v>1</v>
@@ -3050,19 +3050,19 @@
         <v>0.11</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G125" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -3073,19 +3073,19 @@
         <v>0.01</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H126" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -3096,19 +3096,19 @@
         <v>19.1</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G127" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -3119,19 +3119,19 @@
         <v>-0.0535</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D128" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3142,19 +3142,19 @@
         <v>-1.07</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G129" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3168,13 +3168,13 @@
         <v>63</v>
       </c>
       <c r="D130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H130" t="s">
         <v>1</v>
@@ -3188,16 +3188,16 @@
         <v>0.17</v>
       </c>
       <c r="E131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3208,16 +3208,16 @@
         <v>0.22</v>
       </c>
       <c r="E132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F132" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3228,16 +3228,16 @@
         <v>0.18</v>
       </c>
       <c r="E133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3248,16 +3248,16 @@
         <v>6.58</v>
       </c>
       <c r="E134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F134" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G134" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3268,16 +3268,16 @@
         <v>0.06</v>
       </c>
       <c r="E135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G135" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3288,16 +3288,16 @@
         <v>0.01</v>
       </c>
       <c r="E136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G136" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3308,16 +3308,16 @@
         <v>0.11</v>
       </c>
       <c r="E137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F137" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G137" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3328,16 +3328,16 @@
         <v>0.01</v>
       </c>
       <c r="E138" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G138" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -3361,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3369,7 +3369,7 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3390,7 +3390,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
@@ -3402,16 +3402,16 @@
         <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -3422,16 +3422,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E147" t="s">
         <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H147" t="s">
         <v>1</v>
@@ -3445,19 +3445,19 @@
         <v>0.00890313</v>
       </c>
       <c r="C148" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G148" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -3468,19 +3468,19 @@
         <v>0.03561</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H149" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -3491,19 +3491,19 @@
         <v>0.035613</v>
       </c>
       <c r="C150" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -3514,19 +3514,19 @@
         <v>0.002849</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H151" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -3537,19 +3537,19 @@
         <v>0.890313</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D152" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G152" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -3560,19 +3560,19 @@
         <v>0.026709</v>
       </c>
       <c r="C153" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G153" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -3604,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -3612,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -3625,7 +3625,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
@@ -3637,16 +3637,16 @@
         <v>13</v>
       </c>
       <c r="F161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G161" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H161" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -3660,19 +3660,19 @@
         <v>83</v>
       </c>
       <c r="D162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E162" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G162" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H162" t="s">
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -3683,19 +3683,19 @@
         <v>0.22</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E163" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G163" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H163" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -3706,19 +3706,19 @@
         <v>0.32</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D164" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E164" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G164" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H164" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -3729,19 +3729,19 @@
         <v>0.18</v>
       </c>
       <c r="C165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E165" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H165" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -3752,19 +3752,19 @@
         <v>21.97777777777778</v>
       </c>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D166" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H166" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -3775,19 +3775,19 @@
         <v>5.18</v>
       </c>
       <c r="C167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D167" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G167" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H167" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -3798,19 +3798,19 @@
         <v>8.91</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E168" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -3821,19 +3821,19 @@
         <v>4.02</v>
       </c>
       <c r="C169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D169" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E169" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G169" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -3844,16 +3844,16 @@
         <v>1.3</v>
       </c>
       <c r="C170" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H170" t="s">
         <v>1</v>
@@ -3867,19 +3867,19 @@
         <v>0.36</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D171" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -3893,13 +3893,13 @@
         <v>63</v>
       </c>
       <c r="D172" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E172" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H172" t="s">
         <v>1</v>
@@ -3913,19 +3913,19 @@
         <v>0.11</v>
       </c>
       <c r="C173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D173" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E173" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G173" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H173" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -3936,19 +3936,19 @@
         <v>0.01</v>
       </c>
       <c r="C174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D174" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E174" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G174" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -3959,19 +3959,19 @@
         <v>19.1</v>
       </c>
       <c r="C175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E175" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G175" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -3982,19 +3982,19 @@
         <v>-0.00535</v>
       </c>
       <c r="C176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E176" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4005,19 +4005,19 @@
         <v>-1.07</v>
       </c>
       <c r="C177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D177" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E177" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G177" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H177" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -4031,13 +4031,13 @@
         <v>63</v>
       </c>
       <c r="D178" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G178" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H178" t="s">
         <v>1</v>
@@ -4051,16 +4051,16 @@
         <v>0.17</v>
       </c>
       <c r="E179" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G179" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -4071,16 +4071,16 @@
         <v>0.22</v>
       </c>
       <c r="E180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F180" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G180" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -4091,16 +4091,16 @@
         <v>0.18</v>
       </c>
       <c r="E181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G181" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -4111,16 +4111,16 @@
         <v>6.58</v>
       </c>
       <c r="E182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F182" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G182" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -4131,16 +4131,16 @@
         <v>0.06</v>
       </c>
       <c r="E183" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F183" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G183" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -4151,16 +4151,16 @@
         <v>0.01</v>
       </c>
       <c r="E184" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G184" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -4171,16 +4171,16 @@
         <v>0.11</v>
       </c>
       <c r="E185" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G185" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -4191,16 +4191,16 @@
         <v>0.01</v>
       </c>
       <c r="E186" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -4232,7 +4232,7 @@
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -4253,7 +4253,7 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C194" t="s">
         <v>11</v>
@@ -4265,16 +4265,16 @@
         <v>13</v>
       </c>
       <c r="F194" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H194" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -4288,19 +4288,19 @@
         <v>89</v>
       </c>
       <c r="D195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E195" t="s">
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H195" t="s">
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -4311,19 +4311,19 @@
         <v>0.1587575</v>
       </c>
       <c r="C196" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D196" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E196" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -4334,19 +4334,19 @@
         <v>0.04328224</v>
       </c>
       <c r="C197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D197" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E197" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G197" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -4360,16 +4360,16 @@
         <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G198" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H198" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -4380,19 +4380,19 @@
         <v>0.3832937089</v>
       </c>
       <c r="C199" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D199" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G199" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H199" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -4403,16 +4403,16 @@
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E200" t="s">
         <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H200" t="s">
         <v>1</v>
@@ -4426,19 +4426,19 @@
         <v>-0.0775</v>
       </c>
       <c r="C201" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E201" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G201" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H201" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -4449,19 +4449,19 @@
         <v>-0.1015625</v>
       </c>
       <c r="C202" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G202" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -4485,7 +4485,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -4493,7 +4493,7 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -4514,7 +4514,7 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C210" t="s">
         <v>11</v>
@@ -4526,16 +4526,16 @@
         <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -4546,22 +4546,22 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>133</v>
+      </c>
+      <c r="D211" t="s">
         <v>134</v>
       </c>
-      <c r="D211" t="s">
-        <v>135</v>
-      </c>
       <c r="E211" t="s">
         <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H211" t="s">
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -4572,19 +4572,19 @@
         <v>0.06614895833000001</v>
       </c>
       <c r="C212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D212" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E212" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -4595,19 +4595,19 @@
         <v>0.00827</v>
       </c>
       <c r="C213" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D213" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E213" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -4618,16 +4618,16 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
+        <v>127</v>
+      </c>
+      <c r="D214" t="s">
         <v>128</v>
       </c>
-      <c r="D214" t="s">
-        <v>129</v>
-      </c>
       <c r="E214" t="s">
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H214" t="s">
         <v>1</v>
@@ -4641,19 +4641,19 @@
         <v>0.00454</v>
       </c>
       <c r="C215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D215" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E215" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G215" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -4667,16 +4667,16 @@
         <v>96</v>
       </c>
       <c r="D216" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E216" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G216" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -4687,19 +4687,19 @@
         <v>-0.01587575</v>
       </c>
       <c r="C217" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D217" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E217" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G217" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -4723,7 +4723,7 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -4731,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -4752,7 +4752,7 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
@@ -4764,16 +4764,16 @@
         <v>13</v>
       </c>
       <c r="F225" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G225" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H225" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -4784,22 +4784,22 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D226" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E226" t="s">
         <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H226" t="s">
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -4810,19 +4810,19 @@
         <v>0.006</v>
       </c>
       <c r="C227" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D227" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E227" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G227" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H227" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -4833,19 +4833,19 @@
         <v>3.733333333333333E-05</v>
       </c>
       <c r="C228" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D228" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E228" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G228" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H228" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -4856,19 +4856,19 @@
         <v>0.00603125</v>
       </c>
       <c r="C229" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D229" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E229" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G229" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H229" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -4879,19 +4879,19 @@
         <v>0.00775</v>
       </c>
       <c r="C230" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D230" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E230" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G230" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H230" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -4902,19 +4902,19 @@
         <v>0.02634</v>
       </c>
       <c r="C231" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D231" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E231" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G231" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H231" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -4925,19 +4925,19 @@
         <v>0.01065652</v>
       </c>
       <c r="C232" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D232" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E232" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G232" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -4948,19 +4948,19 @@
         <v>0.01065625</v>
       </c>
       <c r="C233" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D233" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E233" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G233" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H233" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -4974,13 +4974,13 @@
         <v>83</v>
       </c>
       <c r="D234" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E234" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G234" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H234" t="s">
         <v>1</v>
@@ -4994,19 +4994,19 @@
         <v>0.0005</v>
       </c>
       <c r="C235" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D235" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E235" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G235" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -5017,19 +5017,19 @@
         <v>0.03893653</v>
       </c>
       <c r="C236" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D236" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E236" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G236" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H236" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -5040,19 +5040,19 @@
         <v>0.08132810159999999</v>
       </c>
       <c r="C237" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D237" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E237" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G237" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H237" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -5084,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -5092,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -5105,7 +5105,7 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C245" t="s">
         <v>11</v>
@@ -5117,16 +5117,16 @@
         <v>13</v>
       </c>
       <c r="F245" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G245" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H245" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I245" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -5140,19 +5140,19 @@
         <v>63</v>
       </c>
       <c r="D246" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E246" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G246" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H246" t="s">
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -5163,19 +5163,19 @@
         <v>0.7317</v>
       </c>
       <c r="C247" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D247" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G247" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H247" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -5186,19 +5186,19 @@
         <v>0.487805</v>
       </c>
       <c r="C248" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D248" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E248" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G248" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H248" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -5230,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -5251,7 +5251,7 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C256" t="s">
         <v>11</v>
@@ -5263,16 +5263,16 @@
         <v>13</v>
       </c>
       <c r="F256" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G256" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H256" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I256" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -5286,19 +5286,19 @@
         <v>103</v>
       </c>
       <c r="D257" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
       </c>
       <c r="G257" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H257" t="s">
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -5309,19 +5309,19 @@
         <v>0.00547</v>
       </c>
       <c r="C258" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D258" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E258" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G258" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H258" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -5332,19 +5332,19 @@
         <v>0.00358</v>
       </c>
       <c r="C259" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D259" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E259" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G259" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H259" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -5355,19 +5355,19 @@
         <v>0.00189</v>
       </c>
       <c r="C260" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D260" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E260" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G260" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H260" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -5399,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -5420,7 +5420,7 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C268" t="s">
         <v>11</v>
@@ -5432,16 +5432,16 @@
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G268" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H268" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I268" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -5455,19 +5455,19 @@
         <v>50</v>
       </c>
       <c r="D269" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
       </c>
       <c r="G269" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H269" t="s">
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -5478,19 +5478,19 @@
         <v>0.0001125</v>
       </c>
       <c r="C270" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D270" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E270" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G270" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H270" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -5501,19 +5501,19 @@
         <v>5.208333333333333E-05</v>
       </c>
       <c r="C271" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D271" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E271" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H271" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -5524,19 +5524,19 @@
         <v>6.875E-06</v>
       </c>
       <c r="C272" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D272" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E272" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G272" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H272" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -5550,13 +5550,13 @@
         <v>37</v>
       </c>
       <c r="D273" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E273" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G273" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H273" t="s">
         <v>1</v>
@@ -5573,13 +5573,13 @@
         <v>40</v>
       </c>
       <c r="D274" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E274" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G274" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H274" t="s">
         <v>1</v>
@@ -5593,16 +5593,16 @@
         <v>0.0008</v>
       </c>
       <c r="C275" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D275" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E275" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G275" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H275" t="s">
         <v>1</v>
@@ -5616,19 +5616,19 @@
         <v>2.55E-05</v>
       </c>
       <c r="C276" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D276" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E276" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G276" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H276" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -5639,19 +5639,19 @@
         <v>2.375E-05</v>
       </c>
       <c r="C277" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E277" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G277" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H277" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -5662,19 +5662,19 @@
         <v>9.374999999999999E-06</v>
       </c>
       <c r="C278" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D278" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E278" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G278" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H278" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -5698,7 +5698,7 @@
         <v>11</v>
       </c>
       <c r="B282" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -5706,7 +5706,7 @@
         <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -5714,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="B284" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -5727,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C286" t="s">
         <v>11</v>
@@ -5739,16 +5739,16 @@
         <v>13</v>
       </c>
       <c r="F286" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G286" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H286" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I286" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -5759,22 +5759,22 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D287" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E287" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G287" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H287" t="s">
         <v>1</v>
       </c>
       <c r="I287" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -5785,16 +5785,16 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
+        <v>118</v>
+      </c>
+      <c r="D288" t="s">
         <v>119</v>
       </c>
-      <c r="D288" t="s">
-        <v>120</v>
-      </c>
       <c r="E288" t="s">
         <v>13</v>
       </c>
       <c r="G288" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H288" t="s">
         <v>1</v>
@@ -5811,13 +5811,13 @@
         <v>89</v>
       </c>
       <c r="D289" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
       </c>
       <c r="G289" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H289" t="s">
         <v>1</v>
@@ -5831,16 +5831,16 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
+        <v>121</v>
+      </c>
+      <c r="D290" t="s">
         <v>122</v>
       </c>
-      <c r="D290" t="s">
-        <v>123</v>
-      </c>
       <c r="E290" t="s">
         <v>13</v>
       </c>
       <c r="G290" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H290" t="s">
         <v>1</v>
@@ -5854,16 +5854,16 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
+        <v>123</v>
+      </c>
+      <c r="D291" t="s">
         <v>124</v>
       </c>
-      <c r="D291" t="s">
-        <v>125</v>
-      </c>
       <c r="E291" t="s">
         <v>13</v>
       </c>
       <c r="G291" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H291" t="s">
         <v>1</v>
@@ -5880,16 +5880,16 @@
         <v>43</v>
       </c>
       <c r="D292" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E292" t="s">
         <v>13</v>
       </c>
       <c r="G292" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H292" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -5900,19 +5900,19 @@
         <v>0.0009000000000000001</v>
       </c>
       <c r="C293" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D293" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E293" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G293" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H293" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -5926,13 +5926,13 @@
         <v>103</v>
       </c>
       <c r="D294" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E294" t="s">
         <v>13</v>
       </c>
       <c r="G294" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H294" t="s">
         <v>1</v>
@@ -5946,19 +5946,19 @@
         <v>0.1</v>
       </c>
       <c r="C295" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D295" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E295" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G295" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H295" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -5990,7 +5990,7 @@
         <v>12</v>
       </c>
       <c r="B300" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -5998,7 +5998,7 @@
         <v>13</v>
       </c>
       <c r="B301" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -6011,7 +6011,7 @@
         <v>15</v>
       </c>
       <c r="B303" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C303" t="s">
         <v>11</v>
@@ -6023,16 +6023,16 @@
         <v>13</v>
       </c>
       <c r="F303" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G303" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H303" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I303" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -6046,19 +6046,19 @@
         <v>110</v>
       </c>
       <c r="D304" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E304" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G304" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H304" t="s">
         <v>1</v>
       </c>
       <c r="I304" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -6069,16 +6069,16 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
+        <v>118</v>
+      </c>
+      <c r="D305" t="s">
         <v>119</v>
       </c>
-      <c r="D305" t="s">
-        <v>120</v>
-      </c>
       <c r="E305" t="s">
         <v>13</v>
       </c>
       <c r="G305" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H305" t="s">
         <v>1</v>
@@ -6095,13 +6095,13 @@
         <v>89</v>
       </c>
       <c r="D306" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E306" t="s">
         <v>13</v>
       </c>
       <c r="G306" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H306" t="s">
         <v>1</v>
@@ -6115,16 +6115,16 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
+        <v>121</v>
+      </c>
+      <c r="D307" t="s">
         <v>122</v>
       </c>
-      <c r="D307" t="s">
-        <v>123</v>
-      </c>
       <c r="E307" t="s">
         <v>13</v>
       </c>
       <c r="G307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H307" t="s">
         <v>1</v>
@@ -6138,19 +6138,19 @@
         <v>0.13158</v>
       </c>
       <c r="C308" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D308" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E308" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G308" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H308" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -6161,16 +6161,16 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
+        <v>123</v>
+      </c>
+      <c r="D309" t="s">
         <v>124</v>
       </c>
-      <c r="D309" t="s">
-        <v>125</v>
-      </c>
       <c r="E309" t="s">
         <v>13</v>
       </c>
       <c r="G309" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H309" t="s">
         <v>1</v>
@@ -6187,13 +6187,13 @@
         <v>43</v>
       </c>
       <c r="D310" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E310" t="s">
         <v>13</v>
       </c>
       <c r="G310" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H310" t="s">
         <v>1</v>
@@ -6207,19 +6207,19 @@
         <v>0.0009000000000000001</v>
       </c>
       <c r="C311" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D311" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E311" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G311" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H311" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -6233,13 +6233,13 @@
         <v>103</v>
       </c>
       <c r="D312" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E312" t="s">
         <v>13</v>
       </c>
       <c r="G312" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H312" t="s">
         <v>1</v>
@@ -6253,19 +6253,19 @@
         <v>0.1</v>
       </c>
       <c r="C313" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D313" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E313" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G313" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H313" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -6276,19 +6276,19 @@
         <v>0.020203974</v>
       </c>
       <c r="C314" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D314" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E314" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G314" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H314" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -6299,16 +6299,16 @@
         <v>0.00036</v>
       </c>
       <c r="E315" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F315" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G315" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H315" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -6340,7 +6340,7 @@
         <v>12</v>
       </c>
       <c r="B320" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -6348,7 +6348,7 @@
         <v>13</v>
       </c>
       <c r="B321" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -6361,7 +6361,7 @@
         <v>15</v>
       </c>
       <c r="B323" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C323" t="s">
         <v>11</v>
@@ -6373,16 +6373,16 @@
         <v>13</v>
       </c>
       <c r="F323" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G323" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H323" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I323" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -6396,19 +6396,19 @@
         <v>113</v>
       </c>
       <c r="D324" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E324" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G324" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H324" t="s">
         <v>1</v>
       </c>
       <c r="I324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -6419,16 +6419,16 @@
         <v>12</v>
       </c>
       <c r="C325" t="s">
+        <v>118</v>
+      </c>
+      <c r="D325" t="s">
         <v>119</v>
       </c>
-      <c r="D325" t="s">
-        <v>120</v>
-      </c>
       <c r="E325" t="s">
         <v>13</v>
       </c>
       <c r="G325" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H325" t="s">
         <v>1</v>
@@ -6445,13 +6445,13 @@
         <v>89</v>
       </c>
       <c r="D326" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E326" t="s">
         <v>13</v>
       </c>
       <c r="G326" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H326" t="s">
         <v>1</v>
@@ -6465,16 +6465,16 @@
         <v>12</v>
       </c>
       <c r="C327" t="s">
+        <v>121</v>
+      </c>
+      <c r="D327" t="s">
         <v>122</v>
       </c>
-      <c r="D327" t="s">
-        <v>123</v>
-      </c>
       <c r="E327" t="s">
         <v>13</v>
       </c>
       <c r="G327" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H327" t="s">
         <v>1</v>
@@ -6488,19 +6488,19 @@
         <v>1.57896</v>
       </c>
       <c r="C328" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D328" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E328" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G328" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H328" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -6511,16 +6511,16 @@
         <v>12</v>
       </c>
       <c r="C329" t="s">
+        <v>123</v>
+      </c>
+      <c r="D329" t="s">
         <v>124</v>
       </c>
-      <c r="D329" t="s">
-        <v>125</v>
-      </c>
       <c r="E329" t="s">
         <v>13</v>
       </c>
       <c r="G329" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H329" t="s">
         <v>1</v>
@@ -6537,13 +6537,13 @@
         <v>43</v>
       </c>
       <c r="D330" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E330" t="s">
         <v>13</v>
       </c>
       <c r="G330" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H330" t="s">
         <v>1</v>
@@ -6557,19 +6557,19 @@
         <v>0.0108</v>
       </c>
       <c r="C331" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D331" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E331" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G331" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H331" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -6583,13 +6583,13 @@
         <v>103</v>
       </c>
       <c r="D332" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E332" t="s">
         <v>13</v>
       </c>
       <c r="G332" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H332" t="s">
         <v>1</v>
@@ -6603,19 +6603,19 @@
         <v>1200</v>
       </c>
       <c r="C333" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D333" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E333" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G333" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H333" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -6626,19 +6626,19 @@
         <v>0.24245</v>
       </c>
       <c r="C334" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D334" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E334" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G334" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H334" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -6649,16 +6649,16 @@
         <v>0.00432</v>
       </c>
       <c r="E335" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F335" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G335" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H335" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -6690,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -6698,7 +6698,7 @@
         <v>13</v>
       </c>
       <c r="B341" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -6711,7 +6711,7 @@
         <v>15</v>
       </c>
       <c r="B343" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C343" t="s">
         <v>11</v>
@@ -6723,16 +6723,16 @@
         <v>13</v>
       </c>
       <c r="F343" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G343" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H343" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I343" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -6746,13 +6746,13 @@
         <v>114</v>
       </c>
       <c r="D344" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E344" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G344" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H344" t="s">
         <v>1</v>
@@ -6769,19 +6769,22 @@
         <v>8</v>
       </c>
       <c r="C345" t="s">
+        <v>118</v>
+      </c>
+      <c r="D345" t="s">
         <v>119</v>
       </c>
-      <c r="D345" t="s">
-        <v>120</v>
-      </c>
       <c r="E345" t="s">
         <v>13</v>
       </c>
       <c r="G345" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H345" t="s">
         <v>1</v>
+      </c>
+      <c r="I345" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -6795,16 +6798,19 @@
         <v>89</v>
       </c>
       <c r="D346" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E346" t="s">
         <v>13</v>
       </c>
       <c r="G346" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H346" t="s">
         <v>1</v>
+      </c>
+      <c r="I346" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -6815,19 +6821,22 @@
         <v>8</v>
       </c>
       <c r="C347" t="s">
+        <v>121</v>
+      </c>
+      <c r="D347" t="s">
         <v>122</v>
       </c>
-      <c r="D347" t="s">
-        <v>123</v>
-      </c>
       <c r="E347" t="s">
         <v>13</v>
       </c>
       <c r="G347" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H347" t="s">
         <v>1</v>
+      </c>
+      <c r="I347" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -6838,19 +6847,22 @@
         <v>1.05264</v>
       </c>
       <c r="C348" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D348" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E348" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G348" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H348" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="I348" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -6861,19 +6873,22 @@
         <v>8</v>
       </c>
       <c r="C349" t="s">
+        <v>123</v>
+      </c>
+      <c r="D349" t="s">
         <v>124</v>
       </c>
-      <c r="D349" t="s">
-        <v>125</v>
-      </c>
       <c r="E349" t="s">
         <v>13</v>
       </c>
       <c r="G349" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H349" t="s">
         <v>1</v>
+      </c>
+      <c r="I349" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -6887,16 +6902,19 @@
         <v>43</v>
       </c>
       <c r="D350" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E350" t="s">
         <v>13</v>
       </c>
       <c r="G350" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H350" t="s">
         <v>1</v>
+      </c>
+      <c r="I350" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -6907,19 +6925,22 @@
         <v>0.007200000000000001</v>
       </c>
       <c r="C351" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D351" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E351" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G351" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H351" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="I351" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -6933,16 +6954,19 @@
         <v>103</v>
       </c>
       <c r="D352" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E352" t="s">
         <v>13</v>
       </c>
       <c r="G352" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H352" t="s">
         <v>1</v>
+      </c>
+      <c r="I352" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -6953,19 +6977,22 @@
         <v>0.8</v>
       </c>
       <c r="C353" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D353" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E353" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G353" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H353" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="I353" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -6976,19 +7003,22 @@
         <v>0.161631</v>
       </c>
       <c r="C354" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D354" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E354" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G354" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H354" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="I354" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -6999,523 +7029,435 @@
         <v>0.00288</v>
       </c>
       <c r="E355" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F355" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G355" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H355" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="I355" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>115</v>
+      </c>
+      <c r="B356">
+        <v>0.003564</v>
+      </c>
+      <c r="C356" t="s">
+        <v>198</v>
+      </c>
+      <c r="D356" t="s">
+        <v>201</v>
+      </c>
+      <c r="E356" t="s">
+        <v>125</v>
+      </c>
+      <c r="G356" t="s">
+        <v>210</v>
+      </c>
+      <c r="H356" t="s">
+        <v>213</v>
+      </c>
+      <c r="I356" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" t="s">
-        <v>9</v>
-      </c>
-      <c r="B357" t="s">
-        <v>115</v>
+        <v>94</v>
+      </c>
+      <c r="B357">
+        <v>0.4</v>
+      </c>
+      <c r="C357" t="s">
+        <v>133</v>
+      </c>
+      <c r="D357" t="s">
+        <v>134</v>
+      </c>
+      <c r="E357" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357" t="s">
+        <v>210</v>
+      </c>
+      <c r="H357" t="s">
+        <v>1</v>
+      </c>
+      <c r="I357" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
-      <c r="A359" t="s">
-        <v>11</v>
-      </c>
-      <c r="B359" t="s">
-        <v>115</v>
+        <v>-0.031584</v>
+      </c>
+      <c r="C358" t="s">
+        <v>188</v>
+      </c>
+      <c r="D358" t="s">
+        <v>201</v>
+      </c>
+      <c r="E358" t="s">
+        <v>125</v>
+      </c>
+      <c r="G358" t="s">
+        <v>210</v>
+      </c>
+      <c r="H358" t="s">
+        <v>213</v>
+      </c>
+      <c r="I358" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B360" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" t="s">
-        <v>13</v>
-      </c>
-      <c r="B361" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B362" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B363" t="s">
-        <v>121</v>
-      </c>
-      <c r="C363" t="s">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s">
-        <v>12</v>
-      </c>
-      <c r="E363" t="s">
-        <v>13</v>
-      </c>
-      <c r="F363" t="s">
-        <v>206</v>
-      </c>
-      <c r="G363" t="s">
-        <v>209</v>
-      </c>
-      <c r="H363" t="s">
-        <v>213</v>
-      </c>
-      <c r="I363" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" t="s">
-        <v>115</v>
-      </c>
-      <c r="B364">
-        <v>1</v>
-      </c>
-      <c r="C364" t="s">
-        <v>115</v>
-      </c>
-      <c r="D364" t="s">
-        <v>120</v>
-      </c>
-      <c r="E364" t="s">
-        <v>13</v>
-      </c>
-      <c r="G364" t="s">
-        <v>210</v>
-      </c>
-      <c r="H364" t="s">
-        <v>1</v>
-      </c>
-      <c r="I364" t="s">
-        <v>220</v>
+        <v>13</v>
+      </c>
+      <c r="B364" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" t="s">
-        <v>116</v>
-      </c>
-      <c r="B365">
-        <v>0.000297</v>
-      </c>
-      <c r="C365" t="s">
-        <v>199</v>
-      </c>
-      <c r="D365" t="s">
-        <v>202</v>
-      </c>
-      <c r="E365" t="s">
-        <v>126</v>
-      </c>
-      <c r="G365" t="s">
-        <v>211</v>
-      </c>
-      <c r="H365" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" t="s">
-        <v>94</v>
-      </c>
-      <c r="B366">
-        <v>0.033</v>
+        <v>15</v>
+      </c>
+      <c r="B366" t="s">
+        <v>120</v>
       </c>
       <c r="C366" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="D366" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="E366" t="s">
         <v>13</v>
       </c>
+      <c r="F366" t="s">
+        <v>205</v>
+      </c>
       <c r="G366" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H366" t="s">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="I366" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B367">
-        <v>-0.002632</v>
+        <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="D367" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="E367" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="G367" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H367" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="I367" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>115</v>
+      </c>
+      <c r="B368">
+        <v>0.000297</v>
+      </c>
+      <c r="C368" t="s">
+        <v>198</v>
+      </c>
+      <c r="D368" t="s">
+        <v>201</v>
+      </c>
+      <c r="E368" t="s">
+        <v>125</v>
+      </c>
+      <c r="G368" t="s">
+        <v>210</v>
+      </c>
+      <c r="H368" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" t="s">
-        <v>9</v>
-      </c>
-      <c r="B369" t="s">
-        <v>117</v>
+        <v>94</v>
+      </c>
+      <c r="B369">
+        <v>0.033</v>
+      </c>
+      <c r="C369" t="s">
+        <v>133</v>
+      </c>
+      <c r="D369" t="s">
+        <v>134</v>
+      </c>
+      <c r="E369" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369" t="s">
+        <v>210</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9">
-      <c r="A371" t="s">
-        <v>11</v>
-      </c>
-      <c r="B371" t="s">
-        <v>117</v>
+        <v>-0.002632</v>
+      </c>
+      <c r="C370" t="s">
+        <v>188</v>
+      </c>
+      <c r="D370" t="s">
+        <v>201</v>
+      </c>
+      <c r="E370" t="s">
+        <v>125</v>
+      </c>
+      <c r="G370" t="s">
+        <v>210</v>
+      </c>
+      <c r="H370" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B372" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>13</v>
-      </c>
-      <c r="B373" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B374" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B375" t="s">
-        <v>121</v>
-      </c>
-      <c r="C375" t="s">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s">
-        <v>12</v>
-      </c>
-      <c r="E375" t="s">
-        <v>13</v>
-      </c>
-      <c r="F375" t="s">
-        <v>206</v>
-      </c>
-      <c r="G375" t="s">
-        <v>209</v>
-      </c>
-      <c r="H375" t="s">
-        <v>213</v>
-      </c>
-      <c r="I375" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" t="s">
-        <v>117</v>
-      </c>
-      <c r="B376">
-        <v>1</v>
-      </c>
-      <c r="C376" t="s">
-        <v>117</v>
-      </c>
-      <c r="D376" t="s">
-        <v>120</v>
-      </c>
-      <c r="E376" t="s">
-        <v>13</v>
-      </c>
-      <c r="G376" t="s">
-        <v>210</v>
-      </c>
-      <c r="H376" t="s">
-        <v>1</v>
-      </c>
-      <c r="I376" t="s">
-        <v>220</v>
+        <v>13</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" t="s">
-        <v>116</v>
-      </c>
-      <c r="B377">
-        <v>0.005940000000000001</v>
-      </c>
-      <c r="C377" t="s">
-        <v>199</v>
-      </c>
-      <c r="D377" t="s">
-        <v>202</v>
-      </c>
-      <c r="E377" t="s">
-        <v>126</v>
-      </c>
-      <c r="G377" t="s">
-        <v>211</v>
-      </c>
-      <c r="H377" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" t="s">
-        <v>94</v>
-      </c>
-      <c r="B378">
-        <v>0.6666666666666666</v>
+        <v>15</v>
+      </c>
+      <c r="B378" t="s">
+        <v>120</v>
       </c>
       <c r="C378" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="D378" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="E378" t="s">
         <v>13</v>
       </c>
+      <c r="F378" t="s">
+        <v>205</v>
+      </c>
       <c r="G378" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H378" t="s">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="I378" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B379">
-        <v>-0.05264</v>
+        <v>1</v>
       </c>
       <c r="C379" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="D379" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="E379" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="G379" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H379" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="I379" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>115</v>
+      </c>
+      <c r="B380">
+        <v>0.005940000000000001</v>
+      </c>
+      <c r="C380" t="s">
+        <v>198</v>
+      </c>
+      <c r="D380" t="s">
+        <v>201</v>
+      </c>
+      <c r="E380" t="s">
+        <v>125</v>
+      </c>
+      <c r="G380" t="s">
+        <v>210</v>
+      </c>
+      <c r="H380" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" t="s">
-        <v>9</v>
-      </c>
-      <c r="B381" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="B381">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C381" t="s">
+        <v>133</v>
+      </c>
+      <c r="D381" t="s">
+        <v>134</v>
+      </c>
+      <c r="E381" t="s">
+        <v>13</v>
+      </c>
+      <c r="G381" t="s">
+        <v>210</v>
+      </c>
+      <c r="H381" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9">
-      <c r="A383" t="s">
-        <v>11</v>
-      </c>
-      <c r="B383" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9">
-      <c r="A384" t="s">
-        <v>12</v>
-      </c>
-      <c r="B384" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9">
-      <c r="A385" t="s">
-        <v>13</v>
-      </c>
-      <c r="B385" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9">
-      <c r="A386" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9">
-      <c r="A387" t="s">
-        <v>15</v>
-      </c>
-      <c r="B387" t="s">
-        <v>121</v>
-      </c>
-      <c r="C387" t="s">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s">
-        <v>12</v>
-      </c>
-      <c r="E387" t="s">
-        <v>13</v>
-      </c>
-      <c r="F387" t="s">
-        <v>206</v>
-      </c>
-      <c r="G387" t="s">
-        <v>209</v>
-      </c>
-      <c r="H387" t="s">
-        <v>213</v>
-      </c>
-      <c r="I387" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9">
-      <c r="A388" t="s">
-        <v>118</v>
-      </c>
-      <c r="B388">
-        <v>1</v>
-      </c>
-      <c r="C388" t="s">
-        <v>118</v>
-      </c>
-      <c r="D388" t="s">
-        <v>120</v>
-      </c>
-      <c r="E388" t="s">
-        <v>13</v>
-      </c>
-      <c r="G388" t="s">
-        <v>210</v>
-      </c>
-      <c r="H388" t="s">
-        <v>1</v>
-      </c>
-      <c r="I388" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9">
-      <c r="A389" t="s">
-        <v>116</v>
-      </c>
-      <c r="B389">
-        <v>0.003564</v>
-      </c>
-      <c r="C389" t="s">
-        <v>199</v>
-      </c>
-      <c r="D389" t="s">
-        <v>202</v>
-      </c>
-      <c r="E389" t="s">
-        <v>126</v>
-      </c>
-      <c r="G389" t="s">
-        <v>211</v>
-      </c>
-      <c r="H389" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9">
-      <c r="A390" t="s">
-        <v>94</v>
-      </c>
-      <c r="B390">
-        <v>0.4</v>
-      </c>
-      <c r="C390" t="s">
-        <v>134</v>
-      </c>
-      <c r="D390" t="s">
-        <v>135</v>
-      </c>
-      <c r="E390" t="s">
-        <v>13</v>
-      </c>
-      <c r="G390" t="s">
-        <v>211</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9">
-      <c r="A391" t="s">
-        <v>97</v>
-      </c>
-      <c r="B391">
-        <v>-0.031584</v>
-      </c>
-      <c r="C391" t="s">
-        <v>189</v>
-      </c>
-      <c r="D391" t="s">
-        <v>202</v>
-      </c>
-      <c r="E391" t="s">
-        <v>126</v>
-      </c>
-      <c r="G391" t="s">
-        <v>211</v>
-      </c>
-      <c r="H391" t="s">
-        <v>214</v>
+        <v>-0.05264</v>
+      </c>
+      <c r="C382" t="s">
+        <v>188</v>
+      </c>
+      <c r="D382" t="s">
+        <v>201</v>
+      </c>
+      <c r="E382" t="s">
+        <v>125</v>
+      </c>
+      <c r="G382" t="s">
+        <v>210</v>
+      </c>
+      <c r="H382" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/temp.xlsx
+++ b/data/temp.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="222">
   <si>
     <t>Database</t>
   </si>
   <si>
-    <t>penicillin</t>
+    <t>penicillin_cut_off</t>
   </si>
   <si>
     <t>Unnamed: 2</t>
@@ -187,228 +187,228 @@
     <t>market for butyl acetate</t>
   </si>
   <si>
+    <t>market for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>glucose production</t>
+  </si>
+  <si>
+    <t>market for heat, from steam, in chemical industry</t>
+  </si>
+  <si>
+    <t>market for oxygen, liquid</t>
+  </si>
+  <si>
+    <t>production of pharmamedia</t>
+  </si>
+  <si>
+    <t>market for phenoxy-compound</t>
+  </si>
+  <si>
+    <t>sodium acetate</t>
+  </si>
+  <si>
+    <t>market for sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>market for sulfuric acid</t>
+  </si>
+  <si>
+    <t>tap water production, underground water without treatment</t>
+  </si>
+  <si>
+    <t>treatment of average incineration residue, residual material landfill</t>
+  </si>
+  <si>
+    <t>treatment of biowaste, municipal incineration</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>Butyl acetate</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>P-chlorophenoxyacetic acid</t>
+  </si>
+  <si>
+    <t>Sodium hydroxide</t>
+  </si>
+  <si>
+    <t>Sulfuric acid</t>
+  </si>
+  <si>
+    <t>market for calcium carbonate, precipitated</t>
+  </si>
+  <si>
+    <t>market for cottonseed meal</t>
+  </si>
+  <si>
+    <t>market for rape oil, crude</t>
+  </si>
+  <si>
+    <t>market for soybean oil, refined</t>
+  </si>
+  <si>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>market for whey</t>
+  </si>
+  <si>
+    <t>manufacturing of raw penicillium G</t>
+  </si>
+  <si>
+    <t>market for phenyl acetic acid</t>
+  </si>
+  <si>
+    <t>tap water production, underground water with disinfection</t>
+  </si>
+  <si>
+    <t>Phenylacetic acid</t>
+  </si>
+  <si>
+    <t>full box of vials</t>
+  </si>
+  <si>
+    <t>market for folding boxboard carton</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, bulk carrier for dry goods</t>
+  </si>
+  <si>
+    <t>manufacturing of vial for penicillin</t>
+  </si>
+  <si>
+    <t>market for waste polypropylene</t>
+  </si>
+  <si>
+    <t>packed box of penicillin</t>
+  </si>
+  <si>
+    <t>market for printed paper</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
+  </si>
+  <si>
+    <t>waste packaging paper, Recycled Content cut-off</t>
+  </si>
+  <si>
+    <t>electricity production, hydro, pumped storage</t>
+  </si>
+  <si>
+    <t>market for furniture, wooden</t>
+  </si>
+  <si>
+    <t>market for glass tube, borosilicate</t>
+  </si>
+  <si>
+    <t>market for transport, freight, lorry 7.5-16 metric ton, EURO6</t>
+  </si>
+  <si>
+    <t>market for acetic acid, without water, in 98% solution state</t>
+  </si>
+  <si>
+    <t>stopcock</t>
+  </si>
+  <si>
+    <t>market for carboxymethyl cellulose, powder</t>
+  </si>
+  <si>
     <t>electricity production, natural gas, 10MW</t>
   </si>
   <si>
-    <t>glucose production</t>
-  </si>
-  <si>
-    <t>market for heat, from steam, in chemical industry</t>
-  </si>
-  <si>
-    <t>market for oxygen, liquid</t>
-  </si>
-  <si>
-    <t>production of pharmamedia</t>
-  </si>
-  <si>
-    <t>phenoxy-compound production</t>
-  </si>
-  <si>
-    <t>sodium acetate</t>
-  </si>
-  <si>
-    <t>market for sodium hydroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>market for sulfuric acid</t>
-  </si>
-  <si>
-    <t>tap water production, underground water without treatment</t>
-  </si>
-  <si>
-    <t>treatment of average incineration residue, residual material landfill</t>
-  </si>
-  <si>
-    <t>treatment of biowaste, municipal incineration</t>
-  </si>
-  <si>
-    <t>Acetic acid</t>
-  </si>
-  <si>
-    <t>Acetone</t>
-  </si>
-  <si>
-    <t>Butyl acetate</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, fossil</t>
-  </si>
-  <si>
-    <t>Glucose</t>
-  </si>
-  <si>
-    <t>P-chlorophenoxyacetic acid</t>
-  </si>
-  <si>
-    <t>Sodium hydroxide</t>
-  </si>
-  <si>
-    <t>Sulfuric acid</t>
-  </si>
-  <si>
-    <t>market for calcium carbonate, precipitated</t>
-  </si>
-  <si>
-    <t>market for cottonseed meal</t>
-  </si>
-  <si>
-    <t>market for rape oil, crude</t>
-  </si>
-  <si>
-    <t>market for soybean oil, refined</t>
-  </si>
-  <si>
-    <t>market for tap water</t>
-  </si>
-  <si>
-    <t>market for whey</t>
+    <t>market for titanium dioxide</t>
+  </si>
+  <si>
+    <t>market for vinyl acetate</t>
+  </si>
+  <si>
+    <t>market for water, ultrapure</t>
+  </si>
+  <si>
+    <t>usage of vial</t>
+  </si>
+  <si>
+    <t>market for sodium chlorate, powder</t>
+  </si>
+  <si>
+    <t>vial sc1</t>
+  </si>
+  <si>
+    <t>treatment of hazardous waste, hazardous waste incineration, with energy recovery</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>vial sc2</t>
+  </si>
+  <si>
+    <t>combined sc3</t>
+  </si>
+  <si>
+    <t>treatment of hazardous waste, hazardous waste incineration</t>
+  </si>
+  <si>
+    <t>pill sc1</t>
+  </si>
+  <si>
+    <t>pill sc2</t>
+  </si>
+  <si>
+    <t>alchohol wipes</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>IV sets</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>medicine strip</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>raw penicillium V</t>
+  </si>
+  <si>
+    <t>pharmamedia</t>
   </si>
   <si>
     <t>raw penicillium G</t>
   </si>
   <si>
-    <t>electricity production, deep geothermal</t>
-  </si>
-  <si>
-    <t>heat and power co-generation, natural gas, mini-plant 2KW electrical</t>
-  </si>
-  <si>
-    <t>market for phenyl acetic acid</t>
-  </si>
-  <si>
-    <t>tap water production, underground water with disinfection</t>
-  </si>
-  <si>
-    <t>Phenylacetic acid</t>
-  </si>
-  <si>
-    <t>full box of vials</t>
-  </si>
-  <si>
-    <t>market for folding boxboard carton</t>
-  </si>
-  <si>
-    <t>market for transport, freight, sea, bulk carrier for dry goods</t>
-  </si>
-  <si>
-    <t>manufacturing of vial of penicillin</t>
-  </si>
-  <si>
-    <t>market for waste polypropylene</t>
-  </si>
-  <si>
-    <t>packed box of penicillin</t>
-  </si>
-  <si>
-    <t>market for printed paper</t>
-  </si>
-  <si>
-    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
-  </si>
-  <si>
-    <t>treatment of waste packaging paper, municipal incineration</t>
-  </si>
-  <si>
-    <t>electricity production, hydro, pumped storage</t>
-  </si>
-  <si>
-    <t>market for furniture, wooden</t>
-  </si>
-  <si>
-    <t>market for glass tube, borosilicate</t>
-  </si>
-  <si>
-    <t>market for transport, freight, lorry 7.5-16 metric ton, EURO6</t>
-  </si>
-  <si>
-    <t>market for acetic acid, without water, in 98% solution state</t>
-  </si>
-  <si>
-    <t>stopcock</t>
-  </si>
-  <si>
-    <t>market for carboxymethyl cellulose, powder</t>
-  </si>
-  <si>
-    <t>market for titanium dioxide</t>
-  </si>
-  <si>
-    <t>market for vinyl acetate</t>
-  </si>
-  <si>
-    <t>market for water, ultrapure</t>
-  </si>
-  <si>
-    <t>usage of vial</t>
-  </si>
-  <si>
-    <t>market for sodium chlorate, powder</t>
-  </si>
-  <si>
-    <t>vial sc1</t>
-  </si>
-  <si>
-    <t>treatment of hazardous waste, hazardous waste incineration, with energy recovery</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>vial sc2</t>
-  </si>
-  <si>
-    <t>combined sc3</t>
-  </si>
-  <si>
-    <t>treatment of hazardous waste, hazardous waste incineration</t>
-  </si>
-  <si>
-    <t>pill sc1</t>
-  </si>
-  <si>
-    <t>pill sc2</t>
-  </si>
-  <si>
-    <t>alchohol wipes</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>IV sets</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>kilogram</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>medicine strip</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>raw penicillium V</t>
-  </si>
-  <si>
-    <t>pharmamedia</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -421,7 +421,7 @@
     <t>SE</t>
   </si>
   <si>
-    <t>vial of penicillin</t>
+    <t>vial for penicillin</t>
   </si>
   <si>
     <t>vial</t>
@@ -520,6 +520,9 @@
     <t>butyl acetate</t>
   </si>
   <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
     <t>glucose</t>
   </si>
   <si>
@@ -562,9 +565,6 @@
     <t>whey</t>
   </si>
   <si>
-    <t>heat, central or small-scale, natural gas</t>
-  </si>
-  <si>
     <t>phenyl acetic acid</t>
   </si>
   <si>
@@ -655,7 +655,7 @@
     <t>database</t>
   </si>
   <si>
-    <t>ev391consq</t>
+    <t>ev391cutoff</t>
   </si>
   <si>
     <t>biosphere3</t>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>primacillin Production</t>
+  </si>
+  <si>
+    <t>equivelent to 79.12 MJ</t>
   </si>
   <si>
     <t>Scenerio2</t>
@@ -1090,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1098,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1119,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1151,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1180,10 +1183,10 @@
         <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
         <v>210</v>
@@ -1203,10 +1206,10 @@
         <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>210</v>
@@ -1226,10 +1229,10 @@
         <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>210</v>
@@ -1249,10 +1252,10 @@
         <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>210</v>
@@ -1269,10 +1272,10 @@
         <v>0.00015</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
         <v>202</v>
@@ -1305,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1313,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1334,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1366,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
         <v>121</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1395,10 +1398,10 @@
         <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
         <v>210</v>
@@ -1418,10 +1421,10 @@
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
         <v>210</v>
@@ -1441,10 +1444,10 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
         <v>210</v>
@@ -1464,10 +1467,10 @@
         <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
         <v>210</v>
@@ -1487,10 +1490,10 @@
         <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
         <v>210</v>
@@ -1507,10 +1510,10 @@
         <v>0.00549</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
         <v>202</v>
@@ -1533,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
         <v>202</v>
@@ -1566,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1574,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1595,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1627,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
         <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -1656,10 +1659,10 @@
         <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
         <v>210</v>
@@ -1679,10 +1682,10 @@
         <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G42" t="s">
         <v>210</v>
@@ -1702,10 +1705,10 @@
         <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G43" t="s">
         <v>210</v>
@@ -1725,10 +1728,10 @@
         <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" t="s">
         <v>210</v>
@@ -1748,10 +1751,10 @@
         <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G45" t="s">
         <v>210</v>
@@ -1771,10 +1774,10 @@
         <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G46" t="s">
         <v>210</v>
@@ -1794,10 +1797,10 @@
         <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G47" t="s">
         <v>210</v>
@@ -1817,10 +1820,10 @@
         <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" t="s">
         <v>210</v>
@@ -1840,10 +1843,10 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G49" t="s">
         <v>210</v>
@@ -1863,10 +1866,10 @@
         <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
         <v>210</v>
@@ -1886,10 +1889,10 @@
         <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
         <v>210</v>
@@ -1927,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1935,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -1948,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -1983,10 +1986,10 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G60" t="s">
         <v>209</v>
@@ -2009,10 +2012,10 @@
         <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
         <v>210</v>
@@ -2032,10 +2035,10 @@
         <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G62" t="s">
         <v>210</v>
@@ -2073,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2081,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2094,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -2129,10 +2132,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G71" t="s">
         <v>209</v>
@@ -2155,10 +2158,10 @@
         <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G72" t="s">
         <v>210</v>
@@ -2178,10 +2181,10 @@
         <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G73" t="s">
         <v>210</v>
@@ -2219,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2240,7 +2243,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -2275,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -2301,10 +2304,10 @@
         <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G83" t="s">
         <v>210</v>
@@ -2324,10 +2327,10 @@
         <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
         <v>210</v>
@@ -2347,10 +2350,10 @@
         <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G85" t="s">
         <v>210</v>
@@ -2370,10 +2373,10 @@
         <v>149</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G86" t="s">
         <v>210</v>
@@ -2393,10 +2396,10 @@
         <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G87" t="s">
         <v>210</v>
@@ -2416,10 +2419,10 @@
         <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G88" t="s">
         <v>210</v>
@@ -2449,7 +2452,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2457,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2478,7 +2481,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -2510,10 +2513,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" t="s">
         <v>127</v>
-      </c>
-      <c r="D97" t="s">
-        <v>128</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -2539,10 +2542,10 @@
         <v>159</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G98" t="s">
         <v>210</v>
@@ -2585,10 +2588,10 @@
         <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G100" t="s">
         <v>210</v>
@@ -2608,10 +2611,10 @@
         <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G101" t="s">
         <v>210</v>
@@ -2631,10 +2634,10 @@
         <v>152</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G102" t="s">
         <v>210</v>
@@ -2654,7 +2657,7 @@
         <v>50</v>
       </c>
       <c r="D103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -2677,7 +2680,7 @@
         <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s">
         <v>202</v>
@@ -2700,7 +2703,7 @@
         <v>164</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
         <v>202</v>
@@ -2733,7 +2736,7 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -2741,7 +2744,7 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -2749,7 +2752,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -2762,7 +2765,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -2794,13 +2797,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G114" t="s">
         <v>209</v>
@@ -2823,10 +2826,10 @@
         <v>165</v>
       </c>
       <c r="D115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G115" t="s">
         <v>210</v>
@@ -2846,10 +2849,10 @@
         <v>166</v>
       </c>
       <c r="D116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G116" t="s">
         <v>210</v>
@@ -2869,10 +2872,10 @@
         <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G117" t="s">
         <v>210</v>
@@ -2889,10 +2892,10 @@
         <v>21.97777777777778</v>
       </c>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="E118" t="s">
         <v>203</v>
@@ -2902,6 +2905,9 @@
       </c>
       <c r="H118" t="s">
         <v>213</v>
+      </c>
+      <c r="I118" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -2912,13 +2918,13 @@
         <v>5.18</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G119" t="s">
         <v>210</v>
@@ -2935,10 +2941,10 @@
         <v>8.91</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E120" t="s">
         <v>204</v>
@@ -2958,13 +2964,13 @@
         <v>4.02</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G121" t="s">
         <v>210</v>
@@ -2981,10 +2987,10 @@
         <v>1.3</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -3004,19 +3010,19 @@
         <v>0.36</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G123" t="s">
         <v>210</v>
       </c>
       <c r="H123" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3030,10 +3036,10 @@
         <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G124" t="s">
         <v>210</v>
@@ -3050,13 +3056,13 @@
         <v>0.11</v>
       </c>
       <c r="C125" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G125" t="s">
         <v>210</v>
@@ -3073,13 +3079,13 @@
         <v>0.01</v>
       </c>
       <c r="C126" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G126" t="s">
         <v>210</v>
@@ -3096,13 +3102,13 @@
         <v>19.1</v>
       </c>
       <c r="C127" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D127" t="s">
         <v>199</v>
       </c>
       <c r="E127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G127" t="s">
         <v>210</v>
@@ -3119,13 +3125,13 @@
         <v>-0.0535</v>
       </c>
       <c r="C128" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D128" t="s">
         <v>200</v>
       </c>
       <c r="E128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G128" t="s">
         <v>210</v>
@@ -3142,13 +3148,13 @@
         <v>-1.07</v>
       </c>
       <c r="C129" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G129" t="s">
         <v>210</v>
@@ -3168,10 +3174,10 @@
         <v>63</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G130" t="s">
         <v>210</v>
@@ -3188,7 +3194,7 @@
         <v>0.17</v>
       </c>
       <c r="E131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F131" t="s">
         <v>206</v>
@@ -3208,7 +3214,7 @@
         <v>0.22</v>
       </c>
       <c r="E132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F132" t="s">
         <v>206</v>
@@ -3228,7 +3234,7 @@
         <v>0.18</v>
       </c>
       <c r="E133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F133" t="s">
         <v>206</v>
@@ -3248,7 +3254,7 @@
         <v>6.58</v>
       </c>
       <c r="E134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F134" t="s">
         <v>207</v>
@@ -3268,7 +3274,7 @@
         <v>0.06</v>
       </c>
       <c r="E135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F135" t="s">
         <v>206</v>
@@ -3288,7 +3294,7 @@
         <v>0.01</v>
       </c>
       <c r="E136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F136" t="s">
         <v>206</v>
@@ -3308,7 +3314,7 @@
         <v>0.11</v>
       </c>
       <c r="E137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F137" t="s">
         <v>207</v>
@@ -3328,7 +3334,7 @@
         <v>0.01</v>
       </c>
       <c r="E138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F138" t="s">
         <v>206</v>
@@ -3361,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3369,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3390,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
@@ -3422,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E147" t="s">
         <v>13</v>
@@ -3445,13 +3451,13 @@
         <v>0.00890313</v>
       </c>
       <c r="C148" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G148" t="s">
         <v>210</v>
@@ -3468,13 +3474,13 @@
         <v>0.03561</v>
       </c>
       <c r="C149" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G149" t="s">
         <v>210</v>
@@ -3491,13 +3497,13 @@
         <v>0.035613</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D150" t="s">
         <v>200</v>
       </c>
       <c r="E150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G150" t="s">
         <v>210</v>
@@ -3514,13 +3520,13 @@
         <v>0.002849</v>
       </c>
       <c r="C151" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G151" t="s">
         <v>210</v>
@@ -3537,13 +3543,13 @@
         <v>0.890313</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D152" t="s">
         <v>199</v>
       </c>
       <c r="E152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G152" t="s">
         <v>210</v>
@@ -3560,13 +3566,13 @@
         <v>0.026709</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E153" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G153" t="s">
         <v>210</v>
@@ -3596,7 +3602,7 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -3612,7 +3618,7 @@
         <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -3625,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
@@ -3657,13 +3663,13 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D162" t="s">
         <v>131</v>
       </c>
       <c r="E162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G162" t="s">
         <v>209</v>
@@ -3686,10 +3692,10 @@
         <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E163" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G163" t="s">
         <v>210</v>
@@ -3709,10 +3715,10 @@
         <v>166</v>
       </c>
       <c r="D164" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E164" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G164" t="s">
         <v>210</v>
@@ -3732,10 +3738,10 @@
         <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G165" t="s">
         <v>210</v>
@@ -3746,13 +3752,13 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B166">
         <v>21.97777777777778</v>
       </c>
       <c r="C166" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D166" t="s">
         <v>131</v>
@@ -3765,6 +3771,9 @@
       </c>
       <c r="H166" t="s">
         <v>213</v>
+      </c>
+      <c r="I166" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -3775,13 +3784,13 @@
         <v>5.18</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E167" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G167" t="s">
         <v>210</v>
@@ -3792,16 +3801,16 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B168">
         <v>8.91</v>
       </c>
       <c r="C168" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D168" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="E168" t="s">
         <v>204</v>
@@ -3821,13 +3830,13 @@
         <v>4.02</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E169" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G169" t="s">
         <v>210</v>
@@ -3844,10 +3853,10 @@
         <v>1.3</v>
       </c>
       <c r="C170" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -3861,7 +3870,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B171">
         <v>0.36</v>
@@ -3870,10 +3879,10 @@
         <v>183</v>
       </c>
       <c r="D171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E171" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G171" t="s">
         <v>210</v>
@@ -3893,10 +3902,10 @@
         <v>63</v>
       </c>
       <c r="D172" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E172" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G172" t="s">
         <v>210</v>
@@ -3913,13 +3922,13 @@
         <v>0.11</v>
       </c>
       <c r="C173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D173" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G173" t="s">
         <v>210</v>
@@ -3936,13 +3945,13 @@
         <v>0.01</v>
       </c>
       <c r="C174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E174" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G174" t="s">
         <v>210</v>
@@ -3953,19 +3962,19 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B175">
         <v>19.1</v>
       </c>
       <c r="C175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D175" t="s">
         <v>201</v>
       </c>
       <c r="E175" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G175" t="s">
         <v>210</v>
@@ -3982,13 +3991,13 @@
         <v>-0.00535</v>
       </c>
       <c r="C176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D176" t="s">
         <v>200</v>
       </c>
       <c r="E176" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G176" t="s">
         <v>210</v>
@@ -4005,13 +4014,13 @@
         <v>-1.07</v>
       </c>
       <c r="C177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D177" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E177" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G177" t="s">
         <v>210</v>
@@ -4031,10 +4040,10 @@
         <v>63</v>
       </c>
       <c r="D178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E178" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G178" t="s">
         <v>210</v>
@@ -4051,7 +4060,7 @@
         <v>0.17</v>
       </c>
       <c r="E179" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F179" t="s">
         <v>206</v>
@@ -4071,7 +4080,7 @@
         <v>0.22</v>
       </c>
       <c r="E180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F180" t="s">
         <v>206</v>
@@ -4091,7 +4100,7 @@
         <v>0.18</v>
       </c>
       <c r="E181" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F181" t="s">
         <v>206</v>
@@ -4111,7 +4120,7 @@
         <v>6.58</v>
       </c>
       <c r="E182" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F182" t="s">
         <v>207</v>
@@ -4131,7 +4140,7 @@
         <v>0.06</v>
       </c>
       <c r="E183" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F183" t="s">
         <v>206</v>
@@ -4145,13 +4154,13 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B184">
         <v>0.01</v>
       </c>
       <c r="E184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F184" t="s">
         <v>206</v>
@@ -4171,7 +4180,7 @@
         <v>0.11</v>
       </c>
       <c r="E185" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F185" t="s">
         <v>207</v>
@@ -4191,7 +4200,7 @@
         <v>0.01</v>
       </c>
       <c r="E186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F186" t="s">
         <v>206</v>
@@ -4208,7 +4217,7 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -4224,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -4253,7 +4262,7 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C194" t="s">
         <v>11</v>
@@ -4279,13 +4288,13 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D195" t="s">
         <v>132</v>
@@ -4314,10 +4323,10 @@
         <v>159</v>
       </c>
       <c r="D196" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E196" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G196" t="s">
         <v>210</v>
@@ -4328,7 +4337,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B197">
         <v>0.04328224</v>
@@ -4337,10 +4346,10 @@
         <v>184</v>
       </c>
       <c r="D197" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E197" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G197" t="s">
         <v>210</v>
@@ -4357,10 +4366,10 @@
         <v>0.2965355965</v>
       </c>
       <c r="C198" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E198" t="s">
         <v>202</v>
@@ -4374,7 +4383,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B199">
         <v>0.3832937089</v>
@@ -4383,7 +4392,7 @@
         <v>185</v>
       </c>
       <c r="D199" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E199" t="s">
         <v>202</v>
@@ -4397,7 +4406,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B200">
         <v>10</v>
@@ -4426,13 +4435,13 @@
         <v>-0.0775</v>
       </c>
       <c r="C201" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D201" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E201" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G201" t="s">
         <v>210</v>
@@ -4443,7 +4452,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B202">
         <v>-0.1015625</v>
@@ -4455,7 +4464,7 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G202" t="s">
         <v>210</v>
@@ -4469,7 +4478,7 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -4514,7 +4523,7 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C210" t="s">
         <v>11</v>
@@ -4540,7 +4549,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4575,10 +4584,10 @@
         <v>159</v>
       </c>
       <c r="D212" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E212" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G212" t="s">
         <v>210</v>
@@ -4589,7 +4598,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B213">
         <v>0.00827</v>
@@ -4598,10 +4607,10 @@
         <v>184</v>
       </c>
       <c r="D213" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E213" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G213" t="s">
         <v>210</v>
@@ -4618,10 +4627,10 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
+        <v>126</v>
+      </c>
+      <c r="D214" t="s">
         <v>127</v>
-      </c>
-      <c r="D214" t="s">
-        <v>128</v>
       </c>
       <c r="E214" t="s">
         <v>13</v>
@@ -4635,7 +4644,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B215">
         <v>0.00454</v>
@@ -4644,10 +4653,10 @@
         <v>187</v>
       </c>
       <c r="D215" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E215" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G215" t="s">
         <v>210</v>
@@ -4658,16 +4667,16 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B216">
         <v>0.02626</v>
       </c>
       <c r="C216" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D216" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E216" t="s">
         <v>202</v>
@@ -4681,7 +4690,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B217">
         <v>-0.01587575</v>
@@ -4690,10 +4699,10 @@
         <v>188</v>
       </c>
       <c r="D217" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E217" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G217" t="s">
         <v>210</v>
@@ -4707,7 +4716,7 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -4752,7 +4761,7 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
@@ -4778,7 +4787,7 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -4813,10 +4822,10 @@
         <v>158</v>
       </c>
       <c r="D227" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E227" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G227" t="s">
         <v>210</v>
@@ -4827,7 +4836,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B228">
         <v>3.733333333333333E-05</v>
@@ -4859,10 +4868,10 @@
         <v>146</v>
       </c>
       <c r="D229" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E229" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G229" t="s">
         <v>210</v>
@@ -4873,7 +4882,7 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B230">
         <v>0.00775</v>
@@ -4882,10 +4891,10 @@
         <v>189</v>
       </c>
       <c r="D230" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E230" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G230" t="s">
         <v>210</v>
@@ -4896,7 +4905,7 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B231">
         <v>0.02634</v>
@@ -4905,10 +4914,10 @@
         <v>190</v>
       </c>
       <c r="D231" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E231" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G231" t="s">
         <v>210</v>
@@ -4928,10 +4937,10 @@
         <v>147</v>
       </c>
       <c r="D232" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E232" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G232" t="s">
         <v>210</v>
@@ -4951,10 +4960,10 @@
         <v>150</v>
       </c>
       <c r="D233" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E233" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G233" t="s">
         <v>210</v>
@@ -4971,13 +4980,13 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="C234" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D234" t="s">
         <v>131</v>
       </c>
       <c r="E234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G234" t="s">
         <v>210</v>
@@ -4997,10 +5006,10 @@
         <v>142</v>
       </c>
       <c r="D235" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E235" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G235" t="s">
         <v>210</v>
@@ -5011,7 +5020,7 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B236">
         <v>0.03893653</v>
@@ -5020,7 +5029,7 @@
         <v>191</v>
       </c>
       <c r="D236" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E236" t="s">
         <v>202</v>
@@ -5043,7 +5052,7 @@
         <v>164</v>
       </c>
       <c r="D237" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E237" t="s">
         <v>202</v>
@@ -5084,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -5092,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -5105,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C245" t="s">
         <v>11</v>
@@ -5140,10 +5149,10 @@
         <v>63</v>
       </c>
       <c r="D246" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E246" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G246" t="s">
         <v>209</v>
@@ -5157,7 +5166,7 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B247">
         <v>0.7317</v>
@@ -5166,10 +5175,10 @@
         <v>192</v>
       </c>
       <c r="D247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E247" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G247" t="s">
         <v>210</v>
@@ -5186,13 +5195,13 @@
         <v>0.487805</v>
       </c>
       <c r="C248" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D248" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E248" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G248" t="s">
         <v>210</v>
@@ -5206,7 +5215,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -5222,7 +5231,7 @@
         <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -5230,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -5251,7 +5260,7 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C256" t="s">
         <v>11</v>
@@ -5277,16 +5286,16 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D257" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -5312,10 +5321,10 @@
         <v>147</v>
       </c>
       <c r="D258" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E258" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G258" t="s">
         <v>210</v>
@@ -5335,10 +5344,10 @@
         <v>149</v>
       </c>
       <c r="D259" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E259" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G259" t="s">
         <v>210</v>
@@ -5358,10 +5367,10 @@
         <v>141</v>
       </c>
       <c r="D260" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E260" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G260" t="s">
         <v>210</v>
@@ -5399,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -5420,7 +5429,7 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C268" t="s">
         <v>11</v>
@@ -5455,7 +5464,7 @@
         <v>50</v>
       </c>
       <c r="D269" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -5472,7 +5481,7 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B270">
         <v>0.0001125</v>
@@ -5481,10 +5490,10 @@
         <v>193</v>
       </c>
       <c r="D270" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E270" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G270" t="s">
         <v>210</v>
@@ -5495,7 +5504,7 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B271">
         <v>5.208333333333333E-05</v>
@@ -5527,10 +5536,10 @@
         <v>154</v>
       </c>
       <c r="D272" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E272" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G272" t="s">
         <v>210</v>
@@ -5550,10 +5559,10 @@
         <v>37</v>
       </c>
       <c r="D273" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E273" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G273" t="s">
         <v>210</v>
@@ -5573,10 +5582,10 @@
         <v>40</v>
       </c>
       <c r="D274" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E274" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G274" t="s">
         <v>210</v>
@@ -5593,13 +5602,13 @@
         <v>0.0008</v>
       </c>
       <c r="C275" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D275" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E275" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G275" t="s">
         <v>210</v>
@@ -5610,7 +5619,7 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B276">
         <v>2.55E-05</v>
@@ -5619,10 +5628,10 @@
         <v>194</v>
       </c>
       <c r="D276" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E276" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G276" t="s">
         <v>210</v>
@@ -5633,7 +5642,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B277">
         <v>2.375E-05</v>
@@ -5642,10 +5651,10 @@
         <v>195</v>
       </c>
       <c r="D277" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E277" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G277" t="s">
         <v>210</v>
@@ -5656,7 +5665,7 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B278">
         <v>9.374999999999999E-06</v>
@@ -5665,10 +5674,10 @@
         <v>196</v>
       </c>
       <c r="D278" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E278" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G278" t="s">
         <v>210</v>
@@ -5682,7 +5691,7 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -5706,7 +5715,7 @@
         <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -5714,7 +5723,7 @@
         <v>13</v>
       </c>
       <c r="B284" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -5727,7 +5736,7 @@
         <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C286" t="s">
         <v>11</v>
@@ -5753,7 +5762,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5762,10 +5771,10 @@
         <v>136</v>
       </c>
       <c r="D287" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E287" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G287" t="s">
         <v>209</v>
@@ -5785,10 +5794,10 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
+        <v>117</v>
+      </c>
+      <c r="D288" t="s">
         <v>118</v>
-      </c>
-      <c r="D288" t="s">
-        <v>119</v>
       </c>
       <c r="E288" t="s">
         <v>13</v>
@@ -5802,13 +5811,13 @@
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B289">
         <v>0.1</v>
       </c>
       <c r="C289" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D289" t="s">
         <v>132</v>
@@ -5831,10 +5840,10 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
+        <v>120</v>
+      </c>
+      <c r="D290" t="s">
         <v>121</v>
-      </c>
-      <c r="D290" t="s">
-        <v>122</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
@@ -5854,10 +5863,10 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
+        <v>122</v>
+      </c>
+      <c r="D291" t="s">
         <v>123</v>
-      </c>
-      <c r="D291" t="s">
-        <v>124</v>
       </c>
       <c r="E291" t="s">
         <v>13</v>
@@ -5880,7 +5889,7 @@
         <v>43</v>
       </c>
       <c r="D292" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E292" t="s">
         <v>13</v>
@@ -5894,7 +5903,7 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B293">
         <v>0.0009000000000000001</v>
@@ -5903,10 +5912,10 @@
         <v>197</v>
       </c>
       <c r="D293" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E293" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G293" t="s">
         <v>210</v>
@@ -5917,16 +5926,16 @@
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D294" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E294" t="s">
         <v>13</v>
@@ -5940,7 +5949,7 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B295">
         <v>0.1</v>
@@ -5949,10 +5958,10 @@
         <v>196</v>
       </c>
       <c r="D295" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E295" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G295" t="s">
         <v>210</v>
@@ -5966,7 +5975,7 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -5982,7 +5991,7 @@
         <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -5990,7 +5999,7 @@
         <v>12</v>
       </c>
       <c r="B300" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -5998,7 +6007,7 @@
         <v>13</v>
       </c>
       <c r="B301" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -6011,7 +6020,7 @@
         <v>15</v>
       </c>
       <c r="B303" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C303" t="s">
         <v>11</v>
@@ -6037,19 +6046,19 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D304" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E304" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G304" t="s">
         <v>209</v>
@@ -6069,10 +6078,10 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
+        <v>117</v>
+      </c>
+      <c r="D305" t="s">
         <v>118</v>
-      </c>
-      <c r="D305" t="s">
-        <v>119</v>
       </c>
       <c r="E305" t="s">
         <v>13</v>
@@ -6086,13 +6095,13 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B306">
         <v>0.1</v>
       </c>
       <c r="C306" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D306" t="s">
         <v>132</v>
@@ -6115,10 +6124,10 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
+        <v>120</v>
+      </c>
+      <c r="D307" t="s">
         <v>121</v>
-      </c>
-      <c r="D307" t="s">
-        <v>122</v>
       </c>
       <c r="E307" t="s">
         <v>13</v>
@@ -6132,7 +6141,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B308">
         <v>0.13158</v>
@@ -6144,7 +6153,7 @@
         <v>201</v>
       </c>
       <c r="E308" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G308" t="s">
         <v>210</v>
@@ -6161,10 +6170,10 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
+        <v>122</v>
+      </c>
+      <c r="D309" t="s">
         <v>123</v>
-      </c>
-      <c r="D309" t="s">
-        <v>124</v>
       </c>
       <c r="E309" t="s">
         <v>13</v>
@@ -6187,7 +6196,7 @@
         <v>43</v>
       </c>
       <c r="D310" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E310" t="s">
         <v>13</v>
@@ -6201,7 +6210,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B311">
         <v>0.0009000000000000001</v>
@@ -6210,10 +6219,10 @@
         <v>197</v>
       </c>
       <c r="D311" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E311" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G311" t="s">
         <v>210</v>
@@ -6224,16 +6233,16 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D312" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E312" t="s">
         <v>13</v>
@@ -6247,7 +6256,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B313">
         <v>0.1</v>
@@ -6256,10 +6265,10 @@
         <v>196</v>
       </c>
       <c r="D313" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E313" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G313" t="s">
         <v>210</v>
@@ -6270,7 +6279,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B314">
         <v>0.020203974</v>
@@ -6279,10 +6288,10 @@
         <v>188</v>
       </c>
       <c r="D314" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E314" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G314" t="s">
         <v>210</v>
@@ -6293,13 +6302,13 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B315">
         <v>0.00036</v>
       </c>
       <c r="E315" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F315" t="s">
         <v>207</v>
@@ -6316,7 +6325,7 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -6332,7 +6341,7 @@
         <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -6340,7 +6349,7 @@
         <v>12</v>
       </c>
       <c r="B320" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -6348,7 +6357,7 @@
         <v>13</v>
       </c>
       <c r="B321" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -6361,7 +6370,7 @@
         <v>15</v>
       </c>
       <c r="B323" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C323" t="s">
         <v>11</v>
@@ -6387,19 +6396,19 @@
     </row>
     <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B324">
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D324" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E324" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G324" t="s">
         <v>209</v>
@@ -6408,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="I324" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -6419,10 +6428,10 @@
         <v>12</v>
       </c>
       <c r="C325" t="s">
+        <v>117</v>
+      </c>
+      <c r="D325" t="s">
         <v>118</v>
-      </c>
-      <c r="D325" t="s">
-        <v>119</v>
       </c>
       <c r="E325" t="s">
         <v>13</v>
@@ -6436,13 +6445,13 @@
     </row>
     <row r="326" spans="1:9">
       <c r="A326" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B326">
         <v>1.2</v>
       </c>
       <c r="C326" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D326" t="s">
         <v>132</v>
@@ -6465,10 +6474,10 @@
         <v>12</v>
       </c>
       <c r="C327" t="s">
+        <v>120</v>
+      </c>
+      <c r="D327" t="s">
         <v>121</v>
-      </c>
-      <c r="D327" t="s">
-        <v>122</v>
       </c>
       <c r="E327" t="s">
         <v>13</v>
@@ -6482,7 +6491,7 @@
     </row>
     <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B328">
         <v>1.57896</v>
@@ -6494,7 +6503,7 @@
         <v>201</v>
       </c>
       <c r="E328" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G328" t="s">
         <v>210</v>
@@ -6511,10 +6520,10 @@
         <v>12</v>
       </c>
       <c r="C329" t="s">
+        <v>122</v>
+      </c>
+      <c r="D329" t="s">
         <v>123</v>
-      </c>
-      <c r="D329" t="s">
-        <v>124</v>
       </c>
       <c r="E329" t="s">
         <v>13</v>
@@ -6537,7 +6546,7 @@
         <v>43</v>
       </c>
       <c r="D330" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E330" t="s">
         <v>13</v>
@@ -6551,7 +6560,7 @@
     </row>
     <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B331">
         <v>0.0108</v>
@@ -6560,10 +6569,10 @@
         <v>197</v>
       </c>
       <c r="D331" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E331" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G331" t="s">
         <v>210</v>
@@ -6574,16 +6583,16 @@
     </row>
     <row r="332" spans="1:9">
       <c r="A332" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B332">
         <v>12</v>
       </c>
       <c r="C332" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D332" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E332" t="s">
         <v>13</v>
@@ -6597,7 +6606,7 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B333">
         <v>1200</v>
@@ -6606,10 +6615,10 @@
         <v>196</v>
       </c>
       <c r="D333" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E333" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G333" t="s">
         <v>210</v>
@@ -6620,7 +6629,7 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B334">
         <v>0.24245</v>
@@ -6629,10 +6638,10 @@
         <v>188</v>
       </c>
       <c r="D334" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E334" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G334" t="s">
         <v>210</v>
@@ -6643,13 +6652,13 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B335">
         <v>0.00432</v>
       </c>
       <c r="E335" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F335" t="s">
         <v>207</v>
@@ -6666,7 +6675,7 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -6682,7 +6691,7 @@
         <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -6690,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -6698,7 +6707,7 @@
         <v>13</v>
       </c>
       <c r="B341" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -6711,7 +6720,7 @@
         <v>15</v>
       </c>
       <c r="B343" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C343" t="s">
         <v>11</v>
@@ -6737,19 +6746,19 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B344">
         <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D344" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E344" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G344" t="s">
         <v>209</v>
@@ -6758,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="I344" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -6769,10 +6778,10 @@
         <v>8</v>
       </c>
       <c r="C345" t="s">
+        <v>117</v>
+      </c>
+      <c r="D345" t="s">
         <v>118</v>
-      </c>
-      <c r="D345" t="s">
-        <v>119</v>
       </c>
       <c r="E345" t="s">
         <v>13</v>
@@ -6789,13 +6798,13 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B346">
         <v>0.8</v>
       </c>
       <c r="C346" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D346" t="s">
         <v>132</v>
@@ -6821,10 +6830,10 @@
         <v>8</v>
       </c>
       <c r="C347" t="s">
+        <v>120</v>
+      </c>
+      <c r="D347" t="s">
         <v>121</v>
-      </c>
-      <c r="D347" t="s">
-        <v>122</v>
       </c>
       <c r="E347" t="s">
         <v>13</v>
@@ -6841,7 +6850,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B348">
         <v>1.05264</v>
@@ -6853,7 +6862,7 @@
         <v>201</v>
       </c>
       <c r="E348" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G348" t="s">
         <v>210</v>
@@ -6873,10 +6882,10 @@
         <v>8</v>
       </c>
       <c r="C349" t="s">
+        <v>122</v>
+      </c>
+      <c r="D349" t="s">
         <v>123</v>
-      </c>
-      <c r="D349" t="s">
-        <v>124</v>
       </c>
       <c r="E349" t="s">
         <v>13</v>
@@ -6902,7 +6911,7 @@
         <v>43</v>
       </c>
       <c r="D350" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E350" t="s">
         <v>13</v>
@@ -6919,7 +6928,7 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B351">
         <v>0.007200000000000001</v>
@@ -6928,10 +6937,10 @@
         <v>197</v>
       </c>
       <c r="D351" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E351" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G351" t="s">
         <v>210</v>
@@ -6945,16 +6954,16 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B352">
         <v>8</v>
       </c>
       <c r="C352" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D352" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E352" t="s">
         <v>13</v>
@@ -6971,7 +6980,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B353">
         <v>0.8</v>
@@ -6980,10 +6989,10 @@
         <v>196</v>
       </c>
       <c r="D353" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E353" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G353" t="s">
         <v>210</v>
@@ -6997,7 +7006,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B354">
         <v>0.161631</v>
@@ -7006,10 +7015,10 @@
         <v>188</v>
       </c>
       <c r="D354" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E354" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G354" t="s">
         <v>210</v>
@@ -7023,13 +7032,13 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B355">
         <v>0.00288</v>
       </c>
       <c r="E355" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F355" t="s">
         <v>207</v>
@@ -7046,7 +7055,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B356">
         <v>0.003564</v>
@@ -7058,7 +7067,7 @@
         <v>201</v>
       </c>
       <c r="E356" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G356" t="s">
         <v>210</v>
@@ -7067,12 +7076,12 @@
         <v>213</v>
       </c>
       <c r="I356" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B357">
         <v>0.4</v>
@@ -7093,12 +7102,12 @@
         <v>1</v>
       </c>
       <c r="I357" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B358">
         <v>-0.031584</v>
@@ -7107,10 +7116,10 @@
         <v>188</v>
       </c>
       <c r="D358" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E358" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G358" t="s">
         <v>210</v>
@@ -7119,7 +7128,7 @@
         <v>213</v>
       </c>
       <c r="I358" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -7127,7 +7136,7 @@
         <v>9</v>
       </c>
       <c r="B360" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -7143,7 +7152,7 @@
         <v>11</v>
       </c>
       <c r="B362" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -7151,7 +7160,7 @@
         <v>12</v>
       </c>
       <c r="B363" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -7172,7 +7181,7 @@
         <v>15</v>
       </c>
       <c r="B366" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C366" t="s">
         <v>11</v>
@@ -7198,16 +7207,16 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B367">
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D367" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E367" t="s">
         <v>13</v>
@@ -7219,12 +7228,12 @@
         <v>1</v>
       </c>
       <c r="I367" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B368">
         <v>0.000297</v>
@@ -7236,7 +7245,7 @@
         <v>201</v>
       </c>
       <c r="E368" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G368" t="s">
         <v>210</v>
@@ -7247,7 +7256,7 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B369">
         <v>0.033</v>
@@ -7270,7 +7279,7 @@
     </row>
     <row r="370" spans="1:9">
       <c r="A370" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B370">
         <v>-0.002632</v>
@@ -7279,10 +7288,10 @@
         <v>188</v>
       </c>
       <c r="D370" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E370" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G370" t="s">
         <v>210</v>
@@ -7296,7 +7305,7 @@
         <v>9</v>
       </c>
       <c r="B372" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -7312,7 +7321,7 @@
         <v>11</v>
       </c>
       <c r="B374" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -7320,7 +7329,7 @@
         <v>12</v>
       </c>
       <c r="B375" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -7341,7 +7350,7 @@
         <v>15</v>
       </c>
       <c r="B378" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C378" t="s">
         <v>11</v>
@@ -7367,16 +7376,16 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B379">
         <v>1</v>
       </c>
       <c r="C379" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D379" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E379" t="s">
         <v>13</v>
@@ -7388,12 +7397,12 @@
         <v>1</v>
       </c>
       <c r="I379" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B380">
         <v>0.005940000000000001</v>
@@ -7405,7 +7414,7 @@
         <v>201</v>
       </c>
       <c r="E380" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G380" t="s">
         <v>210</v>
@@ -7416,7 +7425,7 @@
     </row>
     <row r="381" spans="1:9">
       <c r="A381" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B381">
         <v>0.6666666666666666</v>
@@ -7439,7 +7448,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B382">
         <v>-0.05264</v>
@@ -7448,10 +7457,10 @@
         <v>188</v>
       </c>
       <c r="D382" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E382" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G382" t="s">
         <v>210</v>

--- a/data/temp.xlsx
+++ b/data/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="219">
   <si>
     <t>Database</t>
   </si>
@@ -91,7 +91,7 @@
     <t>market for soybean oil, refined</t>
   </si>
   <si>
-    <t>market for tap water</t>
+    <t>market for water, deionised</t>
   </si>
   <si>
     <t>market for whey</t>
@@ -136,9 +136,6 @@
     <t>market for sulfuric acid</t>
   </si>
   <si>
-    <t>market for water, deionised</t>
-  </si>
-  <si>
     <t>treatment of average incineration residue, residual material landfill</t>
   </si>
   <si>
@@ -433,7 +430,7 @@
     <t>soybean oil, refined</t>
   </si>
   <si>
-    <t>tap water</t>
+    <t>water, deionised</t>
   </si>
   <si>
     <t>whey</t>
@@ -472,9 +469,6 @@
     <t>sulfuric acid</t>
   </si>
   <si>
-    <t>water, deionised</t>
-  </si>
-  <si>
     <t>average incineration residue</t>
   </si>
   <si>
@@ -658,22 +652,25 @@
     <t>comment</t>
   </si>
   <si>
+    <t>Purification</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Equivelent to 79.12 MJ</t>
+  </si>
+  <si>
+    <t>Fermentation</t>
+  </si>
+  <si>
+    <t>Losses during proudction with a 96.2% efficiency</t>
+  </si>
+  <si>
     <t>Penicillin V Production</t>
   </si>
   <si>
-    <t>Purification</t>
-  </si>
-  <si>
-    <t>Extraction</t>
-  </si>
-  <si>
-    <t>Equivelent to 79.12 MJ</t>
-  </si>
-  <si>
-    <t>Fermentation</t>
-  </si>
-  <si>
-    <t>Losses during proudction assuming 96.2% efficiency</t>
+    <t>Downscaling from 800 mg to 660 mg pill of pencillin</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1095,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1103,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1116,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1128,16 +1125,16 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1151,19 +1148,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1174,19 +1168,19 @@
         <v>0.06804</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1197,19 +1191,19 @@
         <v>0.95897</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1220,19 +1214,19 @@
         <v>-0.02700999999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1256,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1264,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1285,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1297,16 +1291,16 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1317,16 +1311,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
         <v>116</v>
       </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H22" t="s">
         <v>1</v>
@@ -1340,19 +1334,19 @@
         <v>0.00890313</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1363,19 +1357,19 @@
         <v>0.03561</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1386,19 +1380,19 @@
         <v>0.035613</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1409,19 +1403,19 @@
         <v>0.002849</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1432,19 +1426,19 @@
         <v>0.890313</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1455,19 +1449,19 @@
         <v>0.026709</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1499,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1507,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1520,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1532,16 +1526,16 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1555,13 +1549,13 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H37" t="s">
         <v>1</v>
@@ -1575,19 +1569,19 @@
         <v>0.7317</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1598,370 +1592,367 @@
         <v>0.487805</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>30</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>-0.2195050000000001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>203</v>
-      </c>
-      <c r="G47" t="s">
-        <v>206</v>
-      </c>
-      <c r="H47" t="s">
-        <v>210</v>
-      </c>
-      <c r="I47" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H48" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I48" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>211</v>
-      </c>
-      <c r="I49" t="s">
-        <v>215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>21.97777777777778</v>
+        <v>0.18</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>5.18</v>
+        <v>21.97777777777778</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I53" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54">
-        <v>8.91</v>
+        <v>5.18</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H54" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="I54" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55">
-        <v>4.02</v>
+        <v>8.91</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="G55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H55" t="s">
-        <v>211</v>
-      </c>
-      <c r="I55" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B56">
-        <v>1.3</v>
+        <v>4.02</v>
       </c>
       <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
         <v>116</v>
       </c>
-      <c r="D56" t="s">
-        <v>117</v>
-      </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H56" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>0.36</v>
+        <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H57" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H58" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I58" t="s">
         <v>215</v>
@@ -1969,364 +1960,382 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H59" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B60">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I60" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>19.1</v>
+        <v>0.01</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I61" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B62">
-        <v>0.03950103950103934</v>
+        <v>19.1</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H62" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I62" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>-0.00535</v>
+        <v>0.03950103950103934</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H63" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64">
-        <v>-1.07</v>
+        <v>-0.00535</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B65">
-        <v>-0.03</v>
+        <v>-1.07</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H65" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B66">
-        <v>0.17</v>
+        <v>-0.03</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H66" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B67">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>6.58</v>
+        <v>0.18</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70">
-        <v>0.06</v>
+        <v>6.58</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B71">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G71" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B72">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H72" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B73">
+        <v>0.11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" t="s">
+        <v>203</v>
+      </c>
+      <c r="G73" t="s">
+        <v>207</v>
+      </c>
+      <c r="H73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74">
         <v>0.01</v>
       </c>
-      <c r="E73" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" t="s">
-        <v>209</v>
-      </c>
-      <c r="H73" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>51</v>
+      <c r="E74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" t="s">
+        <v>207</v>
+      </c>
+      <c r="H74" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" t="s">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>119</v>
@@ -2334,1916 +2343,1901 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" t="s">
-        <v>206</v>
-      </c>
-      <c r="H81" t="s">
-        <v>210</v>
-      </c>
-      <c r="I81" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
       </c>
+      <c r="F82" t="s">
+        <v>201</v>
+      </c>
       <c r="G82" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H82" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I82" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B83">
-        <v>0.006</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H83" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B84">
-        <v>3.733333333333333E-05</v>
+        <v>0.006</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E84" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B85">
-        <v>0.00603125</v>
+        <v>3.733333333333333E-05</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E85" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="G85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B86">
-        <v>0.00775</v>
+        <v>0.00603125</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B87">
-        <v>0.02634</v>
+        <v>0.00775</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G87" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B88">
-        <v>0.01065652</v>
+        <v>0.02634</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H88" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B89">
-        <v>0.01065625</v>
+        <v>0.01065652</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H89" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B90">
-        <v>0.0012</v>
+        <v>0.01065625</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H90" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B91">
-        <v>0.0005</v>
+        <v>0.0012</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H91" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B92">
-        <v>0.03893653</v>
+        <v>0.0005</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="G92" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B93">
+        <v>0.03893653</v>
+      </c>
+      <c r="C93" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" t="s">
+        <v>206</v>
+      </c>
+      <c r="H93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94">
         <v>0.08132810159999999</v>
       </c>
-      <c r="C93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D93" t="s">
-        <v>113</v>
-      </c>
-      <c r="E93" t="s">
-        <v>202</v>
-      </c>
-      <c r="G93" t="s">
-        <v>208</v>
-      </c>
-      <c r="H93" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>62</v>
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" t="s">
+        <v>206</v>
+      </c>
+      <c r="H94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>203</v>
-      </c>
-      <c r="G101" t="s">
-        <v>206</v>
-      </c>
-      <c r="H101" t="s">
-        <v>210</v>
-      </c>
-      <c r="I101" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
       </c>
+      <c r="F102" t="s">
+        <v>201</v>
+      </c>
       <c r="G102" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H102" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I102" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B103">
-        <v>0.1587575</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H103" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104">
-        <v>0.04328224</v>
+        <v>0.1587575</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B105">
-        <v>0.2965355965</v>
+        <v>0.04328224</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E105" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="G105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B106">
-        <v>0.3832937089</v>
+        <v>0.2965355965</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>0.3832937089</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H107" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B108">
-        <v>-0.0775</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E108" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H108" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B109">
+        <v>-0.0775</v>
+      </c>
+      <c r="C109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D109" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" t="s">
+        <v>113</v>
+      </c>
+      <c r="G109" t="s">
+        <v>206</v>
+      </c>
+      <c r="H109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110">
         <v>-0.1015625</v>
       </c>
-      <c r="C109" t="s">
-        <v>168</v>
-      </c>
-      <c r="D109" t="s">
-        <v>198</v>
-      </c>
-      <c r="E109" t="s">
-        <v>114</v>
-      </c>
-      <c r="G109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H109" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" t="s">
-        <v>68</v>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" t="s">
+        <v>206</v>
+      </c>
+      <c r="H110" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>203</v>
-      </c>
-      <c r="G117" t="s">
-        <v>206</v>
-      </c>
-      <c r="H117" t="s">
-        <v>210</v>
-      </c>
-      <c r="I117" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
       </c>
+      <c r="F118" t="s">
+        <v>201</v>
+      </c>
       <c r="G118" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H118" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I118" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B119">
-        <v>0.00547</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="D119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H119" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B120">
-        <v>0.00358</v>
+        <v>0.00547</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H120" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B121">
+        <v>0.00358</v>
+      </c>
+      <c r="C121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" t="s">
+        <v>113</v>
+      </c>
+      <c r="G121" t="s">
+        <v>206</v>
+      </c>
+      <c r="H121" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122">
         <v>0.00189</v>
       </c>
-      <c r="C121" t="s">
-        <v>170</v>
-      </c>
-      <c r="D121" t="s">
-        <v>113</v>
-      </c>
-      <c r="E121" t="s">
-        <v>114</v>
-      </c>
-      <c r="G121" t="s">
-        <v>208</v>
-      </c>
-      <c r="H121" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>71</v>
+      <c r="C122" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" t="s">
+        <v>113</v>
+      </c>
+      <c r="G122" t="s">
+        <v>206</v>
+      </c>
+      <c r="H122" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>203</v>
-      </c>
-      <c r="G129" t="s">
-        <v>206</v>
-      </c>
-      <c r="H129" t="s">
-        <v>210</v>
-      </c>
-      <c r="I129" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>71</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
+        <v>114</v>
       </c>
       <c r="C130" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
       </c>
+      <c r="F130" t="s">
+        <v>201</v>
+      </c>
       <c r="G130" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H130" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I130" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B131">
-        <v>0.00041</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D131" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E131" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H131" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B132">
-        <v>0.00036</v>
+        <v>0.00041</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D132" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G132" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H132" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B133">
-        <v>0.00041</v>
+        <v>0.00036</v>
       </c>
       <c r="C133" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E133" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G133" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H133" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B134">
-        <v>0.00015</v>
+        <v>0.00041</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D134" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G134" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H134" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B135">
         <v>0.00015</v>
       </c>
       <c r="C135" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D135" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E135" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="G135" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H135" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" t="s">
-        <v>76</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>64</v>
+      </c>
+      <c r="B136">
+        <v>0.00015</v>
+      </c>
+      <c r="C136" t="s">
+        <v>109</v>
+      </c>
+      <c r="D136" t="s">
+        <v>116</v>
+      </c>
+      <c r="E136" t="s">
+        <v>200</v>
+      </c>
+      <c r="G136" t="s">
+        <v>206</v>
+      </c>
+      <c r="H136" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" t="s">
-        <v>124</v>
+        <v>10</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" t="s">
-        <v>115</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
-        <v>203</v>
-      </c>
-      <c r="G143" t="s">
-        <v>206</v>
-      </c>
-      <c r="H143" t="s">
-        <v>210</v>
-      </c>
-      <c r="I143" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>114</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
       </c>
+      <c r="F144" t="s">
+        <v>201</v>
+      </c>
       <c r="G144" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H144" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I144" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B145">
-        <v>0.00438</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D145" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E145" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H145" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B146">
         <v>0.00438</v>
       </c>
       <c r="C146" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D146" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E146" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G146" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H146" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B147">
-        <v>0.00312</v>
+        <v>0.00438</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D147" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E147" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G147" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H147" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B148">
-        <v>0.025</v>
+        <v>0.00312</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G148" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H148" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B149">
-        <v>0.00312</v>
+        <v>0.025</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G149" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H149" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B150">
-        <v>0.00549</v>
+        <v>0.00312</v>
       </c>
       <c r="C150" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="D150" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E150" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="G150" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H150" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B151">
+        <v>0.00549</v>
+      </c>
+      <c r="C151" t="s">
+        <v>109</v>
+      </c>
+      <c r="D151" t="s">
+        <v>116</v>
+      </c>
+      <c r="E151" t="s">
+        <v>200</v>
+      </c>
+      <c r="G151" t="s">
+        <v>206</v>
+      </c>
+      <c r="H151" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>77</v>
+      </c>
+      <c r="B152">
         <v>0.7618</v>
       </c>
-      <c r="C151" t="s">
-        <v>176</v>
-      </c>
-      <c r="D151" t="s">
-        <v>113</v>
-      </c>
-      <c r="E151" t="s">
-        <v>202</v>
-      </c>
-      <c r="G151" t="s">
-        <v>208</v>
-      </c>
-      <c r="H151" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" t="s">
-        <v>79</v>
+      <c r="C152" t="s">
+        <v>174</v>
+      </c>
+      <c r="D152" t="s">
+        <v>112</v>
+      </c>
+      <c r="E152" t="s">
+        <v>200</v>
+      </c>
+      <c r="G152" t="s">
+        <v>206</v>
+      </c>
+      <c r="H152" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" t="s">
-        <v>115</v>
-      </c>
-      <c r="C159" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="s">
-        <v>203</v>
-      </c>
-      <c r="G159" t="s">
-        <v>206</v>
-      </c>
-      <c r="H159" t="s">
-        <v>210</v>
-      </c>
-      <c r="I159" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>79</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B160" t="s">
+        <v>114</v>
       </c>
       <c r="C160" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
       </c>
+      <c r="F160" t="s">
+        <v>201</v>
+      </c>
       <c r="G160" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H160" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I160" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B161">
-        <v>0.00196</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D161" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E161" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H161" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B162">
-        <v>0.01534</v>
+        <v>0.00196</v>
       </c>
       <c r="C162" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G162" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H162" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B163">
-        <v>0.02998</v>
+        <v>0.01534</v>
       </c>
       <c r="C163" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D163" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E163" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G163" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H163" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B164">
-        <v>0.00252</v>
+        <v>0.02998</v>
       </c>
       <c r="C164" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D164" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E164" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G164" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H164" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B165">
-        <v>0.00112</v>
+        <v>0.00252</v>
       </c>
       <c r="C165" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D165" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E165" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G165" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H165" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B166">
-        <v>0.00736</v>
+        <v>0.00112</v>
       </c>
       <c r="C166" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D166" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E166" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G166" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H166" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B167">
-        <v>0.01563</v>
+        <v>0.00736</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D167" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E167" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G167" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H167" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B168">
-        <v>0.00397</v>
+        <v>0.01563</v>
       </c>
       <c r="C168" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D168" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E168" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G168" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H168" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B169">
-        <v>0.01534</v>
+        <v>0.00397</v>
       </c>
       <c r="C169" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D169" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H169" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B170">
-        <v>0.0003</v>
+        <v>0.01534</v>
       </c>
       <c r="C170" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H170" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B171">
+        <v>0.0003</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" t="s">
+        <v>112</v>
+      </c>
+      <c r="E171" t="s">
+        <v>113</v>
+      </c>
+      <c r="G171" t="s">
+        <v>206</v>
+      </c>
+      <c r="H171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172">
         <v>0.00196</v>
       </c>
-      <c r="C171" t="s">
-        <v>181</v>
-      </c>
-      <c r="D171" t="s">
-        <v>113</v>
-      </c>
-      <c r="E171" t="s">
-        <v>114</v>
-      </c>
-      <c r="G171" t="s">
-        <v>208</v>
-      </c>
-      <c r="H171" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>9</v>
-      </c>
-      <c r="B173" t="s">
-        <v>85</v>
+      <c r="C172" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" t="s">
+        <v>112</v>
+      </c>
+      <c r="E172" t="s">
+        <v>113</v>
+      </c>
+      <c r="G172" t="s">
+        <v>206</v>
+      </c>
+      <c r="H172" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>10</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" t="s">
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" t="s">
-        <v>115</v>
-      </c>
-      <c r="C179" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>203</v>
-      </c>
-      <c r="G179" t="s">
-        <v>206</v>
-      </c>
-      <c r="H179" t="s">
-        <v>210</v>
-      </c>
-      <c r="I179" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>85</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B180" t="s">
+        <v>114</v>
       </c>
       <c r="C180" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
       </c>
+      <c r="F180" t="s">
+        <v>201</v>
+      </c>
       <c r="G180" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H180" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I180" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B181">
-        <v>0.0012</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D181" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E181" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B182">
-        <v>0.006</v>
+        <v>0.0012</v>
       </c>
       <c r="C182" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D182" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E182" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G182" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B183">
-        <v>0.00551</v>
+        <v>0.006</v>
       </c>
       <c r="C183" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D183" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E183" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G183" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H183" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B184">
-        <v>0.00124</v>
+        <v>0.00551</v>
       </c>
       <c r="C184" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D184" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E184" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G184" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B185">
-        <v>0.00307</v>
+        <v>0.00124</v>
       </c>
       <c r="C185" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D185" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E185" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G185" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H185" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B186">
+        <v>0.00307</v>
+      </c>
+      <c r="C186" t="s">
+        <v>159</v>
+      </c>
+      <c r="D186" t="s">
+        <v>112</v>
+      </c>
+      <c r="E186" t="s">
+        <v>113</v>
+      </c>
+      <c r="G186" t="s">
+        <v>206</v>
+      </c>
+      <c r="H186" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187">
         <v>0.0005</v>
       </c>
-      <c r="C186" t="s">
-        <v>162</v>
-      </c>
-      <c r="D186" t="s">
-        <v>113</v>
-      </c>
-      <c r="E186" t="s">
-        <v>114</v>
-      </c>
-      <c r="G186" t="s">
-        <v>208</v>
-      </c>
-      <c r="H186" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" t="s">
-        <v>86</v>
+      <c r="C187" t="s">
+        <v>160</v>
+      </c>
+      <c r="D187" t="s">
+        <v>112</v>
+      </c>
+      <c r="E187" t="s">
+        <v>113</v>
+      </c>
+      <c r="G187" t="s">
+        <v>206</v>
+      </c>
+      <c r="H187" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>11</v>
-      </c>
-      <c r="B190" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" t="s">
-        <v>115</v>
-      </c>
-      <c r="C194" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
-        <v>203</v>
-      </c>
-      <c r="G194" t="s">
-        <v>206</v>
-      </c>
-      <c r="H194" t="s">
-        <v>210</v>
-      </c>
-      <c r="I194" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>86</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B195" t="s">
+        <v>114</v>
       </c>
       <c r="C195" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E195" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>201</v>
       </c>
       <c r="G195" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H195" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I195" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>85</v>
+      </c>
+      <c r="D196" t="s">
         <v>122</v>
       </c>
-      <c r="D196" t="s">
-        <v>123</v>
-      </c>
       <c r="E196" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G196" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H196" t="s">
         <v>1</v>
@@ -4251,22 +4245,22 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B197">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D197" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E197" t="s">
         <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H197" t="s">
         <v>1</v>
@@ -4274,22 +4268,22 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="C198" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="D198" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H198" t="s">
         <v>1</v>
@@ -4297,68 +4291,68 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B199">
-        <v>0.39474</v>
+        <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="D199" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E199" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H199" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>0.39474</v>
       </c>
       <c r="C200" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="D200" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="E200" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G200" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H200" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B201">
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D201" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H201" t="s">
         <v>1</v>
@@ -4366,465 +4360,462 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B202">
-        <v>0.0027</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="D202" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E202" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H202" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>0.0027</v>
       </c>
       <c r="C203" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="D203" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E203" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G203" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H203" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B204">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="D204" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E204" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H204" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B205">
-        <v>0.060611922</v>
+        <v>0.3</v>
       </c>
       <c r="C205" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D205" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E205" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G205" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H205" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B206">
+        <v>0.060611922</v>
+      </c>
+      <c r="C206" t="s">
+        <v>183</v>
+      </c>
+      <c r="D206" t="s">
+        <v>112</v>
+      </c>
+      <c r="E206" t="s">
+        <v>113</v>
+      </c>
+      <c r="G206" t="s">
+        <v>206</v>
+      </c>
+      <c r="H206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>90</v>
+      </c>
+      <c r="B207">
         <v>0.00108</v>
       </c>
-      <c r="E206" t="s">
-        <v>114</v>
-      </c>
-      <c r="F206" t="s">
-        <v>205</v>
-      </c>
-      <c r="G206" t="s">
-        <v>209</v>
-      </c>
-      <c r="H206" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" t="s">
-        <v>92</v>
+      <c r="E207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F207" t="s">
+        <v>203</v>
+      </c>
+      <c r="G207" t="s">
+        <v>207</v>
+      </c>
+      <c r="H207" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>10</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B213" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" t="s">
-        <v>115</v>
-      </c>
-      <c r="C214" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s">
-        <v>12</v>
-      </c>
-      <c r="E214" t="s">
-        <v>13</v>
-      </c>
-      <c r="F214" t="s">
-        <v>203</v>
-      </c>
-      <c r="G214" t="s">
-        <v>206</v>
-      </c>
-      <c r="H214" t="s">
-        <v>210</v>
-      </c>
-      <c r="I214" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>92</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B215" t="s">
+        <v>114</v>
       </c>
       <c r="C215" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="E215" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F215" t="s">
+        <v>201</v>
       </c>
       <c r="G215" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H215" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I215" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B216">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D216" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E216" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G216" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H216" t="s">
-        <v>211</v>
-      </c>
-      <c r="I216" t="s">
-        <v>215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B217">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="C217" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D217" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E217" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G217" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H217" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I217" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B218">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="C218" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D218" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E218" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G218" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H218" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I218" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B219">
-        <v>21.97777777777778</v>
+        <v>0.18</v>
       </c>
       <c r="C219" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D219" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E219" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G219" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H219" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I219" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B220">
-        <v>5.18</v>
+        <v>21.97777777777778</v>
       </c>
       <c r="C220" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D220" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E220" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="G220" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H220" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I220" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B221">
-        <v>8.91</v>
+        <v>5.18</v>
       </c>
       <c r="C221" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D221" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E221" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="G221" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H221" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="I221" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B222">
-        <v>4.02</v>
+        <v>8.91</v>
       </c>
       <c r="C222" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D222" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E222" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="G222" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H222" t="s">
-        <v>211</v>
-      </c>
-      <c r="I222" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B223">
-        <v>1.3</v>
+        <v>4.02</v>
       </c>
       <c r="C223" t="s">
+        <v>148</v>
+      </c>
+      <c r="D223" t="s">
         <v>116</v>
       </c>
-      <c r="D223" t="s">
-        <v>117</v>
-      </c>
       <c r="E223" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G223" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H223" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I223" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B224">
-        <v>0.36</v>
+        <v>1.3</v>
       </c>
       <c r="C224" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="D224" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E224" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H224" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B225">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="D225" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E225" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G225" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H225" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I225" t="s">
         <v>215</v>
@@ -4832,647 +4823,653 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B226">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="C226" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="D226" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E226" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G226" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H226" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B227">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="C227" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D227" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E227" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G227" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I227" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B228">
-        <v>19.1</v>
+        <v>0.01</v>
       </c>
       <c r="C228" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D228" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="E228" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G228" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H228" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I228" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B229">
-        <v>0.03950103950103934</v>
+        <v>19.1</v>
       </c>
       <c r="C229" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D229" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="E229" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G229" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H229" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I229" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B230">
-        <v>-0.00535</v>
+        <v>0.03950103950103934</v>
       </c>
       <c r="C230" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D230" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="E230" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G230" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H230" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B231">
-        <v>-1.07</v>
+        <v>-0.00535</v>
       </c>
       <c r="C231" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D231" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="E231" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G231" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H231" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B232">
-        <v>-0.03</v>
+        <v>-1.07</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D232" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E232" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G232" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H232" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B233">
-        <v>0.17</v>
+        <v>-0.03</v>
+      </c>
+      <c r="C233" t="s">
+        <v>27</v>
+      </c>
+      <c r="D233" t="s">
+        <v>112</v>
       </c>
       <c r="E233" t="s">
-        <v>114</v>
-      </c>
-      <c r="F233" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="G233" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H233" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B234">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="E234" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F234" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G234" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H234" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B235">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="E235" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F235" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G235" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H235" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B236">
-        <v>6.58</v>
+        <v>0.18</v>
       </c>
       <c r="E236" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F236" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G236" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H236" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B237">
-        <v>0.06</v>
+        <v>6.58</v>
       </c>
       <c r="E237" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F237" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G237" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H237" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B238">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E238" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F238" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G238" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H238" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B239">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E239" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F239" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G239" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H239" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B240">
+        <v>0.11</v>
+      </c>
+      <c r="E240" t="s">
+        <v>113</v>
+      </c>
+      <c r="F240" t="s">
+        <v>203</v>
+      </c>
+      <c r="G240" t="s">
+        <v>207</v>
+      </c>
+      <c r="H240" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241">
         <v>0.01</v>
       </c>
-      <c r="E240" t="s">
-        <v>114</v>
-      </c>
-      <c r="F240" t="s">
-        <v>204</v>
-      </c>
-      <c r="G240" t="s">
-        <v>209</v>
-      </c>
-      <c r="H240" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" t="s">
-        <v>9</v>
-      </c>
-      <c r="B242" t="s">
-        <v>95</v>
+      <c r="E241" t="s">
+        <v>113</v>
+      </c>
+      <c r="F241" t="s">
+        <v>202</v>
+      </c>
+      <c r="G241" t="s">
+        <v>207</v>
+      </c>
+      <c r="H241" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>10</v>
-      </c>
-      <c r="B243">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>11</v>
-      </c>
-      <c r="B244" t="s">
-        <v>95</v>
+        <v>10</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B247" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>15</v>
-      </c>
-      <c r="B248" t="s">
-        <v>115</v>
-      </c>
-      <c r="C248" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s">
-        <v>12</v>
-      </c>
-      <c r="E248" t="s">
-        <v>13</v>
-      </c>
-      <c r="F248" t="s">
-        <v>203</v>
-      </c>
-      <c r="G248" t="s">
-        <v>206</v>
-      </c>
-      <c r="H248" t="s">
-        <v>210</v>
-      </c>
-      <c r="I248" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>95</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B249" t="s">
+        <v>114</v>
       </c>
       <c r="C249" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="E249" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F249" t="s">
+        <v>201</v>
       </c>
       <c r="G249" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H249" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="I249" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B250">
-        <v>0.01033</v>
+        <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="D250" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E250" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G250" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H250" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="I250" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B251">
+        <v>0.01033</v>
+      </c>
+      <c r="C251" t="s">
+        <v>185</v>
+      </c>
+      <c r="D251" t="s">
+        <v>112</v>
+      </c>
+      <c r="E251" t="s">
+        <v>113</v>
+      </c>
+      <c r="G251" t="s">
+        <v>206</v>
+      </c>
+      <c r="H251" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>96</v>
+      </c>
+      <c r="B252">
         <v>0.98967</v>
       </c>
-      <c r="C251" t="s">
-        <v>188</v>
-      </c>
-      <c r="D251" t="s">
-        <v>117</v>
-      </c>
-      <c r="E251" t="s">
-        <v>114</v>
-      </c>
-      <c r="G251" t="s">
-        <v>208</v>
-      </c>
-      <c r="H251" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" t="s">
-        <v>9</v>
-      </c>
-      <c r="B253" t="s">
-        <v>98</v>
+      <c r="C252" t="s">
+        <v>186</v>
+      </c>
+      <c r="D252" t="s">
+        <v>116</v>
+      </c>
+      <c r="E252" t="s">
+        <v>113</v>
+      </c>
+      <c r="G252" t="s">
+        <v>206</v>
+      </c>
+      <c r="H252" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>10</v>
-      </c>
-      <c r="B254">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B254" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>11</v>
-      </c>
-      <c r="B255" t="s">
-        <v>98</v>
+        <v>10</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" t="s">
-        <v>115</v>
-      </c>
-      <c r="C259" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s">
-        <v>12</v>
-      </c>
-      <c r="E259" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" t="s">
-        <v>203</v>
-      </c>
-      <c r="G259" t="s">
-        <v>206</v>
-      </c>
-      <c r="H259" t="s">
-        <v>210</v>
-      </c>
-      <c r="I259" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>98</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B260" t="s">
+        <v>114</v>
       </c>
       <c r="C260" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D260" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="E260" t="s">
         <v>13</v>
       </c>
+      <c r="F260" t="s">
+        <v>201</v>
+      </c>
       <c r="G260" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H260" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I260" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B261">
-        <v>9.281249999999999E-05</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="D261" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E261" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G261" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H261" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="I261" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B262">
-        <v>4.296874999999998E-05</v>
+        <v>9.281249999999999E-05</v>
       </c>
       <c r="C262" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D262" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="E262" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G262" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H262" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B263">
-        <v>5.671875E-06</v>
+        <v>4.296874999999998E-05</v>
       </c>
       <c r="C263" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D263" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E263" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="G263" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H263" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -5480,42 +5477,42 @@
         <v>95</v>
       </c>
       <c r="B264">
-        <v>5.646093749999999E-05</v>
+        <v>5.671875E-06</v>
       </c>
       <c r="C264" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D264" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E264" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G264" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H264" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B265">
-        <v>5.4140625E-06</v>
+        <v>5.646093749999999E-05</v>
       </c>
       <c r="C265" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D265" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G265" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H265" t="s">
         <v>1</v>
@@ -5523,22 +5520,22 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B266">
-        <v>0.0006600000000000001</v>
+        <v>5.4140625E-06</v>
       </c>
       <c r="C266" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E266" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G266" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H266" t="s">
         <v>1</v>
@@ -5546,100 +5543,115 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B267">
-        <v>2.10375E-05</v>
+        <v>0.0006600000000000001</v>
       </c>
       <c r="C267" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="D267" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E267" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G267" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H267" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B268">
-        <v>1.959375E-05</v>
+        <v>2.10375E-05</v>
       </c>
       <c r="C268" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D268" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E268" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G268" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H268" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B269">
+        <v>1.959375E-05</v>
+      </c>
+      <c r="C269" t="s">
+        <v>189</v>
+      </c>
+      <c r="D269" t="s">
+        <v>112</v>
+      </c>
+      <c r="E269" t="s">
+        <v>113</v>
+      </c>
+      <c r="G269" t="s">
+        <v>206</v>
+      </c>
+      <c r="H269" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>88</v>
+      </c>
+      <c r="B270">
         <v>7.734374999999998E-06</v>
       </c>
-      <c r="C269" t="s">
-        <v>184</v>
-      </c>
-      <c r="D269" t="s">
-        <v>117</v>
-      </c>
-      <c r="E269" t="s">
-        <v>114</v>
-      </c>
-      <c r="G269" t="s">
-        <v>208</v>
-      </c>
-      <c r="H269" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" t="s">
-        <v>9</v>
-      </c>
-      <c r="B271" t="s">
-        <v>103</v>
+      <c r="C270" t="s">
+        <v>182</v>
+      </c>
+      <c r="D270" t="s">
+        <v>116</v>
+      </c>
+      <c r="E270" t="s">
+        <v>113</v>
+      </c>
+      <c r="G270" t="s">
+        <v>206</v>
+      </c>
+      <c r="H270" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>10</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B272" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>11</v>
-      </c>
-      <c r="B273" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B274" t="s">
         <v>128</v>
@@ -5647,652 +5659,660 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" t="s">
-        <v>115</v>
-      </c>
-      <c r="C277" t="s">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s">
-        <v>12</v>
-      </c>
-      <c r="E277" t="s">
-        <v>13</v>
-      </c>
-      <c r="F277" t="s">
-        <v>203</v>
-      </c>
-      <c r="G277" t="s">
-        <v>206</v>
-      </c>
-      <c r="H277" t="s">
-        <v>210</v>
-      </c>
-      <c r="I277" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>103</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B278" t="s">
+        <v>114</v>
       </c>
       <c r="C278" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="D278" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
       </c>
+      <c r="F278" t="s">
+        <v>201</v>
+      </c>
       <c r="G278" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H278" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I278" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B279">
-        <v>0.005292</v>
+        <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D279" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E279" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H279" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B280">
-        <v>6.999999999999999E-05</v>
+        <v>0.005292</v>
       </c>
       <c r="C280" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D280" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="E280" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G280" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H280" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B281">
-        <v>0.0005</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="C281" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="D281" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="E281" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="G281" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H281" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B282">
-        <v>0.00247</v>
+        <v>0.0005</v>
       </c>
       <c r="C282" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D282" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E282" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G282" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H282" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B283">
         <v>0.00247</v>
       </c>
       <c r="C283" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D283" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E283" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G283" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H283" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B284">
-        <v>10</v>
+        <v>0.00247</v>
       </c>
       <c r="C284" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="D284" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E284" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G284" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H284" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B285">
-        <v>0.0559</v>
+        <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="D285" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E285" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="G285" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H285" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B286">
+        <v>0.0559</v>
+      </c>
+      <c r="C286" t="s">
+        <v>192</v>
+      </c>
+      <c r="D286" t="s">
+        <v>116</v>
+      </c>
+      <c r="E286" t="s">
+        <v>200</v>
+      </c>
+      <c r="G286" t="s">
+        <v>206</v>
+      </c>
+      <c r="H286" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>60</v>
+      </c>
+      <c r="B287">
         <v>0.1222749382</v>
       </c>
-      <c r="C286" t="s">
-        <v>164</v>
-      </c>
-      <c r="D286" t="s">
-        <v>113</v>
-      </c>
-      <c r="E286" t="s">
-        <v>202</v>
-      </c>
-      <c r="G286" t="s">
-        <v>208</v>
-      </c>
-      <c r="H286" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" t="s">
-        <v>9</v>
-      </c>
-      <c r="B288" t="s">
-        <v>108</v>
+      <c r="C287" t="s">
+        <v>162</v>
+      </c>
+      <c r="D287" t="s">
+        <v>112</v>
+      </c>
+      <c r="E287" t="s">
+        <v>200</v>
+      </c>
+      <c r="G287" t="s">
+        <v>206</v>
+      </c>
+      <c r="H287" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>10</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B289" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>11</v>
-      </c>
-      <c r="B290" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B293" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>15</v>
-      </c>
-      <c r="B294" t="s">
-        <v>115</v>
-      </c>
-      <c r="C294" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s">
-        <v>12</v>
-      </c>
-      <c r="E294" t="s">
-        <v>13</v>
-      </c>
-      <c r="F294" t="s">
-        <v>203</v>
-      </c>
-      <c r="G294" t="s">
-        <v>206</v>
-      </c>
-      <c r="H294" t="s">
-        <v>210</v>
-      </c>
-      <c r="I294" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>108</v>
-      </c>
-      <c r="B295">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B295" t="s">
+        <v>114</v>
       </c>
       <c r="C295" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="D295" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="E295" t="s">
         <v>13</v>
       </c>
+      <c r="F295" t="s">
+        <v>201</v>
+      </c>
       <c r="G295" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H295" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I295" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B296">
-        <v>0.06614895833000001</v>
+        <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D296" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E296" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G296" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H296" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B297">
-        <v>0.00827</v>
+        <v>0.06614895833000001</v>
       </c>
       <c r="C297" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D297" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E297" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G297" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H297" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>0.00827</v>
       </c>
       <c r="C298" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D298" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E298" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G298" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H298" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B299">
-        <v>0.00454</v>
+        <v>3</v>
       </c>
       <c r="C299" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="D299" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E299" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G299" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H299" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B300">
-        <v>0.02626</v>
+        <v>0.00454</v>
       </c>
       <c r="C300" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="D300" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E300" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="G300" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H300" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B301">
+        <v>0.02626</v>
+      </c>
+      <c r="C301" t="s">
+        <v>109</v>
+      </c>
+      <c r="D301" t="s">
+        <v>116</v>
+      </c>
+      <c r="E301" t="s">
+        <v>200</v>
+      </c>
+      <c r="G301" t="s">
+        <v>206</v>
+      </c>
+      <c r="H301" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" t="s">
+        <v>89</v>
+      </c>
+      <c r="B302">
         <v>-0.01587575</v>
       </c>
-      <c r="C301" t="s">
-        <v>185</v>
-      </c>
-      <c r="D301" t="s">
-        <v>113</v>
-      </c>
-      <c r="E301" t="s">
-        <v>114</v>
-      </c>
-      <c r="G301" t="s">
-        <v>208</v>
-      </c>
-      <c r="H301" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" t="s">
-        <v>9</v>
-      </c>
-      <c r="B303" t="s">
-        <v>111</v>
+      <c r="C302" t="s">
+        <v>183</v>
+      </c>
+      <c r="D302" t="s">
+        <v>112</v>
+      </c>
+      <c r="E302" t="s">
+        <v>113</v>
+      </c>
+      <c r="G302" t="s">
+        <v>206</v>
+      </c>
+      <c r="H302" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>10</v>
-      </c>
-      <c r="B304">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B304" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>11</v>
-      </c>
-      <c r="B305" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B306" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" t="s">
-        <v>115</v>
-      </c>
-      <c r="C309" t="s">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s">
-        <v>12</v>
-      </c>
-      <c r="E309" t="s">
-        <v>13</v>
-      </c>
-      <c r="F309" t="s">
-        <v>203</v>
-      </c>
-      <c r="G309" t="s">
-        <v>206</v>
-      </c>
-      <c r="H309" t="s">
-        <v>210</v>
-      </c>
-      <c r="I309" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>111</v>
-      </c>
-      <c r="B310">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B310" t="s">
+        <v>114</v>
       </c>
       <c r="C310" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D310" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E310" t="s">
         <v>13</v>
       </c>
+      <c r="F310" t="s">
+        <v>201</v>
+      </c>
       <c r="G310" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H310" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="I310" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B311">
-        <v>0.0008910000000000001</v>
+        <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="D311" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="E311" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G311" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H311" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B312">
-        <v>0.1</v>
+        <v>0.0008910000000000001</v>
       </c>
       <c r="C312" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="D312" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="E312" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G312" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H312" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B313">
+        <v>0.1</v>
+      </c>
+      <c r="C313" t="s">
+        <v>129</v>
+      </c>
+      <c r="D313" t="s">
+        <v>130</v>
+      </c>
+      <c r="E313" t="s">
+        <v>13</v>
+      </c>
+      <c r="G313" t="s">
+        <v>206</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>89</v>
+      </c>
+      <c r="B314">
         <v>-0.007896</v>
       </c>
-      <c r="C313" t="s">
-        <v>185</v>
-      </c>
-      <c r="D313" t="s">
-        <v>113</v>
-      </c>
-      <c r="E313" t="s">
-        <v>114</v>
-      </c>
-      <c r="G313" t="s">
-        <v>208</v>
-      </c>
-      <c r="H313" t="s">
-        <v>211</v>
+      <c r="C314" t="s">
+        <v>183</v>
+      </c>
+      <c r="D314" t="s">
+        <v>112</v>
+      </c>
+      <c r="E314" t="s">
+        <v>113</v>
+      </c>
+      <c r="G314" t="s">
+        <v>206</v>
+      </c>
+      <c r="H314" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/temp.xlsx
+++ b/data/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="278">
   <si>
     <t>Database</t>
   </si>
@@ -118,7 +118,7 @@
     <t>market for butyl acetate</t>
   </si>
   <si>
-    <t>market for electricity, low voltage</t>
+    <t>market group for electricity, low voltage</t>
   </si>
   <si>
     <t>glucose production</t>
@@ -166,6 +166,63 @@
     <t>Sulfuric acid</t>
   </si>
   <si>
+    <t>production of glass vial</t>
+  </si>
+  <si>
+    <t>market for packaging glass, white</t>
+  </si>
+  <si>
+    <t>market for heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>market for polyethylene, high density, granulate</t>
+  </si>
+  <si>
+    <t>market for aluminium, cast alloy</t>
+  </si>
+  <si>
+    <t>market for synthetic rubber</t>
+  </si>
+  <si>
+    <t>market for polyethylene, low density, granulate</t>
+  </si>
+  <si>
+    <t>injection moulding</t>
+  </si>
+  <si>
+    <t>sheet rolling, aluminium</t>
+  </si>
+  <si>
+    <t>production of polymer vial</t>
+  </si>
+  <si>
+    <t>market for polystyrene, general purpose</t>
+  </si>
+  <si>
+    <t>market for polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>market for paraffin</t>
+  </si>
+  <si>
+    <t>market for acrylonitrile-butadiene-styrene copolymer</t>
+  </si>
+  <si>
+    <t>filling of glass vial</t>
+  </si>
+  <si>
+    <t>filling of polymer vial</t>
+  </si>
+  <si>
+    <t>market for isopropanol</t>
+  </si>
+  <si>
+    <t>market for hydrogen peroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>market for sodium hypochlorite, without water, in 15% solution state</t>
+  </si>
+  <si>
     <t>manufacturing of vial for penicillin</t>
   </si>
   <si>
@@ -187,19 +244,13 @@
     <t>market for injection moulding</t>
   </si>
   <si>
-    <t>market for polypropylene, granulate</t>
-  </si>
-  <si>
-    <t>market for synthetic rubber</t>
-  </si>
-  <si>
     <t>market for transport, freight, lorry 7.5-16 metric ton, EURO6</t>
   </si>
   <si>
     <t>market for transport, freight, sea, container ship with reefer, cooling</t>
   </si>
   <si>
-    <t>full box of vials</t>
+    <t>packaging of glass vials with penicillin G</t>
   </si>
   <si>
     <t>market for corrugated board box</t>
@@ -217,15 +268,15 @@
     <t>market for waste polypropylene</t>
   </si>
   <si>
+    <t>packaging of polymer vials with penicillin G</t>
+  </si>
+  <si>
     <t>stopcock</t>
   </si>
   <si>
     <t>market for polycarbonate</t>
   </si>
   <si>
-    <t>market for polyethylene, high density, granulate</t>
-  </si>
-  <si>
     <t>production of alchohol wipes</t>
   </si>
   <si>
@@ -241,27 +292,30 @@
     <t>market for textile, nonwoven polypropylene</t>
   </si>
   <si>
-    <t>production of gloves</t>
-  </si>
-  <si>
-    <t>market for thermoforming, with calendering</t>
+    <t>production of a pair of gloves</t>
+  </si>
+  <si>
+    <t>market for ethylene oxide</t>
+  </si>
+  <si>
+    <t>market for kraft paper</t>
+  </si>
+  <si>
+    <t>market for packaging film, low density polyethylene</t>
+  </si>
+  <si>
+    <t>market for process-specific burdens, hazardous waste incineration plant</t>
   </si>
   <si>
     <t>market for transport, freight, sea, container ship</t>
   </si>
   <si>
+    <t>market for transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
     <t>production of IV sets</t>
   </si>
   <si>
-    <t>market for acrylonitrile-butadiene-styrene copolymer</t>
-  </si>
-  <si>
-    <t>market for packaging film, low density polyethylene</t>
-  </si>
-  <si>
-    <t>market for polystyrene, general purpose</t>
-  </si>
-  <si>
     <t>market for polyvinylchloride, bulk polymerised</t>
   </si>
   <si>
@@ -289,6 +343,9 @@
     <t>Ethanol</t>
   </si>
   <si>
+    <t>DDD polymer</t>
+  </si>
+  <si>
     <t>manufacturing of raw penicillium V</t>
   </si>
   <si>
@@ -304,18 +361,12 @@
     <t>market for ethylene glycol</t>
   </si>
   <si>
-    <t>market for ethylene oxide</t>
-  </si>
-  <si>
     <t>tablet</t>
   </si>
   <si>
     <t>market for carboxymethyl cellulose, powder</t>
   </si>
   <si>
-    <t>electricity production, natural gas, 10MW</t>
-  </si>
-  <si>
     <t>market for titanium dioxide</t>
   </si>
   <si>
@@ -325,18 +376,12 @@
     <t>production of a medicine strip</t>
   </si>
   <si>
-    <t>market group for electricity, high voltage</t>
-  </si>
-  <si>
     <t>market for ethylvinylacetate, foil</t>
   </si>
   <si>
     <t>market for extrusion of plastic sheets and thermoforming, inline</t>
   </si>
   <si>
-    <t>market for transport, freight, lorry, unspecified</t>
-  </si>
-  <si>
     <t>packed box of penicillin</t>
   </si>
   <si>
@@ -352,6 +397,21 @@
     <t>treatment of hazardous waste, hazardous waste incineration</t>
   </si>
   <si>
+    <t>production of a pair of gloves pt2</t>
+  </si>
+  <si>
+    <t>market for latex</t>
+  </si>
+  <si>
+    <t>market for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>paper production, woodfree, coated, at integrated mill</t>
+  </si>
+  <si>
+    <t>offset printing, per kg printed paper</t>
+  </si>
+  <si>
     <t>GLO</t>
   </si>
   <si>
@@ -370,22 +430,37 @@
     <t>raw penicillium G</t>
   </si>
   <si>
+    <t>glass vial</t>
+  </si>
+  <si>
+    <t>polymer vial</t>
+  </si>
+  <si>
+    <t>glass vial with penicillin</t>
+  </si>
+  <si>
+    <t>vial for penicillin</t>
+  </si>
+  <si>
     <t>FR</t>
   </si>
   <si>
-    <t>vial for penicillin</t>
+    <t>full box with glass vials</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>full box with polymer vials</t>
+  </si>
+  <si>
     <t>alchohol wipes</t>
   </si>
   <si>
     <t>DK</t>
   </si>
   <si>
-    <t>gloves</t>
+    <t>pair of gloves</t>
   </si>
   <si>
     <t>MY</t>
@@ -397,9 +472,6 @@
     <t>raw penicillium V</t>
   </si>
   <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>medicine strip</t>
   </si>
   <si>
@@ -409,6 +481,9 @@
     <t>SE</t>
   </si>
   <si>
+    <t>pair of gloves pt2</t>
+  </si>
+  <si>
     <t>magnesium oxide</t>
   </si>
   <si>
@@ -475,6 +550,45 @@
     <t>biowaste</t>
   </si>
   <si>
+    <t>packaging glass, white</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>polyethylene, high density, granulate</t>
+  </si>
+  <si>
+    <t>aluminium, cast alloy</t>
+  </si>
+  <si>
+    <t>synthetic rubber</t>
+  </si>
+  <si>
+    <t>polyethylene, low density, granulate</t>
+  </si>
+  <si>
+    <t>polystyrene, general purpose</t>
+  </si>
+  <si>
+    <t>polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>paraffin</t>
+  </si>
+  <si>
+    <t>acrylonitrile-butadiene-styrene copolymer</t>
+  </si>
+  <si>
+    <t>isopropanol</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>sodium hypochlorite, without water, in 15% solution state</t>
+  </si>
+  <si>
     <t>aluminium alloy, AlLi</t>
   </si>
   <si>
@@ -490,15 +604,6 @@
     <t>glass tube, borosilicate</t>
   </si>
   <si>
-    <t>injection moulding</t>
-  </si>
-  <si>
-    <t>polypropylene, granulate</t>
-  </si>
-  <si>
-    <t>synthetic rubber</t>
-  </si>
-  <si>
     <t>transport, freight, lorry 7.5-16 metric ton, EURO6</t>
   </si>
   <si>
@@ -520,9 +625,6 @@
     <t>polycarbonate</t>
   </si>
   <si>
-    <t>polyethylene, high density, granulate</t>
-  </si>
-  <si>
     <t>chemi-thermomechanical pulp</t>
   </si>
   <si>
@@ -535,19 +637,22 @@
     <t>textile, nonwoven polypropylene</t>
   </si>
   <si>
-    <t>thermoforming, with calendering</t>
+    <t>ethylene oxide</t>
+  </si>
+  <si>
+    <t>kraft paper</t>
+  </si>
+  <si>
+    <t>packaging film, low density polyethylene</t>
+  </si>
+  <si>
+    <t>process-specific burdens, hazardous waste incineration plant</t>
   </si>
   <si>
     <t>transport, freight, sea, container ship</t>
   </si>
   <si>
-    <t>acrylonitrile-butadiene-styrene copolymer</t>
-  </si>
-  <si>
-    <t>packaging film, low density polyethylene</t>
-  </si>
-  <si>
-    <t>polystyrene, general purpose</t>
+    <t>transport, freight, lorry, unspecified</t>
   </si>
   <si>
     <t>polyvinylchloride, bulk polymerised</t>
@@ -574,9 +679,6 @@
     <t>ethylene glycol</t>
   </si>
   <si>
-    <t>ethylene oxide</t>
-  </si>
-  <si>
     <t>carboxymethyl cellulose, powder</t>
   </si>
   <si>
@@ -592,12 +694,21 @@
     <t>extrusion of plastic sheets and thermoforming, inline</t>
   </si>
   <si>
-    <t>transport, freight, lorry, unspecified</t>
-  </si>
-  <si>
     <t>printed paper</t>
   </si>
   <si>
+    <t>latex</t>
+  </si>
+  <si>
+    <t>electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>paper, woodfree, coated</t>
+  </si>
+  <si>
+    <t>printed paper, offset</t>
+  </si>
+  <si>
     <t>Europe without Switzerland</t>
   </si>
   <si>
@@ -667,10 +778,76 @@
     <t>Losses during proudction with a 96.2% efficiency</t>
   </si>
   <si>
+    <t>Down scaled from 480 vials to 1</t>
+  </si>
+  <si>
+    <t>Vial body</t>
+  </si>
+  <si>
+    <t>Vial body, LHV =  36.0 MJ/m3 taken from EcoInvent, and it's equal to 52 MJ</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Stopper</t>
+  </si>
+  <si>
+    <t>0.994 efficiency</t>
+  </si>
+  <si>
+    <t>Down scaled from 377 vials to 1</t>
+  </si>
+  <si>
+    <t>Stopper, Mineral oil</t>
+  </si>
+  <si>
+    <t>Rings</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>For the sterilization of the vial</t>
+  </si>
+  <si>
+    <t>Data taken from https://doi.org/10.1002/lary.31341</t>
+  </si>
+  <si>
+    <t>Sterilization gas needed for 50 packaged sterile gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component of packaging </t>
+  </si>
+  <si>
+    <t>Component of packaging</t>
+  </si>
+  <si>
+    <t>Glove pair</t>
+  </si>
+  <si>
+    <t>Disposal of single-use item</t>
+  </si>
+  <si>
+    <t>Transportation from Malacca, Malaysia  to Esbjerg, DK</t>
+  </si>
+  <si>
+    <t>Transportation from Port of Esbjerg to OUH</t>
+  </si>
+  <si>
     <t>Penicillin V Production</t>
   </si>
   <si>
     <t>Downscaling from 800 mg to 660 mg pill of pencillin</t>
+  </si>
+  <si>
+    <t>Data taken from https://www.journalofhospitalinfection.com/action/showFullTableHTML?isHtml=true&amp;tableId=tbl1&amp;pii=S0195-6701%2821%2900349-2</t>
+  </si>
+  <si>
+    <t>Manufacture of gloves</t>
+  </si>
+  <si>
+    <t>Air-leak testing</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1092,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1100,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1113,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1125,16 +1302,16 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1148,13 +1325,13 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -1168,19 +1345,19 @@
         <v>0.06804</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1191,19 +1368,19 @@
         <v>0.95897</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H12" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1214,19 +1391,19 @@
         <v>-0.02700999999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1250,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1258,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1266,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1279,7 +1456,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1291,16 +1468,16 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1311,16 +1488,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H22" t="s">
         <v>1</v>
@@ -1334,19 +1511,19 @@
         <v>0.00890313</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H23" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1357,19 +1534,19 @@
         <v>0.03561</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1380,19 +1557,19 @@
         <v>0.035613</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H25" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1403,19 +1580,19 @@
         <v>0.002849</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1426,19 +1603,19 @@
         <v>0.890313</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H27" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1449,19 +1626,19 @@
         <v>0.026709</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1493,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1501,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1514,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1526,16 +1703,16 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G36" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1549,13 +1726,13 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H37" t="s">
         <v>1</v>
@@ -1569,19 +1746,19 @@
         <v>0.7317</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1592,19 +1769,19 @@
         <v>0.487805</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1615,19 +1792,19 @@
         <v>-0.2195050000000001</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1651,7 +1828,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1659,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1667,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,7 +1857,7 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1692,16 +1869,16 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="I48" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1712,16 +1889,16 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H49" t="s">
         <v>1</v>
@@ -1735,22 +1912,22 @@
         <v>0.22</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I50" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1761,22 +1938,22 @@
         <v>0.32</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1787,22 +1964,22 @@
         <v>0.18</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I52" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1813,22 +1990,22 @@
         <v>21.97777777777778</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="G53" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I53" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1839,22 +2016,22 @@
         <v>5.18</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1865,19 +2042,19 @@
         <v>8.91</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="G55" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H55" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1888,22 +2065,22 @@
         <v>4.02</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I56" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1914,22 +2091,22 @@
         <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H57" t="s">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -1940,22 +2117,22 @@
         <v>0.36</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I58" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -1969,19 +2146,19 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G59" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H59" t="s">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1992,22 +2169,22 @@
         <v>0.11</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I60" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2018,22 +2195,22 @@
         <v>0.01</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G61" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H61" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I61" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2044,22 +2221,22 @@
         <v>19.1</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I62" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2070,22 +2247,22 @@
         <v>0.03950103950103934</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H63" t="s">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2096,19 +2273,19 @@
         <v>-0.00535</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2119,19 +2296,19 @@
         <v>-1.07</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2145,13 +2322,13 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H66" t="s">
         <v>1</v>
@@ -2165,16 +2342,16 @@
         <v>0.17</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F67" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2185,16 +2362,16 @@
         <v>0.22</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H68" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2205,16 +2382,16 @@
         <v>0.18</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2225,16 +2402,16 @@
         <v>6.58</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="G70" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H70" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2245,16 +2422,16 @@
         <v>0.06</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="G71" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H71" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2265,16 +2442,16 @@
         <v>0.01</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="G72" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2285,16 +2462,16 @@
         <v>0.11</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="G73" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H73" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2305,16 +2482,16 @@
         <v>0.01</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="G74" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2338,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2346,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2367,7 +2544,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -2379,16 +2556,16 @@
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G82" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H82" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2399,19 +2576,22 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H83" t="s">
         <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2419,183 +2599,207 @@
         <v>51</v>
       </c>
       <c r="B84">
-        <v>0.006</v>
+        <v>0.009333333333333334</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G84" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I84" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B85">
-        <v>3.733333333333333E-05</v>
+        <v>0.002645833333333333</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="G85" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I85" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86">
-        <v>0.00603125</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="E86" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="G86" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I86" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87">
-        <v>0.00775</v>
+        <v>0.0005030181086519115</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G87" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I87" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88">
-        <v>0.02634</v>
+        <v>0.0004583333333333333</v>
       </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G88" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H88" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I88" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B89">
-        <v>0.01065652</v>
+        <v>0.001047954393024816</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I89" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90">
-        <v>0.01065625</v>
+        <v>0.0002724681421864521</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I90" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B91">
-        <v>0.0012</v>
+        <v>0.0018125</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G91" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H91" t="s">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="I91" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -2603,1756 +2807,1798 @@
         <v>58</v>
       </c>
       <c r="B92">
-        <v>0.0005</v>
+        <v>0.0004583333333333333</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G92" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H92" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93">
-        <v>0.03893653</v>
-      </c>
-      <c r="C93" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" t="s">
-        <v>200</v>
-      </c>
-      <c r="G93" t="s">
-        <v>206</v>
-      </c>
-      <c r="H93" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94">
-        <v>0.08132810159999999</v>
-      </c>
-      <c r="C94" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" t="s">
-        <v>112</v>
-      </c>
-      <c r="E94" t="s">
-        <v>200</v>
-      </c>
-      <c r="G94" t="s">
-        <v>206</v>
-      </c>
-      <c r="H94" t="s">
-        <v>209</v>
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>238</v>
+      </c>
+      <c r="G100" t="s">
+        <v>241</v>
+      </c>
+      <c r="H100" t="s">
+        <v>245</v>
+      </c>
+      <c r="I100" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" t="s">
-        <v>114</v>
+        <v>53</v>
+      </c>
+      <c r="B102">
+        <v>0.002561789837166234</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="I102" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.04244031830238727</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="G103" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="H103" t="s">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="I103" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B104">
-        <v>0.1587575</v>
+        <v>0.001040727121348782</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D104" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G104" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H104" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I104" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B105">
-        <v>0.04328224</v>
+        <v>0.0003978779840848806</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H105" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I105" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B106">
-        <v>0.2965355965</v>
+        <v>0.0002134824864305195</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E106" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="G106" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H106" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I106" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B107">
-        <v>0.3832937089</v>
+        <v>0.0001867971756267045</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E107" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="G107" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H107" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I107" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>0.000663129973474801</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="D108" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G108" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H108" t="s">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="I108" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B109">
-        <v>-0.0775</v>
+        <v>0.002374992661539529</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G109" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H109" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I109" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B110">
-        <v>-0.1015625</v>
+        <v>0.002882013566812013</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G110" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H110" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" t="s">
-        <v>67</v>
+        <v>246</v>
+      </c>
+      <c r="I110" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111">
+        <v>0.009204244031830238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" t="s">
+        <v>133</v>
+      </c>
+      <c r="G111" t="s">
+        <v>243</v>
+      </c>
+      <c r="H111" t="s">
+        <v>246</v>
+      </c>
+      <c r="I111" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" t="s">
-        <v>114</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>201</v>
-      </c>
-      <c r="G118" t="s">
-        <v>204</v>
-      </c>
-      <c r="H118" t="s">
-        <v>208</v>
-      </c>
-      <c r="I118" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>67</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
       </c>
+      <c r="F119" t="s">
+        <v>238</v>
+      </c>
       <c r="G119" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="H119" t="s">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="I119" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B120">
-        <v>0.00547</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E120" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H120" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B121">
-        <v>0.00358</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D121" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E121" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H121" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B122">
-        <v>0.00189</v>
+        <v>0.0012</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G122" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H122" t="s">
-        <v>209</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123">
+        <v>0.03125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" t="s">
+        <v>235</v>
+      </c>
+      <c r="G123" t="s">
+        <v>243</v>
+      </c>
+      <c r="H123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I123" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="B124">
+        <v>0.4263392857142857</v>
+      </c>
+      <c r="C124" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="G124" t="s">
+        <v>243</v>
+      </c>
+      <c r="H124" t="s">
+        <v>246</v>
+      </c>
+      <c r="I124" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" t="s">
-        <v>121</v>
+        <v>0.2008928571428572</v>
+      </c>
+      <c r="C125" t="s">
+        <v>163</v>
+      </c>
+      <c r="D125" t="s">
+        <v>231</v>
+      </c>
+      <c r="E125" t="s">
+        <v>133</v>
+      </c>
+      <c r="G125" t="s">
+        <v>243</v>
+      </c>
+      <c r="H125" t="s">
+        <v>246</v>
+      </c>
+      <c r="I125" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>114</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>201</v>
-      </c>
-      <c r="G130" t="s">
-        <v>204</v>
-      </c>
-      <c r="H130" t="s">
-        <v>208</v>
-      </c>
-      <c r="I130" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>70</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>121</v>
-      </c>
-      <c r="D131" t="s">
-        <v>122</v>
-      </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>205</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>71</v>
-      </c>
-      <c r="B132">
-        <v>0.00041</v>
-      </c>
-      <c r="C132" t="s">
-        <v>169</v>
-      </c>
-      <c r="D132" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" t="s">
-        <v>113</v>
-      </c>
-      <c r="G132" t="s">
-        <v>206</v>
-      </c>
-      <c r="H132" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>72</v>
-      </c>
-      <c r="B133">
-        <v>0.00036</v>
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>238</v>
       </c>
       <c r="G133" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H133" t="s">
-        <v>209</v>
+        <v>245</v>
+      </c>
+      <c r="I133" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B134">
-        <v>0.00041</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E134" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H134" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B135">
-        <v>0.00015</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H135" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B136">
-        <v>0.00015</v>
+        <v>0.0012</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E136" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="G136" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H136" t="s">
-        <v>209</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137">
+        <v>0.00676392572944297</v>
+      </c>
+      <c r="C137" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" t="s">
+        <v>235</v>
+      </c>
+      <c r="G137" t="s">
+        <v>243</v>
+      </c>
+      <c r="H137" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="B138">
+        <v>7.957559681697613E-05</v>
+      </c>
+      <c r="C138" t="s">
+        <v>188</v>
+      </c>
+      <c r="D138" t="s">
+        <v>136</v>
+      </c>
+      <c r="E138" t="s">
+        <v>133</v>
+      </c>
+      <c r="G138" t="s">
+        <v>243</v>
+      </c>
+      <c r="H138" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>4.641909814323608E-06</v>
+      </c>
+      <c r="C139" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139" t="s">
+        <v>133</v>
+      </c>
+      <c r="G139" t="s">
+        <v>243</v>
+      </c>
+      <c r="H139" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" t="s">
-        <v>124</v>
+        <v>68</v>
+      </c>
+      <c r="B140">
+        <v>7.957559681697613E-05</v>
+      </c>
+      <c r="C140" t="s">
+        <v>190</v>
+      </c>
+      <c r="D140" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" t="s">
+        <v>133</v>
+      </c>
+      <c r="G140" t="s">
+        <v>243</v>
+      </c>
+      <c r="H140" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>114</v>
-      </c>
-      <c r="C144" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
-        <v>201</v>
-      </c>
-      <c r="G144" t="s">
-        <v>204</v>
-      </c>
-      <c r="H144" t="s">
-        <v>208</v>
-      </c>
-      <c r="I144" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>75</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>123</v>
-      </c>
-      <c r="D145" t="s">
-        <v>124</v>
-      </c>
-      <c r="E145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s">
-        <v>205</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>71</v>
-      </c>
-      <c r="B146">
-        <v>0.00438</v>
-      </c>
-      <c r="C146" t="s">
-        <v>169</v>
-      </c>
-      <c r="D146" t="s">
-        <v>112</v>
-      </c>
-      <c r="E146" t="s">
-        <v>113</v>
-      </c>
-      <c r="G146" t="s">
-        <v>206</v>
-      </c>
-      <c r="H146" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>73</v>
-      </c>
-      <c r="B147">
-        <v>0.00438</v>
-      </c>
-      <c r="C147" t="s">
-        <v>171</v>
-      </c>
-      <c r="D147" t="s">
-        <v>116</v>
-      </c>
-      <c r="E147" t="s">
-        <v>113</v>
-      </c>
-      <c r="G147" t="s">
-        <v>206</v>
-      </c>
-      <c r="H147" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>69</v>
-      </c>
-      <c r="B148">
-        <v>0.00312</v>
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>134</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>238</v>
       </c>
       <c r="G148" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H148" t="s">
-        <v>209</v>
+        <v>245</v>
+      </c>
+      <c r="I148" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B149">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D149" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E149" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H149" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B150">
-        <v>0.00312</v>
+        <v>0.006</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D150" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E150" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G150" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H150" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B151">
-        <v>0.00549</v>
+        <v>3.733333333333333E-05</v>
       </c>
       <c r="C151" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="D151" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E151" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="G151" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H151" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B152">
-        <v>0.7618</v>
+        <v>0.00603125</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D152" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E152" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="G152" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H152" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153">
+        <v>0.00775</v>
+      </c>
+      <c r="C153" t="s">
+        <v>194</v>
+      </c>
+      <c r="D153" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" t="s">
+        <v>133</v>
+      </c>
+      <c r="G153" t="s">
+        <v>243</v>
+      </c>
+      <c r="H153" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B154">
+        <v>0.02634</v>
+      </c>
+      <c r="C154" t="s">
+        <v>195</v>
+      </c>
+      <c r="D154" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" t="s">
+        <v>133</v>
+      </c>
+      <c r="G154" t="s">
+        <v>243</v>
+      </c>
+      <c r="H154" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0.01065652</v>
+      </c>
+      <c r="C155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" t="s">
+        <v>132</v>
+      </c>
+      <c r="E155" t="s">
+        <v>133</v>
+      </c>
+      <c r="G155" t="s">
+        <v>243</v>
+      </c>
+      <c r="H155" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>11</v>
-      </c>
-      <c r="B156" t="s">
-        <v>125</v>
+        <v>61</v>
+      </c>
+      <c r="B156">
+        <v>0.01065625</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>132</v>
+      </c>
+      <c r="E156" t="s">
+        <v>133</v>
+      </c>
+      <c r="G156" t="s">
+        <v>243</v>
+      </c>
+      <c r="H156" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>12</v>
-      </c>
-      <c r="B157" t="s">
-        <v>116</v>
+        <v>30</v>
+      </c>
+      <c r="B157">
+        <v>0.0012</v>
+      </c>
+      <c r="C157" t="s">
+        <v>137</v>
+      </c>
+      <c r="D157" t="s">
+        <v>136</v>
+      </c>
+      <c r="E157" t="s">
+        <v>133</v>
+      </c>
+      <c r="G157" t="s">
+        <v>243</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>13</v>
-      </c>
-      <c r="B158" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="B158">
+        <v>0.0005</v>
+      </c>
+      <c r="C158" t="s">
+        <v>182</v>
+      </c>
+      <c r="D158" t="s">
+        <v>132</v>
+      </c>
+      <c r="E158" t="s">
+        <v>133</v>
+      </c>
+      <c r="G158" t="s">
+        <v>243</v>
+      </c>
+      <c r="H158" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="B159">
+        <v>0.03893653</v>
+      </c>
+      <c r="C159" t="s">
+        <v>196</v>
+      </c>
+      <c r="D159" t="s">
+        <v>136</v>
+      </c>
+      <c r="E159" t="s">
+        <v>237</v>
+      </c>
+      <c r="G159" t="s">
+        <v>243</v>
+      </c>
+      <c r="H159" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160">
+        <v>0.08132810159999999</v>
+      </c>
+      <c r="C160" t="s">
+        <v>197</v>
+      </c>
+      <c r="D160" t="s">
+        <v>132</v>
+      </c>
+      <c r="E160" t="s">
+        <v>237</v>
+      </c>
+      <c r="G160" t="s">
+        <v>243</v>
+      </c>
+      <c r="H160" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
         <v>15</v>
       </c>
-      <c r="B160" t="s">
-        <v>114</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B168" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" t="s">
         <v>11</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D168" t="s">
         <v>12</v>
       </c>
-      <c r="E160" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>238</v>
+      </c>
+      <c r="G168" t="s">
+        <v>241</v>
+      </c>
+      <c r="H168" t="s">
+        <v>245</v>
+      </c>
+      <c r="I168" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>143</v>
+      </c>
+      <c r="D169" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>242</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170">
+        <v>0.1587575</v>
+      </c>
+      <c r="C170" t="s">
+        <v>198</v>
+      </c>
+      <c r="D170" t="s">
+        <v>136</v>
+      </c>
+      <c r="E170" t="s">
+        <v>133</v>
+      </c>
+      <c r="G170" t="s">
+        <v>243</v>
+      </c>
+      <c r="H170" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171">
+        <v>0.04328224</v>
+      </c>
+      <c r="C171" t="s">
+        <v>199</v>
+      </c>
+      <c r="D171" t="s">
+        <v>136</v>
+      </c>
+      <c r="E171" t="s">
+        <v>133</v>
+      </c>
+      <c r="G171" t="s">
+        <v>243</v>
+      </c>
+      <c r="H171" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172">
+        <v>0.2965355965</v>
+      </c>
+      <c r="C172" t="s">
+        <v>124</v>
+      </c>
+      <c r="D172" t="s">
+        <v>136</v>
+      </c>
+      <c r="E172" t="s">
+        <v>237</v>
+      </c>
+      <c r="G172" t="s">
+        <v>243</v>
+      </c>
+      <c r="H172" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>82</v>
+      </c>
+      <c r="B173">
+        <v>0.3832937089</v>
+      </c>
+      <c r="C173" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E173" t="s">
+        <v>237</v>
+      </c>
+      <c r="G173" t="s">
+        <v>243</v>
+      </c>
+      <c r="H173" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>64</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>140</v>
+      </c>
+      <c r="D174" t="s">
+        <v>136</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>243</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175">
+        <v>-0.0775</v>
+      </c>
+      <c r="C175" t="s">
+        <v>177</v>
+      </c>
+      <c r="D175" t="s">
+        <v>132</v>
+      </c>
+      <c r="E175" t="s">
+        <v>133</v>
+      </c>
+      <c r="G175" t="s">
+        <v>243</v>
+      </c>
+      <c r="H175" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>83</v>
+      </c>
+      <c r="B176">
+        <v>-0.1015625</v>
+      </c>
+      <c r="C176" t="s">
         <v>201</v>
       </c>
-      <c r="G160" t="s">
-        <v>204</v>
-      </c>
-      <c r="H160" t="s">
-        <v>208</v>
-      </c>
-      <c r="I160" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
-        <v>125</v>
-      </c>
-      <c r="D161" t="s">
-        <v>116</v>
-      </c>
-      <c r="E161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s">
-        <v>205</v>
-      </c>
-      <c r="H161" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>79</v>
-      </c>
-      <c r="B162">
-        <v>0.00196</v>
-      </c>
-      <c r="C162" t="s">
-        <v>175</v>
-      </c>
-      <c r="D162" t="s">
-        <v>112</v>
-      </c>
-      <c r="E162" t="s">
-        <v>113</v>
-      </c>
-      <c r="G162" t="s">
-        <v>206</v>
-      </c>
-      <c r="H162" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>53</v>
-      </c>
-      <c r="B163">
-        <v>0.01534</v>
-      </c>
-      <c r="C163" t="s">
-        <v>155</v>
-      </c>
-      <c r="D163" t="s">
-        <v>112</v>
-      </c>
-      <c r="E163" t="s">
-        <v>113</v>
-      </c>
-      <c r="G163" t="s">
-        <v>206</v>
-      </c>
-      <c r="H163" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>56</v>
-      </c>
-      <c r="B164">
-        <v>0.02998</v>
-      </c>
-      <c r="C164" t="s">
-        <v>158</v>
-      </c>
-      <c r="D164" t="s">
-        <v>112</v>
-      </c>
-      <c r="E164" t="s">
-        <v>113</v>
-      </c>
-      <c r="G164" t="s">
-        <v>206</v>
-      </c>
-      <c r="H164" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>80</v>
-      </c>
-      <c r="B165">
-        <v>0.00252</v>
-      </c>
-      <c r="C165" t="s">
-        <v>176</v>
-      </c>
-      <c r="D165" t="s">
-        <v>112</v>
-      </c>
-      <c r="E165" t="s">
-        <v>113</v>
-      </c>
-      <c r="G165" t="s">
-        <v>206</v>
-      </c>
-      <c r="H165" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>73</v>
-      </c>
-      <c r="B166">
-        <v>0.00112</v>
-      </c>
-      <c r="C166" t="s">
-        <v>171</v>
-      </c>
-      <c r="D166" t="s">
-        <v>116</v>
-      </c>
-      <c r="E166" t="s">
-        <v>113</v>
-      </c>
-      <c r="G166" t="s">
-        <v>206</v>
-      </c>
-      <c r="H166" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>68</v>
-      </c>
-      <c r="B167">
-        <v>0.00736</v>
-      </c>
-      <c r="C167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D167" t="s">
-        <v>112</v>
-      </c>
-      <c r="E167" t="s">
-        <v>113</v>
-      </c>
-      <c r="G167" t="s">
-        <v>206</v>
-      </c>
-      <c r="H167" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>57</v>
-      </c>
-      <c r="B168">
-        <v>0.01563</v>
-      </c>
-      <c r="C168" t="s">
-        <v>159</v>
-      </c>
-      <c r="D168" t="s">
-        <v>112</v>
-      </c>
-      <c r="E168" t="s">
-        <v>113</v>
-      </c>
-      <c r="G168" t="s">
-        <v>206</v>
-      </c>
-      <c r="H168" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>81</v>
-      </c>
-      <c r="B169">
-        <v>0.00397</v>
-      </c>
-      <c r="C169" t="s">
-        <v>177</v>
-      </c>
-      <c r="D169" t="s">
-        <v>112</v>
-      </c>
-      <c r="E169" t="s">
-        <v>113</v>
-      </c>
-      <c r="G169" t="s">
-        <v>206</v>
-      </c>
-      <c r="H169" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>82</v>
-      </c>
-      <c r="B170">
-        <v>0.01534</v>
-      </c>
-      <c r="C170" t="s">
-        <v>178</v>
-      </c>
-      <c r="D170" t="s">
-        <v>112</v>
-      </c>
-      <c r="E170" t="s">
-        <v>113</v>
-      </c>
-      <c r="G170" t="s">
-        <v>206</v>
-      </c>
-      <c r="H170" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>74</v>
-      </c>
-      <c r="B171">
-        <v>0.0003</v>
-      </c>
-      <c r="C171" t="s">
-        <v>172</v>
-      </c>
-      <c r="D171" t="s">
-        <v>112</v>
-      </c>
-      <c r="E171" t="s">
-        <v>113</v>
-      </c>
-      <c r="G171" t="s">
-        <v>206</v>
-      </c>
-      <c r="H171" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>83</v>
-      </c>
-      <c r="B172">
-        <v>0.00196</v>
-      </c>
-      <c r="C172" t="s">
-        <v>179</v>
-      </c>
-      <c r="D172" t="s">
-        <v>112</v>
-      </c>
-      <c r="E172" t="s">
-        <v>113</v>
-      </c>
-      <c r="G172" t="s">
-        <v>206</v>
-      </c>
-      <c r="H172" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>9</v>
-      </c>
-      <c r="B174" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>10</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177" t="s">
-        <v>112</v>
+      <c r="D176" t="s">
+        <v>233</v>
+      </c>
+      <c r="E176" t="s">
+        <v>133</v>
+      </c>
+      <c r="G176" t="s">
+        <v>243</v>
+      </c>
+      <c r="H176" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>114</v>
-      </c>
-      <c r="C180" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" t="s">
-        <v>201</v>
-      </c>
-      <c r="G180" t="s">
-        <v>204</v>
-      </c>
-      <c r="H180" t="s">
-        <v>208</v>
-      </c>
-      <c r="I180" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>84</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
-        <v>84</v>
-      </c>
-      <c r="D181" t="s">
-        <v>112</v>
-      </c>
-      <c r="E181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" t="s">
-        <v>205</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>79</v>
-      </c>
-      <c r="B182">
-        <v>0.0012</v>
-      </c>
-      <c r="C182" t="s">
-        <v>175</v>
-      </c>
-      <c r="D182" t="s">
-        <v>112</v>
-      </c>
-      <c r="E182" t="s">
-        <v>113</v>
-      </c>
-      <c r="G182" t="s">
-        <v>206</v>
-      </c>
-      <c r="H182" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>51</v>
-      </c>
-      <c r="B183">
-        <v>0.006</v>
-      </c>
-      <c r="C183" t="s">
-        <v>153</v>
-      </c>
-      <c r="D183" t="s">
-        <v>112</v>
-      </c>
-      <c r="E183" t="s">
-        <v>113</v>
-      </c>
-      <c r="G183" t="s">
-        <v>206</v>
-      </c>
-      <c r="H183" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>56</v>
-      </c>
-      <c r="B184">
-        <v>0.00551</v>
+        <v>15</v>
+      </c>
+      <c r="B184" t="s">
+        <v>134</v>
       </c>
       <c r="C184" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E184" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>238</v>
       </c>
       <c r="G184" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>245</v>
+      </c>
+      <c r="I184" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B185">
-        <v>0.00124</v>
+        <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D185" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E185" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H185" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B186">
-        <v>0.00307</v>
+        <v>0.1587575</v>
       </c>
       <c r="C186" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E186" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G186" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B187">
-        <v>0.0005</v>
+        <v>0.04328224</v>
       </c>
       <c r="C187" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="D187" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E187" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G187" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H187" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>81</v>
+      </c>
+      <c r="B188">
+        <v>0.2965355965</v>
+      </c>
+      <c r="C188" t="s">
+        <v>124</v>
+      </c>
+      <c r="D188" t="s">
+        <v>136</v>
+      </c>
+      <c r="E188" t="s">
+        <v>237</v>
+      </c>
+      <c r="G188" t="s">
+        <v>243</v>
+      </c>
+      <c r="H188" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>9</v>
-      </c>
-      <c r="B189" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B189">
+        <v>0.3832937089</v>
+      </c>
+      <c r="C189" t="s">
+        <v>200</v>
+      </c>
+      <c r="D189" t="s">
+        <v>132</v>
+      </c>
+      <c r="E189" t="s">
+        <v>237</v>
+      </c>
+      <c r="G189" t="s">
+        <v>243</v>
+      </c>
+      <c r="H189" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
+        <v>65</v>
+      </c>
+      <c r="B190">
         <v>10</v>
       </c>
-      <c r="B190">
+      <c r="C190" t="s">
+        <v>141</v>
+      </c>
+      <c r="D190" t="s">
+        <v>136</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>243</v>
+      </c>
+      <c r="H190" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>11</v>
-      </c>
-      <c r="B191" t="s">
-        <v>85</v>
+        <v>41</v>
+      </c>
+      <c r="B191">
+        <v>-0.0775</v>
+      </c>
+      <c r="C191" t="s">
+        <v>177</v>
+      </c>
+      <c r="D191" t="s">
+        <v>132</v>
+      </c>
+      <c r="E191" t="s">
+        <v>133</v>
+      </c>
+      <c r="G191" t="s">
+        <v>243</v>
+      </c>
+      <c r="H191" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>12</v>
-      </c>
-      <c r="B192" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" t="s">
-        <v>13</v>
-      </c>
-      <c r="B193" t="s">
-        <v>113</v>
+        <v>83</v>
+      </c>
+      <c r="B192">
+        <v>-0.1015625</v>
+      </c>
+      <c r="C192" t="s">
+        <v>201</v>
+      </c>
+      <c r="D192" t="s">
+        <v>233</v>
+      </c>
+      <c r="E192" t="s">
+        <v>133</v>
+      </c>
+      <c r="G192" t="s">
+        <v>243</v>
+      </c>
+      <c r="H192" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" t="s">
-        <v>114</v>
-      </c>
-      <c r="C195" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" t="s">
-        <v>201</v>
-      </c>
-      <c r="G195" t="s">
-        <v>204</v>
-      </c>
-      <c r="H195" t="s">
-        <v>208</v>
-      </c>
-      <c r="I195" t="s">
-        <v>211</v>
+        <v>10</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
         <v>85</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>85</v>
-      </c>
-      <c r="D196" t="s">
-        <v>122</v>
-      </c>
-      <c r="E196" t="s">
-        <v>113</v>
-      </c>
-      <c r="G196" t="s">
-        <v>205</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>70</v>
-      </c>
-      <c r="B197">
-        <v>3</v>
-      </c>
-      <c r="C197" t="s">
-        <v>121</v>
-      </c>
-      <c r="D197" t="s">
-        <v>122</v>
-      </c>
-      <c r="E197" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" t="s">
-        <v>206</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>61</v>
-      </c>
-      <c r="B198">
-        <v>0.3</v>
-      </c>
-      <c r="C198" t="s">
-        <v>61</v>
-      </c>
-      <c r="D198" t="s">
-        <v>120</v>
-      </c>
-      <c r="E198" t="s">
-        <v>13</v>
-      </c>
-      <c r="G198" t="s">
-        <v>206</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>75</v>
-      </c>
-      <c r="B199">
-        <v>3</v>
-      </c>
-      <c r="C199" t="s">
-        <v>123</v>
-      </c>
-      <c r="D199" t="s">
-        <v>124</v>
-      </c>
-      <c r="E199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s">
-        <v>206</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>86</v>
-      </c>
-      <c r="B200">
-        <v>0.39474</v>
+        <v>15</v>
+      </c>
+      <c r="B200" t="s">
+        <v>134</v>
       </c>
       <c r="C200" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D200" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="E200" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F200" t="s">
+        <v>238</v>
       </c>
       <c r="G200" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H200" t="s">
-        <v>209</v>
+        <v>245</v>
+      </c>
+      <c r="I200" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D201" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H201" t="s">
         <v>1</v>
@@ -4360,1371 +4606,1267 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>0.00547</v>
       </c>
       <c r="C202" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D202" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E202" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G202" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H202" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B203">
-        <v>0.0027</v>
+        <v>0.00358</v>
       </c>
       <c r="C203" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D203" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E203" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G203" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H203" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>0.00189</v>
       </c>
       <c r="C204" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="D204" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E204" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G204" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H204" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" t="s">
-        <v>88</v>
-      </c>
-      <c r="B205">
-        <v>0.3</v>
-      </c>
-      <c r="C205" t="s">
-        <v>182</v>
-      </c>
-      <c r="D205" t="s">
-        <v>116</v>
-      </c>
-      <c r="E205" t="s">
-        <v>113</v>
-      </c>
-      <c r="G205" t="s">
-        <v>206</v>
-      </c>
-      <c r="H205" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>89</v>
-      </c>
-      <c r="B206">
-        <v>0.060611922</v>
-      </c>
-      <c r="C206" t="s">
-        <v>183</v>
-      </c>
-      <c r="D206" t="s">
-        <v>112</v>
-      </c>
-      <c r="E206" t="s">
-        <v>113</v>
-      </c>
-      <c r="G206" t="s">
-        <v>206</v>
-      </c>
-      <c r="H206" t="s">
-        <v>209</v>
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B207">
-        <v>0.00108</v>
-      </c>
-      <c r="E207" t="s">
-        <v>113</v>
-      </c>
-      <c r="F207" t="s">
-        <v>203</v>
-      </c>
-      <c r="G207" t="s">
-        <v>207</v>
-      </c>
-      <c r="H207" t="s">
-        <v>210</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B209" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>10</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>11</v>
-      </c>
-      <c r="B211" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" t="s">
+        <v>134</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
         <v>12</v>
       </c>
-      <c r="B212" t="s">
-        <v>127</v>
+      <c r="E212" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" t="s">
+        <v>238</v>
+      </c>
+      <c r="G212" t="s">
+        <v>241</v>
+      </c>
+      <c r="H212" t="s">
+        <v>245</v>
+      </c>
+      <c r="I212" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>13</v>
-      </c>
-      <c r="B213" t="s">
-        <v>113</v>
+        <v>87</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>146</v>
+      </c>
+      <c r="D213" t="s">
+        <v>147</v>
+      </c>
+      <c r="E213" t="s">
+        <v>13</v>
+      </c>
+      <c r="G213" t="s">
+        <v>242</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="B214">
+        <v>0.00041</v>
+      </c>
+      <c r="C214" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" t="s">
+        <v>132</v>
+      </c>
+      <c r="E214" t="s">
+        <v>133</v>
+      </c>
+      <c r="G214" t="s">
+        <v>243</v>
+      </c>
+      <c r="H214" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="B215">
+        <v>0.00036</v>
       </c>
       <c r="C215" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E215" t="s">
-        <v>13</v>
-      </c>
-      <c r="F215" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G215" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="H215" t="s">
-        <v>208</v>
-      </c>
-      <c r="I215" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>0.00041</v>
       </c>
       <c r="C216" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="D216" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E216" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G216" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="H216" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B217">
-        <v>0.22</v>
+        <v>0.00015</v>
       </c>
       <c r="C217" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D217" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E217" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G217" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H217" t="s">
-        <v>209</v>
-      </c>
-      <c r="I217" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B218">
-        <v>0.32</v>
+        <v>0.00015</v>
       </c>
       <c r="C218" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D218" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E218" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="G218" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H218" t="s">
-        <v>209</v>
-      </c>
-      <c r="I218" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="A219" t="s">
-        <v>33</v>
-      </c>
-      <c r="B219">
-        <v>0.18</v>
-      </c>
-      <c r="C219" t="s">
-        <v>144</v>
-      </c>
-      <c r="D219" t="s">
-        <v>116</v>
-      </c>
-      <c r="E219" t="s">
-        <v>113</v>
-      </c>
-      <c r="G219" t="s">
-        <v>206</v>
-      </c>
-      <c r="H219" t="s">
-        <v>209</v>
-      </c>
-      <c r="I219" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>34</v>
-      </c>
-      <c r="B220">
-        <v>21.97777777777778</v>
-      </c>
-      <c r="C220" t="s">
-        <v>145</v>
-      </c>
-      <c r="D220" t="s">
-        <v>127</v>
-      </c>
-      <c r="E220" t="s">
-        <v>198</v>
-      </c>
-      <c r="G220" t="s">
-        <v>206</v>
-      </c>
-      <c r="H220" t="s">
-        <v>209</v>
-      </c>
-      <c r="I220" t="s">
-        <v>214</v>
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B221">
-        <v>5.18</v>
-      </c>
-      <c r="C221" t="s">
-        <v>146</v>
-      </c>
-      <c r="D221" t="s">
-        <v>116</v>
-      </c>
-      <c r="E221" t="s">
-        <v>113</v>
-      </c>
-      <c r="G221" t="s">
-        <v>206</v>
-      </c>
-      <c r="H221" t="s">
-        <v>209</v>
-      </c>
-      <c r="I221" t="s">
-        <v>215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>36</v>
-      </c>
-      <c r="B222">
-        <v>8.91</v>
-      </c>
-      <c r="C222" t="s">
-        <v>147</v>
-      </c>
-      <c r="D222" t="s">
-        <v>116</v>
-      </c>
-      <c r="E222" t="s">
-        <v>199</v>
-      </c>
-      <c r="G222" t="s">
-        <v>206</v>
-      </c>
-      <c r="H222" t="s">
-        <v>209</v>
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>37</v>
-      </c>
-      <c r="B223">
-        <v>4.02</v>
-      </c>
-      <c r="C223" t="s">
-        <v>148</v>
-      </c>
-      <c r="D223" t="s">
-        <v>116</v>
-      </c>
-      <c r="E223" t="s">
-        <v>113</v>
-      </c>
-      <c r="G223" t="s">
-        <v>206</v>
-      </c>
-      <c r="H223" t="s">
-        <v>209</v>
-      </c>
-      <c r="I223" t="s">
-        <v>215</v>
+        <v>12</v>
+      </c>
+      <c r="B223" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>20</v>
-      </c>
-      <c r="B224">
-        <v>1.3</v>
-      </c>
-      <c r="C224" t="s">
-        <v>115</v>
-      </c>
-      <c r="D224" t="s">
-        <v>116</v>
-      </c>
-      <c r="E224" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" t="s">
-        <v>206</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1</v>
-      </c>
-      <c r="I224" t="s">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>92</v>
-      </c>
-      <c r="B225">
-        <v>0.36</v>
-      </c>
-      <c r="C225" t="s">
-        <v>184</v>
-      </c>
-      <c r="D225" t="s">
-        <v>112</v>
-      </c>
-      <c r="E225" t="s">
-        <v>113</v>
-      </c>
-      <c r="G225" t="s">
-        <v>206</v>
-      </c>
-      <c r="H225" t="s">
-        <v>209</v>
-      </c>
-      <c r="I225" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>27</v>
-      </c>
-      <c r="B226">
-        <v>0.26</v>
+        <v>15</v>
+      </c>
+      <c r="B226" t="s">
+        <v>134</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D226" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E226" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
+        <v>238</v>
       </c>
       <c r="G226" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H226" t="s">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="I226" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B227">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D227" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E227" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H227" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B228">
-        <v>0.01</v>
+        <v>0.0224</v>
       </c>
       <c r="C228" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D228" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G228" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H228" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I228" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B229">
-        <v>19.1</v>
+        <v>0.006</v>
       </c>
       <c r="C229" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="D229" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G229" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H229" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I229" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B230">
-        <v>0.03950103950103934</v>
+        <v>0.002</v>
       </c>
       <c r="C230" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D230" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E230" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G230" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H230" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I230" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B231">
-        <v>-0.00535</v>
+        <v>0.024</v>
       </c>
       <c r="C231" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D231" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="E231" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G231" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H231" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I231" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B232">
-        <v>-1.07</v>
+        <v>0.032</v>
       </c>
       <c r="C232" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="D232" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="E232" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G232" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H232" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="I232" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B233">
-        <v>-0.03</v>
+        <v>0.49422912</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="D233" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E233" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="G233" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H233" t="s">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="I233" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B234">
-        <v>0.17</v>
+        <v>0.00448</v>
+      </c>
+      <c r="C234" t="s">
+        <v>212</v>
+      </c>
+      <c r="D234" t="s">
+        <v>136</v>
       </c>
       <c r="E234" t="s">
-        <v>113</v>
-      </c>
-      <c r="F234" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="G234" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="H234" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235" t="s">
-        <v>43</v>
-      </c>
-      <c r="B235">
-        <v>0.22</v>
-      </c>
-      <c r="E235" t="s">
-        <v>113</v>
-      </c>
-      <c r="F235" t="s">
-        <v>202</v>
-      </c>
-      <c r="G235" t="s">
-        <v>207</v>
-      </c>
-      <c r="H235" t="s">
-        <v>210</v>
+        <v>246</v>
+      </c>
+      <c r="I234" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>44</v>
-      </c>
-      <c r="B236">
-        <v>0.18</v>
-      </c>
-      <c r="E236" t="s">
-        <v>113</v>
-      </c>
-      <c r="F236" t="s">
-        <v>202</v>
-      </c>
-      <c r="G236" t="s">
-        <v>207</v>
-      </c>
-      <c r="H236" t="s">
-        <v>210</v>
+        <v>9</v>
+      </c>
+      <c r="B236" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B237">
-        <v>6.58</v>
-      </c>
-      <c r="E237" t="s">
-        <v>113</v>
-      </c>
-      <c r="F237" t="s">
-        <v>203</v>
-      </c>
-      <c r="G237" t="s">
-        <v>207</v>
-      </c>
-      <c r="H237" t="s">
-        <v>210</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>46</v>
-      </c>
-      <c r="B238">
-        <v>0.06</v>
-      </c>
-      <c r="E238" t="s">
-        <v>113</v>
-      </c>
-      <c r="F238" t="s">
-        <v>202</v>
-      </c>
-      <c r="G238" t="s">
-        <v>207</v>
-      </c>
-      <c r="H238" t="s">
-        <v>210</v>
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>93</v>
-      </c>
-      <c r="B239">
-        <v>0.01</v>
-      </c>
-      <c r="E239" t="s">
-        <v>113</v>
-      </c>
-      <c r="F239" t="s">
-        <v>202</v>
-      </c>
-      <c r="G239" t="s">
-        <v>207</v>
-      </c>
-      <c r="H239" t="s">
-        <v>210</v>
+        <v>12</v>
+      </c>
+      <c r="B239" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>48</v>
-      </c>
-      <c r="B240">
-        <v>0.11</v>
-      </c>
-      <c r="E240" t="s">
-        <v>113</v>
-      </c>
-      <c r="F240" t="s">
-        <v>203</v>
-      </c>
-      <c r="G240" t="s">
-        <v>207</v>
-      </c>
-      <c r="H240" t="s">
-        <v>210</v>
+        <v>13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>49</v>
-      </c>
-      <c r="B241">
-        <v>0.01</v>
-      </c>
-      <c r="E241" t="s">
-        <v>113</v>
-      </c>
-      <c r="F241" t="s">
-        <v>202</v>
-      </c>
-      <c r="G241" t="s">
-        <v>207</v>
-      </c>
-      <c r="H241" t="s">
-        <v>210</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" t="s">
+        <v>134</v>
+      </c>
+      <c r="C242" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
+        <v>238</v>
+      </c>
+      <c r="G242" t="s">
+        <v>241</v>
+      </c>
+      <c r="H242" t="s">
+        <v>245</v>
+      </c>
+      <c r="I242" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>9</v>
-      </c>
-      <c r="B243" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>150</v>
+      </c>
+      <c r="D243" t="s">
+        <v>136</v>
+      </c>
+      <c r="E243" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" t="s">
+        <v>242</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0.00196</v>
+      </c>
+      <c r="C244" t="s">
+        <v>187</v>
+      </c>
+      <c r="D244" t="s">
+        <v>132</v>
+      </c>
+      <c r="E244" t="s">
+        <v>133</v>
+      </c>
+      <c r="G244" t="s">
+        <v>243</v>
+      </c>
+      <c r="H244" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>11</v>
-      </c>
-      <c r="B245" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="B245">
+        <v>0.01534</v>
+      </c>
+      <c r="C245" t="s">
+        <v>193</v>
+      </c>
+      <c r="D245" t="s">
+        <v>132</v>
+      </c>
+      <c r="E245" t="s">
+        <v>133</v>
+      </c>
+      <c r="G245" t="s">
+        <v>243</v>
+      </c>
+      <c r="H245" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>12</v>
-      </c>
-      <c r="B246" t="s">
-        <v>116</v>
+        <v>75</v>
+      </c>
+      <c r="B246">
+        <v>0.02998</v>
+      </c>
+      <c r="C246" t="s">
+        <v>57</v>
+      </c>
+      <c r="D246" t="s">
+        <v>132</v>
+      </c>
+      <c r="E246" t="s">
+        <v>133</v>
+      </c>
+      <c r="G246" t="s">
+        <v>243</v>
+      </c>
+      <c r="H246" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>13</v>
-      </c>
-      <c r="B247" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="B247">
+        <v>0.00252</v>
+      </c>
+      <c r="C247" t="s">
+        <v>209</v>
+      </c>
+      <c r="D247" t="s">
+        <v>132</v>
+      </c>
+      <c r="E247" t="s">
+        <v>133</v>
+      </c>
+      <c r="G247" t="s">
+        <v>243</v>
+      </c>
+      <c r="H247" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="B248">
+        <v>0.00112</v>
+      </c>
+      <c r="C248" t="s">
+        <v>205</v>
+      </c>
+      <c r="D248" t="s">
+        <v>136</v>
+      </c>
+      <c r="E248" t="s">
+        <v>133</v>
+      </c>
+      <c r="G248" t="s">
+        <v>243</v>
+      </c>
+      <c r="H248" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="B249">
+        <v>0.00736</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="D249" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E249" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G249" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="H249" t="s">
-        <v>208</v>
-      </c>
-      <c r="I249" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>0.01563</v>
       </c>
       <c r="C250" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="D250" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E250" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G250" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="H250" t="s">
-        <v>1</v>
-      </c>
-      <c r="I250" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B251">
-        <v>0.01033</v>
+        <v>0.00397</v>
       </c>
       <c r="C251" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D251" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E251" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G251" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H251" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B252">
-        <v>0.98967</v>
+        <v>0.01534</v>
       </c>
       <c r="C252" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D252" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E252" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G252" t="s">
+        <v>243</v>
+      </c>
+      <c r="H252" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>91</v>
+      </c>
+      <c r="B253">
+        <v>0.0003</v>
+      </c>
+      <c r="C253" t="s">
         <v>206</v>
       </c>
-      <c r="H252" t="s">
-        <v>209</v>
+      <c r="D253" t="s">
+        <v>132</v>
+      </c>
+      <c r="E253" t="s">
+        <v>133</v>
+      </c>
+      <c r="G253" t="s">
+        <v>243</v>
+      </c>
+      <c r="H253" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>9</v>
-      </c>
-      <c r="B254" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" t="s">
-        <v>10</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B254">
+        <v>0.00196</v>
+      </c>
+      <c r="C254" t="s">
+        <v>214</v>
+      </c>
+      <c r="D254" t="s">
+        <v>132</v>
+      </c>
+      <c r="E254" t="s">
+        <v>133</v>
+      </c>
+      <c r="G254" t="s">
+        <v>243</v>
+      </c>
+      <c r="H254" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>12</v>
-      </c>
-      <c r="B257" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B259" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B260" t="s">
-        <v>114</v>
-      </c>
-      <c r="C260" t="s">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s">
-        <v>12</v>
-      </c>
-      <c r="E260" t="s">
-        <v>13</v>
-      </c>
-      <c r="F260" t="s">
-        <v>201</v>
-      </c>
-      <c r="G260" t="s">
-        <v>204</v>
-      </c>
-      <c r="H260" t="s">
-        <v>208</v>
-      </c>
-      <c r="I260" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>97</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-      <c r="C261" t="s">
-        <v>97</v>
-      </c>
-      <c r="D261" t="s">
-        <v>127</v>
-      </c>
-      <c r="E261" t="s">
-        <v>13</v>
-      </c>
-      <c r="G261" t="s">
-        <v>205</v>
-      </c>
-      <c r="H261" t="s">
-        <v>1</v>
-      </c>
-      <c r="I261" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>98</v>
-      </c>
-      <c r="B262">
-        <v>9.281249999999999E-05</v>
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>134</v>
       </c>
       <c r="C262" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="D262" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E262" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>238</v>
       </c>
       <c r="G262" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H262" t="s">
-        <v>209</v>
+        <v>245</v>
+      </c>
+      <c r="I262" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B263">
-        <v>4.296874999999998E-05</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D263" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="E263" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="G263" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H263" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B264">
-        <v>5.671875E-06</v>
+        <v>0.0012</v>
       </c>
       <c r="C264" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D264" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E264" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G264" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H264" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B265">
-        <v>5.646093749999999E-05</v>
+        <v>0.006</v>
       </c>
       <c r="C265" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="D265" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E265" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G265" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H265" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B266">
-        <v>5.4140625E-06</v>
+        <v>0.00551</v>
       </c>
       <c r="C266" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D266" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E266" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G266" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H266" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B267">
-        <v>0.0006600000000000001</v>
+        <v>0.00124</v>
       </c>
       <c r="C267" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D267" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E267" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G267" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H267" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B268">
-        <v>2.10375E-05</v>
+        <v>0.00307</v>
       </c>
       <c r="C268" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D268" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E268" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G268" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H268" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B269">
-        <v>1.959375E-05</v>
+        <v>0.0005</v>
       </c>
       <c r="C269" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D269" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E269" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G269" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H269" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" t="s">
-        <v>88</v>
-      </c>
-      <c r="B270">
-        <v>7.734374999999998E-06</v>
-      </c>
-      <c r="C270" t="s">
-        <v>182</v>
-      </c>
-      <c r="D270" t="s">
-        <v>116</v>
-      </c>
-      <c r="E270" t="s">
-        <v>113</v>
-      </c>
-      <c r="G270" t="s">
-        <v>206</v>
-      </c>
-      <c r="H270" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>9</v>
-      </c>
-      <c r="B272" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>10</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B274" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B275" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>13</v>
-      </c>
-      <c r="B276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B277" t="s">
+        <v>134</v>
+      </c>
+      <c r="C277" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s">
+        <v>238</v>
+      </c>
+      <c r="G277" t="s">
+        <v>241</v>
+      </c>
+      <c r="H277" t="s">
+        <v>245</v>
+      </c>
+      <c r="I277" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D278" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="E278" t="s">
-        <v>13</v>
-      </c>
-      <c r="F278" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G278" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="H278" t="s">
-        <v>208</v>
-      </c>
-      <c r="I278" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D279" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="H279" t="s">
         <v>1</v>
@@ -5732,48 +5874,48 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B280">
-        <v>0.005292</v>
+        <v>0.3</v>
       </c>
       <c r="C280" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D280" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E280" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G280" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H280" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B281">
-        <v>6.999999999999999E-05</v>
+        <v>3</v>
       </c>
       <c r="C281" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D281" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E281" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="G281" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H281" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -5781,300 +5923,297 @@
         <v>104</v>
       </c>
       <c r="B282">
-        <v>0.0005</v>
+        <v>-0.4577725</v>
       </c>
       <c r="C282" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D282" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="E282" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G282" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H282" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B283">
-        <v>0.00247</v>
+        <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D283" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E283" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G283" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H283" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B284">
-        <v>0.00247</v>
+        <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="D284" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E284" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G284" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H284" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>0.0027</v>
       </c>
       <c r="C285" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="D285" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E285" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G285" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H285" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B286">
-        <v>0.0559</v>
+        <v>3</v>
       </c>
       <c r="C286" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="D286" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E286" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G286" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H286" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B287">
-        <v>0.1222749382</v>
+        <v>0.3</v>
       </c>
       <c r="C287" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="D287" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E287" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="G287" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H287" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>107</v>
+      </c>
+      <c r="B288">
+        <v>0.060611922</v>
+      </c>
+      <c r="C288" t="s">
+        <v>218</v>
+      </c>
+      <c r="D288" t="s">
+        <v>132</v>
+      </c>
+      <c r="E288" t="s">
+        <v>133</v>
+      </c>
+      <c r="G288" t="s">
+        <v>243</v>
+      </c>
+      <c r="H288" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>9</v>
-      </c>
-      <c r="B289" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" t="s">
-        <v>10</v>
-      </c>
-      <c r="B290">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="B289">
+        <v>0.00108</v>
+      </c>
+      <c r="E289" t="s">
+        <v>133</v>
+      </c>
+      <c r="F289" t="s">
+        <v>240</v>
+      </c>
+      <c r="G289" t="s">
+        <v>244</v>
+      </c>
+      <c r="H289" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>12</v>
-      </c>
-      <c r="B292" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B294" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B295" t="s">
-        <v>114</v>
-      </c>
-      <c r="C295" t="s">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s">
-        <v>12</v>
-      </c>
-      <c r="E295" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" t="s">
-        <v>201</v>
-      </c>
-      <c r="G295" t="s">
-        <v>204</v>
-      </c>
-      <c r="H295" t="s">
-        <v>208</v>
-      </c>
-      <c r="I295" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>107</v>
-      </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-      <c r="C296" t="s">
-        <v>129</v>
-      </c>
-      <c r="D296" t="s">
-        <v>130</v>
-      </c>
-      <c r="E296" t="s">
-        <v>13</v>
-      </c>
-      <c r="G296" t="s">
-        <v>205</v>
-      </c>
-      <c r="H296" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>62</v>
-      </c>
-      <c r="B297">
-        <v>0.06614895833000001</v>
+        <v>15</v>
+      </c>
+      <c r="B297" t="s">
+        <v>134</v>
       </c>
       <c r="C297" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="D297" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E297" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F297" t="s">
+        <v>238</v>
       </c>
       <c r="G297" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H297" t="s">
-        <v>209</v>
+        <v>245</v>
+      </c>
+      <c r="I297" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B298">
-        <v>0.00827</v>
+        <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="D298" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E298" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G298" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H298" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B299">
         <v>3</v>
       </c>
       <c r="C299" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D299" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E299" t="s">
         <v>13</v>
       </c>
       <c r="G299" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H299" t="s">
         <v>1</v>
@@ -6082,237 +6221,2295 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B300">
-        <v>0.00454</v>
+        <v>0.3</v>
       </c>
       <c r="C300" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="D300" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E300" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G300" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H300" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B301">
-        <v>0.02626</v>
+        <v>3</v>
       </c>
       <c r="C301" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D301" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E301" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G301" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H301" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B302">
-        <v>-0.01587575</v>
+        <v>-0.4785727320954907</v>
       </c>
       <c r="C302" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D302" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="E302" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G302" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="H302" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" t="s">
+        <v>99</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>150</v>
+      </c>
+      <c r="D303" t="s">
+        <v>136</v>
+      </c>
+      <c r="E303" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" t="s">
+        <v>243</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>9</v>
-      </c>
-      <c r="B304" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304" t="s">
+        <v>102</v>
+      </c>
+      <c r="D304" t="s">
+        <v>132</v>
+      </c>
+      <c r="E304" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" t="s">
+        <v>243</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>0.0027</v>
+      </c>
+      <c r="C305" t="s">
+        <v>216</v>
+      </c>
+      <c r="D305" t="s">
+        <v>136</v>
+      </c>
+      <c r="E305" t="s">
+        <v>133</v>
+      </c>
+      <c r="G305" t="s">
+        <v>243</v>
+      </c>
+      <c r="H305" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>11</v>
-      </c>
-      <c r="B306" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>85</v>
+      </c>
+      <c r="D306" t="s">
+        <v>132</v>
+      </c>
+      <c r="E306" t="s">
+        <v>13</v>
+      </c>
+      <c r="G306" t="s">
+        <v>243</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>12</v>
-      </c>
-      <c r="B307" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="B307">
+        <v>0.3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>217</v>
+      </c>
+      <c r="D307" t="s">
+        <v>136</v>
+      </c>
+      <c r="E307" t="s">
+        <v>133</v>
+      </c>
+      <c r="G307" t="s">
+        <v>243</v>
+      </c>
+      <c r="H307" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>13</v>
-      </c>
-      <c r="B308" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="B308">
+        <v>0.060611922</v>
+      </c>
+      <c r="C308" t="s">
+        <v>218</v>
+      </c>
+      <c r="D308" t="s">
+        <v>132</v>
+      </c>
+      <c r="E308" t="s">
+        <v>133</v>
+      </c>
+      <c r="G308" t="s">
+        <v>243</v>
+      </c>
+      <c r="H308" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" t="s">
-        <v>114</v>
-      </c>
-      <c r="C310" t="s">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s">
-        <v>12</v>
-      </c>
-      <c r="E310" t="s">
-        <v>13</v>
-      </c>
-      <c r="F310" t="s">
-        <v>201</v>
-      </c>
-      <c r="G310" t="s">
-        <v>204</v>
-      </c>
-      <c r="H310" t="s">
-        <v>208</v>
-      </c>
-      <c r="I310" t="s">
-        <v>211</v>
+        <v>108</v>
+      </c>
+      <c r="B309">
+        <v>0.00108</v>
+      </c>
+      <c r="E309" t="s">
+        <v>133</v>
+      </c>
+      <c r="F309" t="s">
+        <v>240</v>
+      </c>
+      <c r="G309" t="s">
+        <v>244</v>
+      </c>
+      <c r="H309" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" t="s">
+        <v>9</v>
+      </c>
+      <c r="B311" t="s">
         <v>110</v>
-      </c>
-      <c r="B311">
-        <v>1</v>
-      </c>
-      <c r="C311" t="s">
-        <v>110</v>
-      </c>
-      <c r="D311" t="s">
-        <v>122</v>
-      </c>
-      <c r="E311" t="s">
-        <v>13</v>
-      </c>
-      <c r="G311" t="s">
-        <v>205</v>
-      </c>
-      <c r="H311" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B312">
-        <v>0.0008910000000000001</v>
-      </c>
-      <c r="C312" t="s">
-        <v>180</v>
-      </c>
-      <c r="D312" t="s">
-        <v>196</v>
-      </c>
-      <c r="E312" t="s">
-        <v>113</v>
-      </c>
-      <c r="G312" t="s">
-        <v>206</v>
-      </c>
-      <c r="H312" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>107</v>
-      </c>
-      <c r="B313">
-        <v>0.1</v>
-      </c>
-      <c r="C313" t="s">
-        <v>129</v>
-      </c>
-      <c r="D313" t="s">
-        <v>130</v>
-      </c>
-      <c r="E313" t="s">
-        <v>13</v>
-      </c>
-      <c r="G313" t="s">
-        <v>206</v>
-      </c>
-      <c r="H313" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B313" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>89</v>
-      </c>
-      <c r="B314">
+        <v>12</v>
+      </c>
+      <c r="B314" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>13</v>
+      </c>
+      <c r="B315" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" t="s">
+        <v>134</v>
+      </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" t="s">
+        <v>13</v>
+      </c>
+      <c r="F317" t="s">
+        <v>238</v>
+      </c>
+      <c r="G317" t="s">
+        <v>241</v>
+      </c>
+      <c r="H317" t="s">
+        <v>245</v>
+      </c>
+      <c r="I317" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>110</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318" t="s">
+        <v>151</v>
+      </c>
+      <c r="D318" t="s">
+        <v>136</v>
+      </c>
+      <c r="E318" t="s">
+        <v>133</v>
+      </c>
+      <c r="G318" t="s">
+        <v>242</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>31</v>
+      </c>
+      <c r="B319">
+        <v>0.22</v>
+      </c>
+      <c r="C319" t="s">
+        <v>167</v>
+      </c>
+      <c r="D319" t="s">
+        <v>136</v>
+      </c>
+      <c r="E319" t="s">
+        <v>133</v>
+      </c>
+      <c r="G319" t="s">
+        <v>243</v>
+      </c>
+      <c r="H319" t="s">
+        <v>246</v>
+      </c>
+      <c r="I319" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>32</v>
+      </c>
+      <c r="B320">
+        <v>0.32</v>
+      </c>
+      <c r="C320" t="s">
+        <v>168</v>
+      </c>
+      <c r="D320" t="s">
+        <v>136</v>
+      </c>
+      <c r="E320" t="s">
+        <v>133</v>
+      </c>
+      <c r="G320" t="s">
+        <v>243</v>
+      </c>
+      <c r="H320" t="s">
+        <v>246</v>
+      </c>
+      <c r="I320" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>33</v>
+      </c>
+      <c r="B321">
+        <v>0.18</v>
+      </c>
+      <c r="C321" t="s">
+        <v>169</v>
+      </c>
+      <c r="D321" t="s">
+        <v>136</v>
+      </c>
+      <c r="E321" t="s">
+        <v>133</v>
+      </c>
+      <c r="G321" t="s">
+        <v>243</v>
+      </c>
+      <c r="H321" t="s">
+        <v>246</v>
+      </c>
+      <c r="I321" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>34</v>
+      </c>
+      <c r="B322">
+        <v>21.97777777777778</v>
+      </c>
+      <c r="C322" t="s">
+        <v>170</v>
+      </c>
+      <c r="D322" t="s">
+        <v>231</v>
+      </c>
+      <c r="E322" t="s">
+        <v>235</v>
+      </c>
+      <c r="G322" t="s">
+        <v>243</v>
+      </c>
+      <c r="H322" t="s">
+        <v>246</v>
+      </c>
+      <c r="I322" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>35</v>
+      </c>
+      <c r="B323">
+        <v>5.18</v>
+      </c>
+      <c r="C323" t="s">
+        <v>171</v>
+      </c>
+      <c r="D323" t="s">
+        <v>136</v>
+      </c>
+      <c r="E323" t="s">
+        <v>133</v>
+      </c>
+      <c r="G323" t="s">
+        <v>243</v>
+      </c>
+      <c r="H323" t="s">
+        <v>246</v>
+      </c>
+      <c r="I323" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>36</v>
+      </c>
+      <c r="B324">
+        <v>8.91</v>
+      </c>
+      <c r="C324" t="s">
+        <v>172</v>
+      </c>
+      <c r="D324" t="s">
+        <v>136</v>
+      </c>
+      <c r="E324" t="s">
+        <v>236</v>
+      </c>
+      <c r="G324" t="s">
+        <v>243</v>
+      </c>
+      <c r="H324" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>37</v>
+      </c>
+      <c r="B325">
+        <v>4.02</v>
+      </c>
+      <c r="C325" t="s">
+        <v>173</v>
+      </c>
+      <c r="D325" t="s">
+        <v>136</v>
+      </c>
+      <c r="E325" t="s">
+        <v>133</v>
+      </c>
+      <c r="G325" t="s">
+        <v>243</v>
+      </c>
+      <c r="H325" t="s">
+        <v>246</v>
+      </c>
+      <c r="I325" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>20</v>
+      </c>
+      <c r="B326">
+        <v>1.3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>135</v>
+      </c>
+      <c r="D326" t="s">
+        <v>136</v>
+      </c>
+      <c r="E326" t="s">
+        <v>133</v>
+      </c>
+      <c r="G326" t="s">
+        <v>243</v>
+      </c>
+      <c r="H326" t="s">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>111</v>
+      </c>
+      <c r="B327">
+        <v>0.36</v>
+      </c>
+      <c r="C327" t="s">
+        <v>219</v>
+      </c>
+      <c r="D327" t="s">
+        <v>132</v>
+      </c>
+      <c r="E327" t="s">
+        <v>133</v>
+      </c>
+      <c r="G327" t="s">
+        <v>243</v>
+      </c>
+      <c r="H327" t="s">
+        <v>246</v>
+      </c>
+      <c r="I327" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>27</v>
+      </c>
+      <c r="B328">
+        <v>0.26</v>
+      </c>
+      <c r="C328" t="s">
+        <v>27</v>
+      </c>
+      <c r="D328" t="s">
+        <v>132</v>
+      </c>
+      <c r="E328" t="s">
+        <v>133</v>
+      </c>
+      <c r="G328" t="s">
+        <v>243</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1</v>
+      </c>
+      <c r="I328" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329">
+        <v>0.11</v>
+      </c>
+      <c r="C329" t="s">
+        <v>166</v>
+      </c>
+      <c r="D329" t="s">
+        <v>132</v>
+      </c>
+      <c r="E329" t="s">
+        <v>133</v>
+      </c>
+      <c r="G329" t="s">
+        <v>243</v>
+      </c>
+      <c r="H329" t="s">
+        <v>246</v>
+      </c>
+      <c r="I329" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>39</v>
+      </c>
+      <c r="B330">
+        <v>0.01</v>
+      </c>
+      <c r="C330" t="s">
+        <v>175</v>
+      </c>
+      <c r="D330" t="s">
+        <v>136</v>
+      </c>
+      <c r="E330" t="s">
+        <v>133</v>
+      </c>
+      <c r="G330" t="s">
+        <v>243</v>
+      </c>
+      <c r="H330" t="s">
+        <v>246</v>
+      </c>
+      <c r="I330" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>25</v>
+      </c>
+      <c r="B331">
+        <v>19.1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>163</v>
+      </c>
+      <c r="D331" t="s">
+        <v>231</v>
+      </c>
+      <c r="E331" t="s">
+        <v>133</v>
+      </c>
+      <c r="G331" t="s">
+        <v>243</v>
+      </c>
+      <c r="H331" t="s">
+        <v>246</v>
+      </c>
+      <c r="I331" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>110</v>
+      </c>
+      <c r="B332">
+        <v>0.03950103950103934</v>
+      </c>
+      <c r="C332" t="s">
+        <v>151</v>
+      </c>
+      <c r="D332" t="s">
+        <v>136</v>
+      </c>
+      <c r="E332" t="s">
+        <v>133</v>
+      </c>
+      <c r="G332" t="s">
+        <v>243</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>40</v>
+      </c>
+      <c r="B333">
+        <v>-0.00535</v>
+      </c>
+      <c r="C333" t="s">
+        <v>176</v>
+      </c>
+      <c r="D333" t="s">
+        <v>233</v>
+      </c>
+      <c r="E333" t="s">
+        <v>133</v>
+      </c>
+      <c r="G333" t="s">
+        <v>243</v>
+      </c>
+      <c r="H333" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>41</v>
+      </c>
+      <c r="B334">
+        <v>-1.07</v>
+      </c>
+      <c r="C334" t="s">
+        <v>177</v>
+      </c>
+      <c r="D334" t="s">
+        <v>132</v>
+      </c>
+      <c r="E334" t="s">
+        <v>133</v>
+      </c>
+      <c r="G334" t="s">
+        <v>243</v>
+      </c>
+      <c r="H334" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>27</v>
+      </c>
+      <c r="B335">
+        <v>-0.03</v>
+      </c>
+      <c r="C335" t="s">
+        <v>27</v>
+      </c>
+      <c r="D335" t="s">
+        <v>132</v>
+      </c>
+      <c r="E335" t="s">
+        <v>133</v>
+      </c>
+      <c r="G335" t="s">
+        <v>243</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>42</v>
+      </c>
+      <c r="B336">
+        <v>0.17</v>
+      </c>
+      <c r="E336" t="s">
+        <v>133</v>
+      </c>
+      <c r="F336" t="s">
+        <v>239</v>
+      </c>
+      <c r="G336" t="s">
+        <v>244</v>
+      </c>
+      <c r="H336" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>43</v>
+      </c>
+      <c r="B337">
+        <v>0.22</v>
+      </c>
+      <c r="E337" t="s">
+        <v>133</v>
+      </c>
+      <c r="F337" t="s">
+        <v>239</v>
+      </c>
+      <c r="G337" t="s">
+        <v>244</v>
+      </c>
+      <c r="H337" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>44</v>
+      </c>
+      <c r="B338">
+        <v>0.18</v>
+      </c>
+      <c r="E338" t="s">
+        <v>133</v>
+      </c>
+      <c r="F338" t="s">
+        <v>239</v>
+      </c>
+      <c r="G338" t="s">
+        <v>244</v>
+      </c>
+      <c r="H338" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>45</v>
+      </c>
+      <c r="B339">
+        <v>6.58</v>
+      </c>
+      <c r="E339" t="s">
+        <v>133</v>
+      </c>
+      <c r="F339" t="s">
+        <v>240</v>
+      </c>
+      <c r="G339" t="s">
+        <v>244</v>
+      </c>
+      <c r="H339" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>46</v>
+      </c>
+      <c r="B340">
+        <v>0.06</v>
+      </c>
+      <c r="E340" t="s">
+        <v>133</v>
+      </c>
+      <c r="F340" t="s">
+        <v>239</v>
+      </c>
+      <c r="G340" t="s">
+        <v>244</v>
+      </c>
+      <c r="H340" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>112</v>
+      </c>
+      <c r="B341">
+        <v>0.01</v>
+      </c>
+      <c r="E341" t="s">
+        <v>133</v>
+      </c>
+      <c r="F341" t="s">
+        <v>239</v>
+      </c>
+      <c r="G341" t="s">
+        <v>244</v>
+      </c>
+      <c r="H341" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>48</v>
+      </c>
+      <c r="B342">
+        <v>0.11</v>
+      </c>
+      <c r="E342" t="s">
+        <v>133</v>
+      </c>
+      <c r="F342" t="s">
+        <v>240</v>
+      </c>
+      <c r="G342" t="s">
+        <v>244</v>
+      </c>
+      <c r="H342" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>49</v>
+      </c>
+      <c r="B343">
+        <v>0.01</v>
+      </c>
+      <c r="E343" t="s">
+        <v>133</v>
+      </c>
+      <c r="F343" t="s">
+        <v>239</v>
+      </c>
+      <c r="G343" t="s">
+        <v>244</v>
+      </c>
+      <c r="H343" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>10</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>12</v>
+      </c>
+      <c r="B348" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" t="s">
+        <v>134</v>
+      </c>
+      <c r="C351" t="s">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351" t="s">
+        <v>13</v>
+      </c>
+      <c r="F351" t="s">
+        <v>238</v>
+      </c>
+      <c r="G351" t="s">
+        <v>241</v>
+      </c>
+      <c r="H351" t="s">
+        <v>245</v>
+      </c>
+      <c r="I351" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>113</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>113</v>
+      </c>
+      <c r="D352" t="s">
+        <v>136</v>
+      </c>
+      <c r="E352" t="s">
+        <v>133</v>
+      </c>
+      <c r="G352" t="s">
+        <v>242</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1</v>
+      </c>
+      <c r="I352" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>114</v>
+      </c>
+      <c r="B353">
+        <v>0.01033</v>
+      </c>
+      <c r="C353" t="s">
+        <v>220</v>
+      </c>
+      <c r="D353" t="s">
+        <v>132</v>
+      </c>
+      <c r="E353" t="s">
+        <v>133</v>
+      </c>
+      <c r="G353" t="s">
+        <v>243</v>
+      </c>
+      <c r="H353" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>93</v>
+      </c>
+      <c r="B354">
+        <v>0.98967</v>
+      </c>
+      <c r="C354" t="s">
+        <v>207</v>
+      </c>
+      <c r="D354" t="s">
+        <v>136</v>
+      </c>
+      <c r="E354" t="s">
+        <v>133</v>
+      </c>
+      <c r="G354" t="s">
+        <v>243</v>
+      </c>
+      <c r="H354" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>12</v>
+      </c>
+      <c r="B359" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>15</v>
+      </c>
+      <c r="B362" t="s">
+        <v>134</v>
+      </c>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s">
+        <v>12</v>
+      </c>
+      <c r="E362" t="s">
+        <v>13</v>
+      </c>
+      <c r="F362" t="s">
+        <v>238</v>
+      </c>
+      <c r="G362" t="s">
+        <v>241</v>
+      </c>
+      <c r="H362" t="s">
+        <v>245</v>
+      </c>
+      <c r="I362" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>115</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>115</v>
+      </c>
+      <c r="D363" t="s">
+        <v>136</v>
+      </c>
+      <c r="E363" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" t="s">
+        <v>242</v>
+      </c>
+      <c r="H363" t="s">
+        <v>1</v>
+      </c>
+      <c r="I363" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>116</v>
+      </c>
+      <c r="B364">
+        <v>9.281249999999999E-05</v>
+      </c>
+      <c r="C364" t="s">
+        <v>221</v>
+      </c>
+      <c r="D364" t="s">
+        <v>132</v>
+      </c>
+      <c r="E364" t="s">
+        <v>133</v>
+      </c>
+      <c r="G364" t="s">
+        <v>243</v>
+      </c>
+      <c r="H364" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>34</v>
+      </c>
+      <c r="B365">
+        <v>4.296874999999998E-05</v>
+      </c>
+      <c r="C365" t="s">
+        <v>170</v>
+      </c>
+      <c r="D365" t="s">
+        <v>231</v>
+      </c>
+      <c r="E365" t="s">
+        <v>235</v>
+      </c>
+      <c r="G365" t="s">
+        <v>243</v>
+      </c>
+      <c r="H365" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>114</v>
+      </c>
+      <c r="B366">
+        <v>5.671875E-06</v>
+      </c>
+      <c r="C366" t="s">
+        <v>220</v>
+      </c>
+      <c r="D366" t="s">
+        <v>132</v>
+      </c>
+      <c r="E366" t="s">
+        <v>133</v>
+      </c>
+      <c r="G366" t="s">
+        <v>243</v>
+      </c>
+      <c r="H366" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>113</v>
+      </c>
+      <c r="B367">
+        <v>5.646093749999999E-05</v>
+      </c>
+      <c r="C367" t="s">
+        <v>113</v>
+      </c>
+      <c r="D367" t="s">
+        <v>136</v>
+      </c>
+      <c r="E367" t="s">
+        <v>133</v>
+      </c>
+      <c r="G367" t="s">
+        <v>243</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368">
+        <v>5.4140625E-06</v>
+      </c>
+      <c r="C368" t="s">
+        <v>16</v>
+      </c>
+      <c r="D368" t="s">
+        <v>132</v>
+      </c>
+      <c r="E368" t="s">
+        <v>133</v>
+      </c>
+      <c r="G368" t="s">
+        <v>243</v>
+      </c>
+      <c r="H368" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>110</v>
+      </c>
+      <c r="B369">
+        <v>0.0006600000000000001</v>
+      </c>
+      <c r="C369" t="s">
+        <v>151</v>
+      </c>
+      <c r="D369" t="s">
+        <v>136</v>
+      </c>
+      <c r="E369" t="s">
+        <v>133</v>
+      </c>
+      <c r="G369" t="s">
+        <v>243</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>117</v>
+      </c>
+      <c r="B370">
+        <v>2.10375E-05</v>
+      </c>
+      <c r="C370" t="s">
+        <v>222</v>
+      </c>
+      <c r="D370" t="s">
+        <v>136</v>
+      </c>
+      <c r="E370" t="s">
+        <v>133</v>
+      </c>
+      <c r="G370" t="s">
+        <v>243</v>
+      </c>
+      <c r="H370" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>118</v>
+      </c>
+      <c r="B371">
+        <v>1.959375E-05</v>
+      </c>
+      <c r="C371" t="s">
+        <v>223</v>
+      </c>
+      <c r="D371" t="s">
+        <v>132</v>
+      </c>
+      <c r="E371" t="s">
+        <v>133</v>
+      </c>
+      <c r="G371" t="s">
+        <v>243</v>
+      </c>
+      <c r="H371" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>106</v>
+      </c>
+      <c r="B372">
+        <v>7.734374999999998E-06</v>
+      </c>
+      <c r="C372" t="s">
+        <v>217</v>
+      </c>
+      <c r="D372" t="s">
+        <v>136</v>
+      </c>
+      <c r="E372" t="s">
+        <v>133</v>
+      </c>
+      <c r="G372" t="s">
+        <v>243</v>
+      </c>
+      <c r="H372" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>11</v>
+      </c>
+      <c r="B376" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>12</v>
+      </c>
+      <c r="B377" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>13</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>15</v>
+      </c>
+      <c r="B380" t="s">
+        <v>134</v>
+      </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s">
+        <v>12</v>
+      </c>
+      <c r="E380" t="s">
+        <v>13</v>
+      </c>
+      <c r="F380" t="s">
+        <v>238</v>
+      </c>
+      <c r="G380" t="s">
+        <v>241</v>
+      </c>
+      <c r="H380" t="s">
+        <v>245</v>
+      </c>
+      <c r="I380" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>119</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381" t="s">
+        <v>152</v>
+      </c>
+      <c r="D381" t="s">
+        <v>136</v>
+      </c>
+      <c r="E381" t="s">
+        <v>13</v>
+      </c>
+      <c r="G381" t="s">
+        <v>242</v>
+      </c>
+      <c r="H381" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>79</v>
+      </c>
+      <c r="B382">
+        <v>0.005292</v>
+      </c>
+      <c r="C382" t="s">
+        <v>198</v>
+      </c>
+      <c r="D382" t="s">
+        <v>136</v>
+      </c>
+      <c r="E382" t="s">
+        <v>133</v>
+      </c>
+      <c r="G382" t="s">
+        <v>243</v>
+      </c>
+      <c r="H382" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>34</v>
+      </c>
+      <c r="B383">
+        <v>6.999999999999999E-05</v>
+      </c>
+      <c r="C383" t="s">
+        <v>170</v>
+      </c>
+      <c r="D383" t="s">
+        <v>231</v>
+      </c>
+      <c r="E383" t="s">
+        <v>235</v>
+      </c>
+      <c r="G383" t="s">
+        <v>243</v>
+      </c>
+      <c r="H383" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>120</v>
+      </c>
+      <c r="B384">
+        <v>0.0005</v>
+      </c>
+      <c r="C384" t="s">
+        <v>224</v>
+      </c>
+      <c r="D384" t="s">
+        <v>132</v>
+      </c>
+      <c r="E384" t="s">
+        <v>133</v>
+      </c>
+      <c r="G384" t="s">
+        <v>243</v>
+      </c>
+      <c r="H384" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>121</v>
+      </c>
+      <c r="B385">
+        <v>0.00247</v>
+      </c>
+      <c r="C385" t="s">
+        <v>225</v>
+      </c>
+      <c r="D385" t="s">
+        <v>132</v>
+      </c>
+      <c r="E385" t="s">
+        <v>133</v>
+      </c>
+      <c r="G385" t="s">
+        <v>243</v>
+      </c>
+      <c r="H385" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>100</v>
+      </c>
+      <c r="B386">
+        <v>0.002627659574468085</v>
+      </c>
+      <c r="C386" t="s">
+        <v>213</v>
+      </c>
+      <c r="D386" t="s">
+        <v>132</v>
+      </c>
+      <c r="E386" t="s">
+        <v>133</v>
+      </c>
+      <c r="G386" t="s">
+        <v>243</v>
+      </c>
+      <c r="H386" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>115</v>
+      </c>
+      <c r="B387">
+        <v>10</v>
+      </c>
+      <c r="C387" t="s">
+        <v>115</v>
+      </c>
+      <c r="D387" t="s">
+        <v>136</v>
+      </c>
+      <c r="E387" t="s">
+        <v>13</v>
+      </c>
+      <c r="G387" t="s">
+        <v>243</v>
+      </c>
+      <c r="H387" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>98</v>
+      </c>
+      <c r="B388">
+        <v>0.0559</v>
+      </c>
+      <c r="C388" t="s">
+        <v>212</v>
+      </c>
+      <c r="D388" t="s">
+        <v>136</v>
+      </c>
+      <c r="E388" t="s">
+        <v>237</v>
+      </c>
+      <c r="G388" t="s">
+        <v>243</v>
+      </c>
+      <c r="H388" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>77</v>
+      </c>
+      <c r="B389">
+        <v>0.1222749382</v>
+      </c>
+      <c r="C389" t="s">
+        <v>197</v>
+      </c>
+      <c r="D389" t="s">
+        <v>132</v>
+      </c>
+      <c r="E389" t="s">
+        <v>237</v>
+      </c>
+      <c r="G389" t="s">
+        <v>243</v>
+      </c>
+      <c r="H389" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>15</v>
+      </c>
+      <c r="B397" t="s">
+        <v>134</v>
+      </c>
+      <c r="C397" t="s">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>13</v>
+      </c>
+      <c r="F397" t="s">
+        <v>238</v>
+      </c>
+      <c r="G397" t="s">
+        <v>241</v>
+      </c>
+      <c r="H397" t="s">
+        <v>245</v>
+      </c>
+      <c r="I397" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>122</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398" t="s">
+        <v>153</v>
+      </c>
+      <c r="D398" t="s">
+        <v>154</v>
+      </c>
+      <c r="E398" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" t="s">
+        <v>242</v>
+      </c>
+      <c r="H398" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>79</v>
+      </c>
+      <c r="B399">
+        <v>0.06614895833000001</v>
+      </c>
+      <c r="C399" t="s">
+        <v>198</v>
+      </c>
+      <c r="D399" t="s">
+        <v>136</v>
+      </c>
+      <c r="E399" t="s">
+        <v>133</v>
+      </c>
+      <c r="G399" t="s">
+        <v>243</v>
+      </c>
+      <c r="H399" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>80</v>
+      </c>
+      <c r="B400">
+        <v>0.00827</v>
+      </c>
+      <c r="C400" t="s">
+        <v>199</v>
+      </c>
+      <c r="D400" t="s">
+        <v>136</v>
+      </c>
+      <c r="E400" t="s">
+        <v>133</v>
+      </c>
+      <c r="G400" t="s">
+        <v>243</v>
+      </c>
+      <c r="H400" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>119</v>
+      </c>
+      <c r="B401">
+        <v>3</v>
+      </c>
+      <c r="C401" t="s">
+        <v>152</v>
+      </c>
+      <c r="D401" t="s">
+        <v>136</v>
+      </c>
+      <c r="E401" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401" t="s">
+        <v>243</v>
+      </c>
+      <c r="H401" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>123</v>
+      </c>
+      <c r="B402">
+        <v>0.00454</v>
+      </c>
+      <c r="C402" t="s">
+        <v>226</v>
+      </c>
+      <c r="D402" t="s">
+        <v>132</v>
+      </c>
+      <c r="E402" t="s">
+        <v>133</v>
+      </c>
+      <c r="G402" t="s">
+        <v>243</v>
+      </c>
+      <c r="H402" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>124</v>
+      </c>
+      <c r="B403">
+        <v>0.02626</v>
+      </c>
+      <c r="C403" t="s">
+        <v>124</v>
+      </c>
+      <c r="D403" t="s">
+        <v>136</v>
+      </c>
+      <c r="E403" t="s">
+        <v>237</v>
+      </c>
+      <c r="G403" t="s">
+        <v>243</v>
+      </c>
+      <c r="H403" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>107</v>
+      </c>
+      <c r="B404">
+        <v>-0.01587575</v>
+      </c>
+      <c r="C404" t="s">
+        <v>218</v>
+      </c>
+      <c r="D404" t="s">
+        <v>132</v>
+      </c>
+      <c r="E404" t="s">
+        <v>133</v>
+      </c>
+      <c r="G404" t="s">
+        <v>243</v>
+      </c>
+      <c r="H404" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>10</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>11</v>
+      </c>
+      <c r="B408" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>12</v>
+      </c>
+      <c r="B409" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>13</v>
+      </c>
+      <c r="B410" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>15</v>
+      </c>
+      <c r="B412" t="s">
+        <v>134</v>
+      </c>
+      <c r="C412" t="s">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s">
+        <v>12</v>
+      </c>
+      <c r="E412" t="s">
+        <v>13</v>
+      </c>
+      <c r="F412" t="s">
+        <v>238</v>
+      </c>
+      <c r="G412" t="s">
+        <v>241</v>
+      </c>
+      <c r="H412" t="s">
+        <v>245</v>
+      </c>
+      <c r="I412" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>125</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413" t="s">
+        <v>125</v>
+      </c>
+      <c r="D413" t="s">
+        <v>147</v>
+      </c>
+      <c r="E413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413" t="s">
+        <v>242</v>
+      </c>
+      <c r="H413" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>122</v>
+      </c>
+      <c r="B414">
+        <v>0.1</v>
+      </c>
+      <c r="C414" t="s">
+        <v>153</v>
+      </c>
+      <c r="D414" t="s">
+        <v>154</v>
+      </c>
+      <c r="E414" t="s">
+        <v>13</v>
+      </c>
+      <c r="G414" t="s">
+        <v>243</v>
+      </c>
+      <c r="H414" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>126</v>
+      </c>
+      <c r="B415">
+        <v>-0.000891</v>
+      </c>
+      <c r="C415" t="s">
+        <v>215</v>
+      </c>
+      <c r="D415" t="s">
+        <v>233</v>
+      </c>
+      <c r="E415" t="s">
+        <v>133</v>
+      </c>
+      <c r="G415" t="s">
+        <v>243</v>
+      </c>
+      <c r="H415" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>107</v>
+      </c>
+      <c r="B416">
         <v>-0.007896</v>
       </c>
-      <c r="C314" t="s">
-        <v>183</v>
-      </c>
-      <c r="D314" t="s">
-        <v>112</v>
-      </c>
-      <c r="E314" t="s">
-        <v>113</v>
-      </c>
-      <c r="G314" t="s">
-        <v>206</v>
-      </c>
-      <c r="H314" t="s">
+      <c r="C416" t="s">
+        <v>218</v>
+      </c>
+      <c r="D416" t="s">
+        <v>132</v>
+      </c>
+      <c r="E416" t="s">
+        <v>133</v>
+      </c>
+      <c r="G416" t="s">
+        <v>243</v>
+      </c>
+      <c r="H416" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>11</v>
+      </c>
+      <c r="B420" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>12</v>
+      </c>
+      <c r="B421" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>13</v>
+      </c>
+      <c r="B422" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>15</v>
+      </c>
+      <c r="B424" t="s">
+        <v>134</v>
+      </c>
+      <c r="C424" t="s">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s">
+        <v>12</v>
+      </c>
+      <c r="E424" t="s">
+        <v>13</v>
+      </c>
+      <c r="F424" t="s">
+        <v>238</v>
+      </c>
+      <c r="G424" t="s">
+        <v>241</v>
+      </c>
+      <c r="H424" t="s">
+        <v>245</v>
+      </c>
+      <c r="I424" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>127</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425" t="s">
+        <v>155</v>
+      </c>
+      <c r="D425" t="s">
+        <v>149</v>
+      </c>
+      <c r="E425" t="s">
+        <v>13</v>
+      </c>
+      <c r="G425" t="s">
+        <v>242</v>
+      </c>
+      <c r="H425" t="s">
+        <v>1</v>
+      </c>
+      <c r="I425" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>128</v>
+      </c>
+      <c r="B426">
+        <v>0.01129</v>
+      </c>
+      <c r="C426" t="s">
+        <v>227</v>
+      </c>
+      <c r="D426" t="s">
+        <v>232</v>
+      </c>
+      <c r="E426" t="s">
+        <v>133</v>
+      </c>
+      <c r="G426" t="s">
+        <v>243</v>
+      </c>
+      <c r="H426" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>129</v>
+      </c>
+      <c r="B427">
+        <v>0.01904762</v>
+      </c>
+      <c r="C427" t="s">
+        <v>228</v>
+      </c>
+      <c r="D427" t="s">
+        <v>149</v>
+      </c>
+      <c r="E427" t="s">
+        <v>235</v>
+      </c>
+      <c r="G427" t="s">
+        <v>243</v>
+      </c>
+      <c r="H427" t="s">
+        <v>246</v>
+      </c>
+      <c r="I427" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>129</v>
+      </c>
+      <c r="B428">
+        <v>0.7665999999999999</v>
+      </c>
+      <c r="C428" t="s">
+        <v>228</v>
+      </c>
+      <c r="D428" t="s">
+        <v>149</v>
+      </c>
+      <c r="E428" t="s">
+        <v>235</v>
+      </c>
+      <c r="G428" t="s">
+        <v>243</v>
+      </c>
+      <c r="H428" t="s">
+        <v>246</v>
+      </c>
+      <c r="I428" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>130</v>
+      </c>
+      <c r="B429">
+        <v>0.00562</v>
+      </c>
+      <c r="C429" t="s">
+        <v>229</v>
+      </c>
+      <c r="D429" t="s">
+        <v>232</v>
+      </c>
+      <c r="E429" t="s">
+        <v>133</v>
+      </c>
+      <c r="G429" t="s">
+        <v>243</v>
+      </c>
+      <c r="H429" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>95</v>
+      </c>
+      <c r="B430">
+        <v>0.00605</v>
+      </c>
+      <c r="C430" t="s">
         <v>209</v>
+      </c>
+      <c r="D430" t="s">
+        <v>132</v>
+      </c>
+      <c r="E430" t="s">
+        <v>133</v>
+      </c>
+      <c r="G430" t="s">
+        <v>243</v>
+      </c>
+      <c r="H430" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="s">
+        <v>131</v>
+      </c>
+      <c r="B431">
+        <v>0.01167</v>
+      </c>
+      <c r="C431" t="s">
+        <v>230</v>
+      </c>
+      <c r="D431" t="s">
+        <v>232</v>
+      </c>
+      <c r="E431" t="s">
+        <v>133</v>
+      </c>
+      <c r="G431" t="s">
+        <v>243</v>
+      </c>
+      <c r="H431" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/temp.xlsx
+++ b/data/temp.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="251">
   <si>
     <t>Database</t>
   </si>
   <si>
-    <t>penicillin_cut_off_US</t>
+    <t>penicillin_cut_off_DK</t>
   </si>
   <si>
     <t>Unnamed: 2</t>
@@ -118,7 +118,7 @@
     <t>market for butyl acetate</t>
   </si>
   <si>
-    <t>market group for electricity, low voltage</t>
+    <t>market for electricity, low voltage</t>
   </si>
   <si>
     <t>glucose production</t>
@@ -235,15 +235,15 @@
     <t>market for transport, freight, lorry 16-32 metric ton, EURO6</t>
   </si>
   <si>
+    <t>market for waste polypropylene</t>
+  </si>
+  <si>
+    <t>packaging of polymer vials with penicillin G</t>
+  </si>
+  <si>
     <t>market for transport, freight, sea, bulk carrier for dry goods</t>
   </si>
   <si>
-    <t>market for waste polypropylene</t>
-  </si>
-  <si>
-    <t>packaging of polymer vials with penicillin G</t>
-  </si>
-  <si>
     <t>stopcock</t>
   </si>
   <si>
@@ -367,7 +367,7 @@
     <t>packaging of a medicine strip</t>
   </si>
   <si>
-    <t>market for transport, freight, sea, container ship with reefer, cooling</t>
+    <t>production of a medicin cup</t>
   </si>
   <si>
     <t>Penicillin V, defined system</t>
@@ -376,274 +376,274 @@
     <t>treatment of hazardous waste, hazardous waste incineration</t>
   </si>
   <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>pharmamedia</t>
+  </si>
+  <si>
+    <t>raw penicillium G</t>
+  </si>
+  <si>
+    <t>glass vial</t>
+  </si>
+  <si>
+    <t>polymer vial</t>
+  </si>
+  <si>
+    <t>glass vial with penicillin</t>
+  </si>
+  <si>
+    <t>vial for penicillin</t>
+  </si>
+  <si>
+    <t>full box with glass vials</t>
+  </si>
+  <si>
+    <t>full box with polymer vials</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>alchohol wipes</t>
+  </si>
+  <si>
+    <t>pair of gloves</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>IV sets</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>raw penicillium V</t>
+  </si>
+  <si>
+    <t>medicine strip</t>
+  </si>
+  <si>
+    <t>packaged medicine strip</t>
+  </si>
+  <si>
+    <t>medicin cup</t>
+  </si>
+  <si>
+    <t>magnesium oxide</t>
+  </si>
+  <si>
+    <t>stearic acid</t>
+  </si>
+  <si>
+    <t>wastewater, average</t>
+  </si>
+  <si>
+    <t>calcium carbonate, precipitated</t>
+  </si>
+  <si>
+    <t>cottonseed meal</t>
+  </si>
+  <si>
+    <t>rape oil, crude</t>
+  </si>
+  <si>
+    <t>soybean oil, refined</t>
+  </si>
+  <si>
+    <t>water, deionised</t>
+  </si>
+  <si>
+    <t>whey</t>
+  </si>
+  <si>
+    <t>acetic acid, without water, in 98% solution state</t>
+  </si>
+  <si>
+    <t>sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>acetone, liquid</t>
+  </si>
+  <si>
+    <t>ammonium sulfate</t>
+  </si>
+  <si>
+    <t>butyl acetate</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>heat, from steam, in chemical industry</t>
+  </si>
+  <si>
+    <t>oxygen, liquid</t>
+  </si>
+  <si>
+    <t>phenyl acetic acid</t>
+  </si>
+  <si>
+    <t>sulfuric acid</t>
+  </si>
+  <si>
+    <t>average incineration residue</t>
+  </si>
+  <si>
+    <t>biowaste</t>
+  </si>
+  <si>
+    <t>packaging glass, white</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>polyethylene, high density, granulate</t>
+  </si>
+  <si>
+    <t>aluminium, cast alloy</t>
+  </si>
+  <si>
+    <t>synthetic rubber</t>
+  </si>
+  <si>
+    <t>polyethylene, low density, granulate</t>
+  </si>
+  <si>
+    <t>polystyrene, general purpose</t>
+  </si>
+  <si>
+    <t>polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>paraffin</t>
+  </si>
+  <si>
+    <t>acrylonitrile-butadiene-styrene copolymer</t>
+  </si>
+  <si>
+    <t>isopropanol</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>sodium hypochlorite, without water, in 15% solution state</t>
+  </si>
+  <si>
+    <t>corrugated board box</t>
+  </si>
+  <si>
+    <t>folding boxboard carton</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
+  </si>
+  <si>
+    <t>waste polypropylene</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, bulk carrier for dry goods</t>
+  </si>
+  <si>
+    <t>polycarbonate</t>
+  </si>
+  <si>
+    <t>chemi-thermomechanical pulp</t>
+  </si>
+  <si>
+    <t>ethanol, without water, in 99.7% solution state, from ethylene</t>
+  </si>
+  <si>
+    <t>paper, woodfree, uncoated</t>
+  </si>
+  <si>
+    <t>textile, nonwoven polypropylene</t>
+  </si>
+  <si>
+    <t>ethylene oxide</t>
+  </si>
+  <si>
+    <t>kraft paper</t>
+  </si>
+  <si>
+    <t>packaging film, low density polyethylene</t>
+  </si>
+  <si>
+    <t>process-specific burdens, hazardous waste incineration plant</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>extrusion, plastic pipes</t>
+  </si>
+  <si>
+    <t>polyvinylchloride, bulk polymerised</t>
+  </si>
+  <si>
+    <t>thermoforming of plastic sheets</t>
+  </si>
+  <si>
+    <t>aluminium alloy, AlLi</t>
+  </si>
+  <si>
+    <t>hazardous waste, for incineration</t>
+  </si>
+  <si>
+    <t>sodium chlorate, powder</t>
+  </si>
+  <si>
+    <t>water, ultrapure</t>
+  </si>
+  <si>
+    <t>waste packaging paper</t>
+  </si>
+  <si>
+    <t>phenoxy-compound</t>
+  </si>
+  <si>
+    <t>ethylene glycol</t>
+  </si>
+  <si>
+    <t>carboxymethyl cellulose, powder</t>
+  </si>
+  <si>
+    <t>titanium dioxide</t>
+  </si>
+  <si>
+    <t>vinyl acetate</t>
+  </si>
+  <si>
+    <t>ethylvinylacetate, foil</t>
+  </si>
+  <si>
+    <t>extrusion of plastic sheets and thermoforming, inline</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
     <t>RoW</t>
-  </si>
-  <si>
-    <t>kilogram</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>pharmamedia</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>raw penicillium G</t>
-  </si>
-  <si>
-    <t>glass vial</t>
-  </si>
-  <si>
-    <t>polymer vial</t>
-  </si>
-  <si>
-    <t>glass vial with penicillin</t>
-  </si>
-  <si>
-    <t>vial for penicillin</t>
-  </si>
-  <si>
-    <t>full box with glass vials</t>
-  </si>
-  <si>
-    <t>full box with polymer vials</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>alchohol wipes</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>pair of gloves</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>IV sets</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>raw penicillium V</t>
-  </si>
-  <si>
-    <t>medicine strip</t>
-  </si>
-  <si>
-    <t>packaged medicine strip</t>
-  </si>
-  <si>
-    <t>magnesium oxide</t>
-  </si>
-  <si>
-    <t>stearic acid</t>
-  </si>
-  <si>
-    <t>wastewater, average</t>
-  </si>
-  <si>
-    <t>calcium carbonate, precipitated</t>
-  </si>
-  <si>
-    <t>cottonseed meal</t>
-  </si>
-  <si>
-    <t>rape oil, crude</t>
-  </si>
-  <si>
-    <t>soybean oil, refined</t>
-  </si>
-  <si>
-    <t>water, deionised</t>
-  </si>
-  <si>
-    <t>whey</t>
-  </si>
-  <si>
-    <t>acetic acid, without water, in 98% solution state</t>
-  </si>
-  <si>
-    <t>sodium hydroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>acetone, liquid</t>
-  </si>
-  <si>
-    <t>ammonium sulfate</t>
-  </si>
-  <si>
-    <t>butyl acetate</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>heat, from steam, in chemical industry</t>
-  </si>
-  <si>
-    <t>oxygen, liquid</t>
-  </si>
-  <si>
-    <t>phenyl acetic acid</t>
-  </si>
-  <si>
-    <t>sulfuric acid</t>
-  </si>
-  <si>
-    <t>average incineration residue</t>
-  </si>
-  <si>
-    <t>biowaste</t>
-  </si>
-  <si>
-    <t>packaging glass, white</t>
-  </si>
-  <si>
-    <t>heat, district or industrial, natural gas</t>
-  </si>
-  <si>
-    <t>polyethylene, high density, granulate</t>
-  </si>
-  <si>
-    <t>aluminium, cast alloy</t>
-  </si>
-  <si>
-    <t>synthetic rubber</t>
-  </si>
-  <si>
-    <t>polyethylene, low density, granulate</t>
-  </si>
-  <si>
-    <t>polystyrene, general purpose</t>
-  </si>
-  <si>
-    <t>polypropylene, granulate</t>
-  </si>
-  <si>
-    <t>paraffin</t>
-  </si>
-  <si>
-    <t>acrylonitrile-butadiene-styrene copolymer</t>
-  </si>
-  <si>
-    <t>isopropanol</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>sodium hypochlorite, without water, in 15% solution state</t>
-  </si>
-  <si>
-    <t>corrugated board box</t>
-  </si>
-  <si>
-    <t>folding boxboard carton</t>
-  </si>
-  <si>
-    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
-  </si>
-  <si>
-    <t>transport, freight, sea, bulk carrier for dry goods</t>
-  </si>
-  <si>
-    <t>waste polypropylene</t>
-  </si>
-  <si>
-    <t>polycarbonate</t>
-  </si>
-  <si>
-    <t>chemi-thermomechanical pulp</t>
-  </si>
-  <si>
-    <t>ethanol, without water, in 99.7% solution state, from ethylene</t>
-  </si>
-  <si>
-    <t>paper, woodfree, uncoated</t>
-  </si>
-  <si>
-    <t>textile, nonwoven polypropylene</t>
-  </si>
-  <si>
-    <t>ethylene oxide</t>
-  </si>
-  <si>
-    <t>kraft paper</t>
-  </si>
-  <si>
-    <t>packaging film, low density polyethylene</t>
-  </si>
-  <si>
-    <t>process-specific burdens, hazardous waste incineration plant</t>
-  </si>
-  <si>
-    <t>transport, freight, sea, container ship</t>
-  </si>
-  <si>
-    <t>transport, freight, lorry, unspecified</t>
-  </si>
-  <si>
-    <t>extrusion, plastic pipes</t>
-  </si>
-  <si>
-    <t>polyvinylchloride, bulk polymerised</t>
-  </si>
-  <si>
-    <t>thermoforming of plastic sheets</t>
-  </si>
-  <si>
-    <t>aluminium alloy, AlLi</t>
-  </si>
-  <si>
-    <t>hazardous waste, for incineration</t>
-  </si>
-  <si>
-    <t>sodium chlorate, powder</t>
-  </si>
-  <si>
-    <t>water, ultrapure</t>
-  </si>
-  <si>
-    <t>waste packaging paper</t>
-  </si>
-  <si>
-    <t>phenoxy-compound</t>
-  </si>
-  <si>
-    <t>ethylene glycol</t>
-  </si>
-  <si>
-    <t>carboxymethyl cellulose, powder</t>
-  </si>
-  <si>
-    <t>titanium dioxide</t>
-  </si>
-  <si>
-    <t>vinyl acetate</t>
-  </si>
-  <si>
-    <t>ethylvinylacetate, foil</t>
-  </si>
-  <si>
-    <t>extrusion of plastic sheets and thermoforming, inline</t>
-  </si>
-  <si>
-    <t>transport, freight, sea, container ship with reefer, cooling</t>
-  </si>
-  <si>
-    <t>CH</t>
   </si>
   <si>
     <t>cubic meter</t>
@@ -1124,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I393"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,10 +1264,10 @@
         <v>0.06804</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
         <v>121</v>
@@ -1287,10 +1287,10 @@
         <v>0.95897</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
         <v>121</v>
@@ -1310,10 +1310,10 @@
         <v>-0.02700999999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
         <v>210</v>
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1410,7 +1410,7 @@
         <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
         <v>121</v>
@@ -1430,10 +1430,10 @@
         <v>0.00890313</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
         <v>121</v>
@@ -1453,10 +1453,10 @@
         <v>0.03561</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
         <v>121</v>
@@ -1476,10 +1476,10 @@
         <v>0.035613</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
         <v>121</v>
@@ -1499,10 +1499,10 @@
         <v>0.002849</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
         <v>121</v>
@@ -1522,10 +1522,10 @@
         <v>0.890313</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E27" t="s">
         <v>121</v>
@@ -1545,10 +1545,10 @@
         <v>0.026709</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>121</v>
@@ -1665,10 +1665,10 @@
         <v>0.7317</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
         <v>121</v>
@@ -1688,10 +1688,10 @@
         <v>0.487805</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
         <v>121</v>
@@ -1711,10 +1711,10 @@
         <v>-0.2195050000000001</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s">
         <v>210</v>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1808,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
         <v>121</v>
@@ -1831,10 +1831,10 @@
         <v>0.22</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
         <v>121</v>
@@ -1857,10 +1857,10 @@
         <v>0.32</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
         <v>121</v>
@@ -1883,10 +1883,10 @@
         <v>0.18</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
         <v>121</v>
@@ -1909,10 +1909,10 @@
         <v>21.97777777777778</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
         <v>211</v>
@@ -1935,10 +1935,10 @@
         <v>5.18</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
         <v>121</v>
@@ -1961,10 +1961,10 @@
         <v>8.91</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
         <v>212</v>
@@ -1984,10 +1984,10 @@
         <v>4.02</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
         <v>121</v>
@@ -2013,7 +2013,7 @@
         <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>121</v>
@@ -2036,10 +2036,10 @@
         <v>0.03573</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
         <v>121</v>
@@ -2088,10 +2088,10 @@
         <v>0.11</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
         <v>121</v>
@@ -2114,10 +2114,10 @@
         <v>0.01</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
         <v>121</v>
@@ -2140,10 +2140,10 @@
         <v>19.1</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
         <v>121</v>
@@ -2166,10 +2166,10 @@
         <v>0.03950103950103934</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E63" t="s">
         <v>121</v>
@@ -2192,10 +2192,10 @@
         <v>-0.00535</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
         <v>121</v>
@@ -2215,10 +2215,10 @@
         <v>-1.07</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
         <v>121</v>
@@ -2434,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2442,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2495,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -2521,10 +2521,10 @@
         <v>0.009333333333333334</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" t="s">
         <v>121</v>
@@ -2547,10 +2547,10 @@
         <v>0.002645833333333333</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
         <v>121</v>
@@ -2573,10 +2573,10 @@
         <v>0.1083333333333333</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E86" t="s">
         <v>212</v>
@@ -2599,10 +2599,10 @@
         <v>0.0005030181086519115</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" t="s">
         <v>121</v>
@@ -2625,10 +2625,10 @@
         <v>0.0004583333333333333</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" t="s">
         <v>121</v>
@@ -2651,10 +2651,10 @@
         <v>0.001047954393024816</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
         <v>121</v>
@@ -2677,10 +2677,10 @@
         <v>0.0002724681421864521</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
         <v>121</v>
@@ -2706,7 +2706,7 @@
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
         <v>121</v>
@@ -2732,7 +2732,7 @@
         <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E92" t="s">
         <v>121</v>
@@ -2765,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -2826,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -2852,10 +2852,10 @@
         <v>0.002561789837166234</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
         <v>121</v>
@@ -2878,10 +2878,10 @@
         <v>0.04244031830238727</v>
       </c>
       <c r="C103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E103" t="s">
         <v>211</v>
@@ -2904,10 +2904,10 @@
         <v>0.001040727121348782</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" t="s">
         <v>121</v>
@@ -2930,10 +2930,10 @@
         <v>0.0003978779840848806</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" t="s">
         <v>121</v>
@@ -2956,10 +2956,10 @@
         <v>0.0002134824864305195</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E106" t="s">
         <v>121</v>
@@ -2982,10 +2982,10 @@
         <v>0.0001867971756267045</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" t="s">
         <v>121</v>
@@ -3008,10 +3008,10 @@
         <v>0.000663129973474801</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
         <v>121</v>
@@ -3034,10 +3034,10 @@
         <v>0.002374992661539529</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E109" t="s">
         <v>121</v>
@@ -3060,10 +3060,10 @@
         <v>0.002882013566812013</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
         <v>121</v>
@@ -3089,7 +3089,7 @@
         <v>57</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E111" t="s">
         <v>121</v>
@@ -3125,7 +3125,7 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3133,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3186,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
@@ -3209,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -3232,10 +3232,10 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E122" t="s">
         <v>121</v>
@@ -3255,10 +3255,10 @@
         <v>0.03125</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E123" t="s">
         <v>211</v>
@@ -3281,10 +3281,10 @@
         <v>0.4263392857142857</v>
       </c>
       <c r="C124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D124" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E124" t="s">
         <v>212</v>
@@ -3307,10 +3307,10 @@
         <v>0.2008928571428572</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E125" t="s">
         <v>121</v>
@@ -3346,7 +3346,7 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -3354,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -3407,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D134" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
@@ -3430,10 +3430,10 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D135" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E135" t="s">
         <v>13</v>
@@ -3453,10 +3453,10 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="C136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E136" t="s">
         <v>121</v>
@@ -3476,10 +3476,10 @@
         <v>0.00676392572944297</v>
       </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E137" t="s">
         <v>211</v>
@@ -3499,10 +3499,10 @@
         <v>7.957559681697613E-05</v>
       </c>
       <c r="C138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E138" t="s">
         <v>121</v>
@@ -3522,10 +3522,10 @@
         <v>4.641909814323608E-06</v>
       </c>
       <c r="C139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E139" t="s">
         <v>121</v>
@@ -3545,10 +3545,10 @@
         <v>7.957559681697613E-05</v>
       </c>
       <c r="C140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D140" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E140" t="s">
         <v>121</v>
@@ -3581,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -3589,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -3642,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D149" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -3665,10 +3665,10 @@
         <v>0.1587575</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D150" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E150" t="s">
         <v>121</v>
@@ -3688,10 +3688,10 @@
         <v>0.04328224</v>
       </c>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D151" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E151" t="s">
         <v>121</v>
@@ -3708,13 +3708,13 @@
         <v>72</v>
       </c>
       <c r="B152">
-        <v>0.1055063223473667</v>
+        <v>0.048612211</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D152" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E152" t="s">
         <v>213</v>
@@ -3728,42 +3728,42 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B153">
-        <v>1.96241759566102</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D153" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E153" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
         <v>219</v>
       </c>
       <c r="H153" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B154">
-        <v>0.04220252893894667</v>
+        <v>-0.0775</v>
       </c>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D154" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E154" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="G154" t="s">
         <v>219</v>
@@ -3774,185 +3774,185 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>-0.1015625</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G155" t="s">
         <v>219</v>
       </c>
       <c r="H155" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" t="s">
-        <v>41</v>
-      </c>
-      <c r="B156">
-        <v>-0.0775</v>
-      </c>
-      <c r="C156" t="s">
-        <v>163</v>
-      </c>
-      <c r="D156" t="s">
-        <v>132</v>
-      </c>
-      <c r="E156" t="s">
-        <v>121</v>
-      </c>
-      <c r="G156" t="s">
-        <v>219</v>
-      </c>
-      <c r="H156" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
         <v>74</v>
       </c>
-      <c r="B157">
-        <v>-0.1015625</v>
-      </c>
-      <c r="C157" t="s">
-        <v>181</v>
-      </c>
-      <c r="D157" t="s">
-        <v>120</v>
-      </c>
-      <c r="E157" t="s">
-        <v>121</v>
-      </c>
-      <c r="G157" t="s">
-        <v>219</v>
-      </c>
-      <c r="H157" t="s">
-        <v>222</v>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>10</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>12</v>
-      </c>
-      <c r="B162" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>214</v>
+      </c>
+      <c r="G163" t="s">
+        <v>217</v>
+      </c>
+      <c r="H163" t="s">
+        <v>221</v>
+      </c>
+      <c r="I163" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>130</v>
+      </c>
+      <c r="D164" t="s">
+        <v>120</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>218</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" t="s">
-        <v>122</v>
+        <v>70</v>
+      </c>
+      <c r="B165">
+        <v>0.1587575</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G165" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H165" t="s">
-        <v>221</v>
-      </c>
-      <c r="I165" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0.04328224</v>
       </c>
       <c r="C166" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="D166" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G166" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H166" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B167">
-        <v>0.1587575</v>
+        <v>0.2965355965</v>
       </c>
       <c r="C167" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D167" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E167" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="G167" t="s">
         <v>219</v>
@@ -3963,19 +3963,19 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B168">
-        <v>0.04328224</v>
+        <v>0.048612211</v>
       </c>
       <c r="C168" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D168" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E168" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="G168" t="s">
         <v>219</v>
@@ -3986,42 +3986,42 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B169">
-        <v>0.2965355965</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="D169" t="s">
         <v>120</v>
       </c>
       <c r="E169" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
         <v>219</v>
       </c>
       <c r="H169" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B170">
-        <v>0.3832937089</v>
+        <v>-0.0775</v>
       </c>
       <c r="C170" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D170" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E170" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="G170" t="s">
         <v>219</v>
@@ -4032,76 +4032,46 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B171">
-        <v>10</v>
+        <v>-0.1015625</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="D171" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G171" t="s">
         <v>219</v>
       </c>
       <c r="H171" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" t="s">
-        <v>41</v>
-      </c>
-      <c r="B172">
-        <v>-0.0775</v>
-      </c>
-      <c r="C172" t="s">
-        <v>163</v>
-      </c>
-      <c r="D172" t="s">
-        <v>132</v>
-      </c>
-      <c r="E172" t="s">
-        <v>121</v>
-      </c>
-      <c r="G172" t="s">
-        <v>219</v>
-      </c>
-      <c r="H172" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>74</v>
-      </c>
-      <c r="B173">
-        <v>-0.1015625</v>
-      </c>
-      <c r="C173" t="s">
-        <v>181</v>
-      </c>
-      <c r="D173" t="s">
-        <v>120</v>
-      </c>
-      <c r="E173" t="s">
-        <v>121</v>
-      </c>
-      <c r="G173" t="s">
-        <v>219</v>
-      </c>
-      <c r="H173" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
         <v>76</v>
@@ -4109,105 +4079,135 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>12</v>
-      </c>
-      <c r="B178" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>214</v>
+      </c>
+      <c r="G179" t="s">
+        <v>217</v>
+      </c>
+      <c r="H179" t="s">
+        <v>221</v>
+      </c>
+      <c r="I179" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>76</v>
+      </c>
+      <c r="D180" t="s">
+        <v>131</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>218</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" t="s">
-        <v>122</v>
+        <v>77</v>
+      </c>
+      <c r="B181">
+        <v>0.00547</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G181" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H181" t="s">
-        <v>221</v>
-      </c>
-      <c r="I181" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0.00358</v>
       </c>
       <c r="C182" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="D182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G182" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H182" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B183">
-        <v>0.00547</v>
+        <v>0.00189</v>
       </c>
       <c r="C183" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="D183" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E183" t="s">
         <v>121</v>
@@ -4216,164 +4216,164 @@
         <v>219</v>
       </c>
       <c r="H183" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" t="s">
-        <v>78</v>
-      </c>
-      <c r="B184">
-        <v>0.00358</v>
-      </c>
-      <c r="C184" t="s">
-        <v>182</v>
-      </c>
-      <c r="D184" t="s">
-        <v>132</v>
-      </c>
-      <c r="E184" t="s">
-        <v>121</v>
-      </c>
-      <c r="G184" t="s">
-        <v>219</v>
-      </c>
-      <c r="H184" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>53</v>
-      </c>
-      <c r="B185">
-        <v>0.00189</v>
-      </c>
-      <c r="C185" t="s">
-        <v>166</v>
-      </c>
-      <c r="D185" t="s">
-        <v>132</v>
-      </c>
-      <c r="E185" t="s">
-        <v>121</v>
-      </c>
-      <c r="G185" t="s">
-        <v>219</v>
-      </c>
-      <c r="H185" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>10</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>12</v>
-      </c>
-      <c r="B190" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>214</v>
+      </c>
+      <c r="G191" t="s">
+        <v>217</v>
+      </c>
+      <c r="H191" t="s">
+        <v>221</v>
+      </c>
+      <c r="I191" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>132</v>
+      </c>
+      <c r="D192" t="s">
+        <v>120</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>218</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" t="s">
-        <v>122</v>
+        <v>80</v>
+      </c>
+      <c r="B193">
+        <v>0.00041</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="D193" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G193" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H193" t="s">
-        <v>221</v>
-      </c>
-      <c r="I193" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0.00036</v>
       </c>
       <c r="C194" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D194" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G194" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H194" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B195">
         <v>0.00041</v>
       </c>
       <c r="C195" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D195" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E195" t="s">
         <v>121</v>
@@ -4387,16 +4387,16 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B196">
-        <v>0.00036</v>
+        <v>0.00015</v>
       </c>
       <c r="C196" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D196" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E196" t="s">
         <v>121</v>
@@ -4410,185 +4410,191 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B197">
-        <v>0.00041</v>
+        <v>0.00015</v>
       </c>
       <c r="C197" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D197" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E197" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="G197" t="s">
         <v>219</v>
       </c>
       <c r="H197" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" t="s">
-        <v>83</v>
-      </c>
-      <c r="B198">
-        <v>0.00015</v>
-      </c>
-      <c r="C198" t="s">
-        <v>186</v>
-      </c>
-      <c r="D198" t="s">
-        <v>132</v>
-      </c>
-      <c r="E198" t="s">
-        <v>121</v>
-      </c>
-      <c r="G198" t="s">
-        <v>219</v>
-      </c>
-      <c r="H198" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>72</v>
-      </c>
-      <c r="B199">
-        <v>0.00015</v>
-      </c>
-      <c r="C199" t="s">
-        <v>179</v>
-      </c>
-      <c r="D199" t="s">
-        <v>138</v>
-      </c>
-      <c r="E199" t="s">
-        <v>213</v>
-      </c>
-      <c r="G199" t="s">
-        <v>219</v>
-      </c>
-      <c r="H199" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>10</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>12</v>
-      </c>
-      <c r="B204" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s">
+        <v>214</v>
+      </c>
+      <c r="G205" t="s">
+        <v>217</v>
+      </c>
+      <c r="H205" t="s">
+        <v>221</v>
+      </c>
+      <c r="I205" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>133</v>
+      </c>
+      <c r="D206" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s">
+        <v>218</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" t="s">
-        <v>122</v>
+        <v>85</v>
+      </c>
+      <c r="B207">
+        <v>0.0224</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
-      </c>
-      <c r="F207" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G207" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H207" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I207" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0.006</v>
       </c>
       <c r="C208" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="D208" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G208" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H208" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="I208" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B209">
-        <v>0.0224</v>
+        <v>0.002</v>
       </c>
       <c r="C209" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D209" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E209" t="s">
         <v>121</v>
@@ -4600,21 +4606,21 @@
         <v>222</v>
       </c>
       <c r="I209" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B210">
-        <v>0.006</v>
+        <v>0.024</v>
       </c>
       <c r="C210" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D210" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E210" t="s">
         <v>121</v>
@@ -4626,21 +4632,21 @@
         <v>222</v>
       </c>
       <c r="I210" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B211">
-        <v>0.002</v>
+        <v>0.032</v>
       </c>
       <c r="C211" t="s">
         <v>189</v>
       </c>
       <c r="D211" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="E211" t="s">
         <v>121</v>
@@ -4652,24 +4658,24 @@
         <v>222</v>
       </c>
       <c r="I211" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B212">
-        <v>0.024</v>
+        <v>0.49422912</v>
       </c>
       <c r="C212" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D212" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E212" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="G212" t="s">
         <v>219</v>
@@ -4678,24 +4684,24 @@
         <v>222</v>
       </c>
       <c r="I212" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B213">
-        <v>0.032</v>
+        <v>0.00448</v>
       </c>
       <c r="C213" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D213" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E213" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="G213" t="s">
         <v>219</v>
@@ -4704,170 +4710,164 @@
         <v>222</v>
       </c>
       <c r="I213" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="A214" t="s">
-        <v>89</v>
-      </c>
-      <c r="B214">
-        <v>0.49422912</v>
-      </c>
-      <c r="C214" t="s">
-        <v>191</v>
-      </c>
-      <c r="D214" t="s">
-        <v>132</v>
-      </c>
-      <c r="E214" t="s">
-        <v>213</v>
-      </c>
-      <c r="G214" t="s">
-        <v>219</v>
-      </c>
-      <c r="H214" t="s">
-        <v>222</v>
-      </c>
-      <c r="I214" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>90</v>
-      </c>
-      <c r="B215">
-        <v>0.00448</v>
-      </c>
-      <c r="C215" t="s">
-        <v>192</v>
-      </c>
-      <c r="D215" t="s">
-        <v>138</v>
-      </c>
-      <c r="E215" t="s">
-        <v>213</v>
-      </c>
-      <c r="G215" t="s">
-        <v>219</v>
-      </c>
-      <c r="H215" t="s">
-        <v>222</v>
-      </c>
-      <c r="I215" t="s">
-        <v>248</v>
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>10</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B218" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>12</v>
-      </c>
-      <c r="B220" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C221" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
+        <v>214</v>
+      </c>
+      <c r="G221" t="s">
+        <v>217</v>
+      </c>
+      <c r="H221" t="s">
+        <v>221</v>
+      </c>
+      <c r="I221" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>14</v>
+        <v>91</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>135</v>
+      </c>
+      <c r="D222" t="s">
+        <v>136</v>
+      </c>
+      <c r="E222" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>218</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="B223">
+        <v>0.00196</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="D223" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E223" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G223" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H223" t="s">
-        <v>221</v>
-      </c>
-      <c r="I223" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0.01534</v>
       </c>
       <c r="C224" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D224" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E224" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G224" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H224" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B225">
-        <v>0.00196</v>
+        <v>0.02998</v>
       </c>
       <c r="C225" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="D225" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E225" t="s">
         <v>121</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B226">
-        <v>0.01534</v>
+        <v>0.00252</v>
       </c>
       <c r="C226" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D226" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E226" t="s">
         <v>121</v>
@@ -4904,16 +4904,16 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B227">
-        <v>0.02998</v>
+        <v>0.00112</v>
       </c>
       <c r="C227" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="D227" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E227" t="s">
         <v>121</v>
@@ -4927,16 +4927,16 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B228">
-        <v>0.00252</v>
+        <v>0.00736</v>
       </c>
       <c r="C228" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D228" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E228" t="s">
         <v>121</v>
@@ -4950,16 +4950,16 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B229">
-        <v>0.00112</v>
+        <v>0.01563</v>
       </c>
       <c r="C229" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D229" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E229" t="s">
         <v>121</v>
@@ -4973,16 +4973,16 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B230">
-        <v>0.00736</v>
+        <v>0.00397</v>
       </c>
       <c r="C230" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D230" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E230" t="s">
         <v>121</v>
@@ -4996,16 +4996,16 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B231">
-        <v>0.01563</v>
+        <v>0.01534</v>
       </c>
       <c r="C231" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D231" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E231" t="s">
         <v>121</v>
@@ -5019,16 +5019,16 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B232">
-        <v>0.00397</v>
+        <v>0.0003</v>
       </c>
       <c r="C232" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D232" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E232" t="s">
         <v>121</v>
@@ -5042,16 +5042,16 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B233">
-        <v>0.01534</v>
+        <v>0.00196</v>
       </c>
       <c r="C233" t="s">
         <v>194</v>
       </c>
       <c r="D233" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E233" t="s">
         <v>121</v>
@@ -5060,58 +5060,28 @@
         <v>219</v>
       </c>
       <c r="H233" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>83</v>
-      </c>
-      <c r="B234">
-        <v>0.0003</v>
-      </c>
-      <c r="C234" t="s">
-        <v>186</v>
-      </c>
-      <c r="D234" t="s">
-        <v>132</v>
-      </c>
-      <c r="E234" t="s">
-        <v>121</v>
-      </c>
-      <c r="G234" t="s">
-        <v>219</v>
-      </c>
-      <c r="H234" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>94</v>
-      </c>
-      <c r="B235">
-        <v>0.00196</v>
-      </c>
-      <c r="C235" t="s">
-        <v>195</v>
-      </c>
-      <c r="D235" t="s">
-        <v>132</v>
-      </c>
-      <c r="E235" t="s">
-        <v>121</v>
-      </c>
-      <c r="G235" t="s">
-        <v>219</v>
-      </c>
-      <c r="H235" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B235" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
         <v>95</v>
@@ -5119,105 +5089,135 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>10</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B238" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B239" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>12</v>
-      </c>
-      <c r="B240" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s">
+        <v>214</v>
+      </c>
+      <c r="G241" t="s">
+        <v>217</v>
+      </c>
+      <c r="H241" t="s">
+        <v>221</v>
+      </c>
+      <c r="I241" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>95</v>
+      </c>
+      <c r="D242" t="s">
+        <v>131</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" t="s">
+        <v>218</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="B243">
+        <v>0.0012</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="D243" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E243" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G243" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H243" t="s">
-        <v>221</v>
-      </c>
-      <c r="I243" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0.006</v>
       </c>
       <c r="C244" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="D244" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E244" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G244" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H244" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B245">
-        <v>0.0012</v>
+        <v>0.00551</v>
       </c>
       <c r="C245" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="D245" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E245" t="s">
         <v>121</v>
@@ -5231,16 +5231,16 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B246">
-        <v>0.006</v>
+        <v>0.00124</v>
       </c>
       <c r="C246" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D246" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E246" t="s">
         <v>121</v>
@@ -5254,16 +5254,16 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B247">
-        <v>0.00551</v>
+        <v>0.00307</v>
       </c>
       <c r="C247" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="D247" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E247" t="s">
         <v>121</v>
@@ -5277,16 +5277,16 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B248">
-        <v>0.00124</v>
+        <v>0.0005</v>
       </c>
       <c r="C248" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D248" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E248" t="s">
         <v>121</v>
@@ -5295,58 +5295,28 @@
         <v>219</v>
       </c>
       <c r="H248" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" t="s">
-        <v>61</v>
-      </c>
-      <c r="B249">
-        <v>0.00307</v>
-      </c>
-      <c r="C249" t="s">
-        <v>171</v>
-      </c>
-      <c r="D249" t="s">
-        <v>132</v>
-      </c>
-      <c r="E249" t="s">
-        <v>121</v>
-      </c>
-      <c r="G249" t="s">
-        <v>219</v>
-      </c>
-      <c r="H249" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>55</v>
-      </c>
-      <c r="B250">
-        <v>0.0005</v>
-      </c>
-      <c r="C250" t="s">
-        <v>168</v>
-      </c>
-      <c r="D250" t="s">
-        <v>132</v>
-      </c>
-      <c r="E250" t="s">
-        <v>121</v>
-      </c>
-      <c r="G250" t="s">
-        <v>219</v>
-      </c>
-      <c r="H250" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B252" t="s">
         <v>97</v>
@@ -5354,96 +5324,126 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>10</v>
-      </c>
-      <c r="B253">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>12</v>
-      </c>
-      <c r="B255" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>214</v>
+      </c>
+      <c r="G256" t="s">
+        <v>217</v>
+      </c>
+      <c r="H256" t="s">
+        <v>221</v>
+      </c>
+      <c r="I256" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>97</v>
+      </c>
+      <c r="D257" t="s">
+        <v>120</v>
+      </c>
+      <c r="E257" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" t="s">
+        <v>218</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
       </c>
-      <c r="F258" t="s">
-        <v>214</v>
-      </c>
       <c r="G258" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H258" t="s">
-        <v>221</v>
-      </c>
-      <c r="I258" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C259" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D259" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E259" t="s">
         <v>13</v>
       </c>
       <c r="G259" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H259" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -5464,32 +5464,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B261">
-        <v>0.1</v>
+        <v>-0.1154741666666667</v>
       </c>
       <c r="C261" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="D261" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E261" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G261" t="s">
         <v>219</v>
       </c>
       <c r="H261" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5510,64 +5510,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B263">
-        <v>-0.1525908333333333</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
+        <v>95</v>
+      </c>
+      <c r="D263" t="s">
+        <v>131</v>
+      </c>
+      <c r="E263" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263" t="s">
+        <v>219</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>99</v>
+      </c>
+      <c r="B264">
+        <v>0.0009000000000000001</v>
+      </c>
+      <c r="C264" t="s">
         <v>197</v>
       </c>
-      <c r="D263" t="s">
-        <v>209</v>
-      </c>
-      <c r="E263" t="s">
-        <v>121</v>
-      </c>
-      <c r="G263" t="s">
-        <v>219</v>
-      </c>
-      <c r="H263" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" t="s">
-        <v>91</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>137</v>
-      </c>
       <c r="D264" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E264" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G264" t="s">
         <v>219</v>
       </c>
       <c r="H264" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D265" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E265" t="s">
         <v>13</v>
@@ -5579,18 +5579,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B266">
-        <v>0.0009000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C266" t="s">
         <v>198</v>
       </c>
       <c r="D266" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E266" t="s">
         <v>121</v>
@@ -5602,98 +5602,68 @@
         <v>222</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0.020203974</v>
       </c>
       <c r="C267" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="D267" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E267" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G267" t="s">
         <v>219</v>
       </c>
       <c r="H267" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B268">
-        <v>0.1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>199</v>
-      </c>
-      <c r="D268" t="s">
-        <v>138</v>
+        <v>0.00036</v>
       </c>
       <c r="E268" t="s">
         <v>121</v>
       </c>
+      <c r="F268" t="s">
+        <v>216</v>
+      </c>
       <c r="G268" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H268" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" t="s">
-        <v>101</v>
-      </c>
-      <c r="B269">
-        <v>0.020203974</v>
-      </c>
-      <c r="C269" t="s">
-        <v>200</v>
-      </c>
-      <c r="D269" t="s">
-        <v>132</v>
-      </c>
-      <c r="E269" t="s">
-        <v>121</v>
-      </c>
-      <c r="G269" t="s">
-        <v>219</v>
-      </c>
-      <c r="H269" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>102</v>
-      </c>
-      <c r="B270">
-        <v>0.00036</v>
-      </c>
-      <c r="E270" t="s">
-        <v>121</v>
-      </c>
-      <c r="F270" t="s">
-        <v>216</v>
-      </c>
-      <c r="G270" t="s">
-        <v>220</v>
-      </c>
-      <c r="H270" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="B270" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B272" t="s">
         <v>103</v>
@@ -5701,88 +5671,118 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>10</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B273" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B274" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>12</v>
-      </c>
-      <c r="B275" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C276" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>214</v>
+      </c>
+      <c r="G276" t="s">
+        <v>217</v>
+      </c>
+      <c r="H276" t="s">
+        <v>221</v>
+      </c>
+      <c r="I276" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>14</v>
+        <v>103</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>103</v>
+      </c>
+      <c r="D277" t="s">
+        <v>120</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" t="s">
+        <v>218</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D278" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
       </c>
-      <c r="F278" t="s">
-        <v>214</v>
-      </c>
       <c r="G278" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H278" t="s">
-        <v>221</v>
-      </c>
-      <c r="I278" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C279" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D279" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H279" t="s">
         <v>1</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5808,35 +5808,35 @@
         <v>219</v>
       </c>
       <c r="H280" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B281">
-        <v>0.1</v>
+        <v>-0.1595242440318302</v>
       </c>
       <c r="C281" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="D281" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E281" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G281" t="s">
         <v>219</v>
       </c>
       <c r="H281" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5854,67 +5854,67 @@
         <v>219</v>
       </c>
       <c r="H282" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B283">
-        <v>-0.1595242440318302</v>
+        <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="D283" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="E283" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="G283" t="s">
         <v>219</v>
       </c>
       <c r="H283" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0.0009000000000000001</v>
       </c>
       <c r="C284" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="D284" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E284" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G284" t="s">
         <v>219</v>
       </c>
       <c r="H284" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D285" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E285" t="s">
         <v>13</v>
@@ -5928,16 +5928,16 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B286">
-        <v>0.0009000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C286" t="s">
         <v>198</v>
       </c>
       <c r="D286" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E286" t="s">
         <v>121</v>
@@ -5951,202 +5951,208 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0.020203974</v>
       </c>
       <c r="C287" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="D287" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E287" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G287" t="s">
         <v>219</v>
       </c>
       <c r="H287" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B288">
-        <v>0.1</v>
-      </c>
-      <c r="C288" t="s">
-        <v>199</v>
-      </c>
-      <c r="D288" t="s">
-        <v>138</v>
+        <v>0.00036</v>
       </c>
       <c r="E288" t="s">
         <v>121</v>
       </c>
+      <c r="F288" t="s">
+        <v>216</v>
+      </c>
       <c r="G288" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H288" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" t="s">
-        <v>101</v>
-      </c>
-      <c r="B289">
-        <v>0.020203974</v>
-      </c>
-      <c r="C289" t="s">
-        <v>200</v>
-      </c>
-      <c r="D289" t="s">
-        <v>132</v>
-      </c>
-      <c r="E289" t="s">
-        <v>121</v>
-      </c>
-      <c r="G289" t="s">
-        <v>219</v>
-      </c>
-      <c r="H289" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>102</v>
-      </c>
-      <c r="B290">
-        <v>0.00036</v>
-      </c>
-      <c r="E290" t="s">
-        <v>121</v>
-      </c>
-      <c r="F290" t="s">
-        <v>216</v>
-      </c>
-      <c r="G290" t="s">
-        <v>220</v>
-      </c>
-      <c r="H290" t="s">
-        <v>223</v>
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>10</v>
-      </c>
-      <c r="B293">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B293" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B294" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>12</v>
-      </c>
-      <c r="B295" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B296" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" t="s">
+        <v>13</v>
+      </c>
+      <c r="F296" t="s">
+        <v>214</v>
+      </c>
+      <c r="G296" t="s">
+        <v>217</v>
+      </c>
+      <c r="H296" t="s">
+        <v>221</v>
+      </c>
+      <c r="I296" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>137</v>
+      </c>
+      <c r="D297" t="s">
+        <v>120</v>
+      </c>
+      <c r="E297" t="s">
+        <v>121</v>
+      </c>
+      <c r="G297" t="s">
+        <v>218</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" t="s">
-        <v>122</v>
+        <v>31</v>
+      </c>
+      <c r="B298">
+        <v>0.22</v>
       </c>
       <c r="C298" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D298" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E298" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G298" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H298" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I298" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="C299" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D299" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E299" t="s">
         <v>121</v>
       </c>
       <c r="G299" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H299" t="s">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="I299" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B300">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="C300" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D300" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E300" t="s">
         <v>121</v>
@@ -6158,24 +6164,24 @@
         <v>222</v>
       </c>
       <c r="I300" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B301">
-        <v>0.32</v>
+        <v>21.97777777777778</v>
       </c>
       <c r="C301" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D301" t="s">
         <v>120</v>
       </c>
       <c r="E301" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G301" t="s">
         <v>219</v>
@@ -6184,21 +6190,21 @@
         <v>222</v>
       </c>
       <c r="I301" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B302">
-        <v>0.18</v>
+        <v>5.18</v>
       </c>
       <c r="C302" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D302" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E302" t="s">
         <v>121</v>
@@ -6210,47 +6216,44 @@
         <v>222</v>
       </c>
       <c r="I302" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B303">
-        <v>21.97777777777778</v>
+        <v>8.91</v>
       </c>
       <c r="C303" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D303" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E303" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G303" t="s">
         <v>219</v>
       </c>
       <c r="H303" t="s">
         <v>222</v>
-      </c>
-      <c r="I303" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B304">
-        <v>5.18</v>
+        <v>4.02</v>
       </c>
       <c r="C304" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D304" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E304" t="s">
         <v>121</v>
@@ -6267,39 +6270,42 @@
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B305">
-        <v>8.91</v>
+        <v>1.3</v>
       </c>
       <c r="C305" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D305" t="s">
         <v>120</v>
       </c>
       <c r="E305" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="G305" t="s">
         <v>219</v>
       </c>
       <c r="H305" t="s">
-        <v>222</v>
+        <v>1</v>
+      </c>
+      <c r="I305" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B306">
-        <v>4.02</v>
+        <v>0.36</v>
       </c>
       <c r="C306" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="D306" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E306" t="s">
         <v>121</v>
@@ -6316,16 +6322,16 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B307">
-        <v>1.3</v>
+        <v>0.26</v>
       </c>
       <c r="C307" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="D307" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E307" t="s">
         <v>121</v>
@@ -6337,21 +6343,21 @@
         <v>1</v>
       </c>
       <c r="I307" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B308">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="C308" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="D308" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E308" t="s">
         <v>121</v>
@@ -6363,21 +6369,21 @@
         <v>222</v>
       </c>
       <c r="I308" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B309">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="C309" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="D309" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E309" t="s">
         <v>121</v>
@@ -6386,24 +6392,24 @@
         <v>219</v>
       </c>
       <c r="H309" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="I309" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B310">
-        <v>0.11</v>
+        <v>19.1</v>
       </c>
       <c r="C310" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D310" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="E310" t="s">
         <v>121</v>
@@ -6415,18 +6421,18 @@
         <v>222</v>
       </c>
       <c r="I310" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B311">
-        <v>0.01</v>
+        <v>0.03950103950103934</v>
       </c>
       <c r="C311" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D311" t="s">
         <v>120</v>
@@ -6438,24 +6444,24 @@
         <v>219</v>
       </c>
       <c r="H311" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I311" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B312">
-        <v>19.1</v>
+        <v>-0.00535</v>
       </c>
       <c r="C312" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D312" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E312" t="s">
         <v>121</v>
@@ -6465,23 +6471,20 @@
       </c>
       <c r="H312" t="s">
         <v>222</v>
-      </c>
-      <c r="I312" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B313">
-        <v>0.03950103950103934</v>
+        <v>-1.07</v>
       </c>
       <c r="C313" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D313" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E313" t="s">
         <v>121</v>
@@ -6490,21 +6493,18 @@
         <v>219</v>
       </c>
       <c r="H313" t="s">
-        <v>1</v>
-      </c>
-      <c r="I313" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B314">
-        <v>-0.00535</v>
+        <v>-0.03</v>
       </c>
       <c r="C314" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="D314" t="s">
         <v>120</v>
@@ -6516,61 +6516,55 @@
         <v>219</v>
       </c>
       <c r="H314" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B315">
-        <v>-1.07</v>
-      </c>
-      <c r="C315" t="s">
-        <v>163</v>
-      </c>
-      <c r="D315" t="s">
-        <v>132</v>
+        <v>0.17</v>
       </c>
       <c r="E315" t="s">
         <v>121</v>
       </c>
+      <c r="F315" t="s">
+        <v>215</v>
+      </c>
       <c r="G315" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H315" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B316">
-        <v>-0.03</v>
-      </c>
-      <c r="C316" t="s">
-        <v>27</v>
-      </c>
-      <c r="D316" t="s">
-        <v>120</v>
+        <v>0.22</v>
       </c>
       <c r="E316" t="s">
         <v>121</v>
       </c>
+      <c r="F316" t="s">
+        <v>215</v>
+      </c>
       <c r="G316" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H316" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B317">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E317" t="s">
         <v>121</v>
@@ -6587,16 +6581,16 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B318">
-        <v>0.22</v>
+        <v>6.58</v>
       </c>
       <c r="E318" t="s">
         <v>121</v>
       </c>
       <c r="F318" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G318" t="s">
         <v>220</v>
@@ -6607,10 +6601,10 @@
     </row>
     <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B319">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="E319" t="s">
         <v>121</v>
@@ -6627,16 +6621,16 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B320">
-        <v>6.58</v>
+        <v>0.01</v>
       </c>
       <c r="E320" t="s">
         <v>121</v>
       </c>
       <c r="F320" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G320" t="s">
         <v>220</v>
@@ -6647,16 +6641,16 @@
     </row>
     <row r="321" spans="1:9">
       <c r="A321" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B321">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E321" t="s">
         <v>121</v>
       </c>
       <c r="F321" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G321" t="s">
         <v>220</v>
@@ -6667,7 +6661,7 @@
     </row>
     <row r="322" spans="1:9">
       <c r="A322" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B322">
         <v>0.01</v>
@@ -6685,49 +6679,25 @@
         <v>223</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
-      <c r="A323" t="s">
-        <v>48</v>
-      </c>
-      <c r="B323">
-        <v>0.11</v>
-      </c>
-      <c r="E323" t="s">
-        <v>121</v>
-      </c>
-      <c r="F323" t="s">
-        <v>216</v>
-      </c>
-      <c r="G323" t="s">
-        <v>220</v>
-      </c>
-      <c r="H323" t="s">
-        <v>223</v>
-      </c>
-    </row>
     <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>49</v>
-      </c>
-      <c r="B324">
-        <v>0.01</v>
-      </c>
-      <c r="E324" t="s">
-        <v>121</v>
-      </c>
-      <c r="F324" t="s">
-        <v>215</v>
-      </c>
-      <c r="G324" t="s">
-        <v>220</v>
-      </c>
-      <c r="H324" t="s">
-        <v>223</v>
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B326" t="s">
         <v>107</v>
@@ -6735,145 +6705,145 @@
     </row>
     <row r="327" spans="1:9">
       <c r="A327" t="s">
-        <v>10</v>
-      </c>
-      <c r="B327">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B327" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B328" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" t="s">
-        <v>12</v>
-      </c>
-      <c r="B329" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B330" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330" t="s">
+        <v>13</v>
+      </c>
+      <c r="F330" t="s">
+        <v>214</v>
+      </c>
+      <c r="G330" t="s">
+        <v>217</v>
+      </c>
+      <c r="H330" t="s">
+        <v>221</v>
+      </c>
+      <c r="I330" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>14</v>
+        <v>107</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>107</v>
+      </c>
+      <c r="D331" t="s">
+        <v>136</v>
+      </c>
+      <c r="E331" t="s">
+        <v>121</v>
+      </c>
+      <c r="G331" t="s">
+        <v>218</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1</v>
+      </c>
+      <c r="I331" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" t="s">
-        <v>15</v>
-      </c>
-      <c r="B332" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+      <c r="B332">
+        <v>0.01033</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="D332" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E332" t="s">
-        <v>13</v>
-      </c>
-      <c r="F332" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G332" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H332" t="s">
-        <v>221</v>
-      </c>
-      <c r="I332" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>0.98967</v>
       </c>
       <c r="C333" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="D333" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E333" t="s">
         <v>121</v>
       </c>
       <c r="G333" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H333" t="s">
-        <v>1</v>
-      </c>
-      <c r="I333" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
-      <c r="A334" t="s">
-        <v>108</v>
-      </c>
-      <c r="B334">
-        <v>0.01033</v>
-      </c>
-      <c r="C334" t="s">
-        <v>202</v>
-      </c>
-      <c r="D334" t="s">
-        <v>132</v>
-      </c>
-      <c r="E334" t="s">
-        <v>121</v>
-      </c>
-      <c r="G334" t="s">
-        <v>219</v>
-      </c>
-      <c r="H334" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" t="s">
-        <v>85</v>
-      </c>
-      <c r="B335">
-        <v>0.98967</v>
-      </c>
-      <c r="C335" t="s">
-        <v>187</v>
-      </c>
-      <c r="D335" t="s">
-        <v>120</v>
-      </c>
-      <c r="E335" t="s">
-        <v>121</v>
-      </c>
-      <c r="G335" t="s">
-        <v>219</v>
-      </c>
-      <c r="H335" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B337" t="s">
         <v>109</v>
@@ -6881,108 +6851,138 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" t="s">
-        <v>10</v>
-      </c>
-      <c r="B338">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B338" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B339" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>12</v>
-      </c>
-      <c r="B340" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s">
+        <v>12</v>
+      </c>
+      <c r="E341" t="s">
+        <v>13</v>
+      </c>
+      <c r="F341" t="s">
+        <v>214</v>
+      </c>
+      <c r="G341" t="s">
+        <v>217</v>
+      </c>
+      <c r="H341" t="s">
+        <v>221</v>
+      </c>
+      <c r="I341" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" t="s">
-        <v>14</v>
+        <v>109</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342" t="s">
+        <v>109</v>
+      </c>
+      <c r="D342" t="s">
+        <v>136</v>
+      </c>
+      <c r="E342" t="s">
+        <v>13</v>
+      </c>
+      <c r="G342" t="s">
+        <v>218</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1</v>
+      </c>
+      <c r="I342" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>15</v>
-      </c>
-      <c r="B343" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="B343">
+        <v>9.281249999999999E-05</v>
       </c>
       <c r="C343" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="D343" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E343" t="s">
-        <v>13</v>
-      </c>
-      <c r="F343" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G343" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H343" t="s">
-        <v>221</v>
-      </c>
-      <c r="I343" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>4.296874999999998E-05</v>
       </c>
       <c r="C344" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="D344" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E344" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="G344" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H344" t="s">
-        <v>1</v>
-      </c>
-      <c r="I344" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B345">
-        <v>9.281249999999999E-05</v>
+        <v>5.671875E-06</v>
       </c>
       <c r="C345" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D345" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E345" t="s">
         <v>121</v>
@@ -6996,39 +6996,39 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B346">
-        <v>4.296874999999998E-05</v>
+        <v>5.646093749999999E-05</v>
       </c>
       <c r="C346" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="D346" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E346" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="G346" t="s">
         <v>219</v>
       </c>
       <c r="H346" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="B347">
-        <v>5.671875E-06</v>
+        <v>5.4140625E-06</v>
       </c>
       <c r="C347" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="D347" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E347" t="s">
         <v>121</v>
@@ -7037,18 +7037,18 @@
         <v>219</v>
       </c>
       <c r="H347" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B348">
-        <v>5.646093749999999E-05</v>
+        <v>0.0006600000000000001</v>
       </c>
       <c r="C348" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D348" t="s">
         <v>120</v>
@@ -7065,16 +7065,16 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="B349">
-        <v>5.4140625E-06</v>
+        <v>2.10375E-05</v>
       </c>
       <c r="C349" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="D349" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E349" t="s">
         <v>121</v>
@@ -7083,21 +7083,21 @@
         <v>219</v>
       </c>
       <c r="H349" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B350">
-        <v>0.0006600000000000001</v>
+        <v>1.959375E-05</v>
       </c>
       <c r="C350" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D350" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E350" t="s">
         <v>121</v>
@@ -7106,21 +7106,21 @@
         <v>219</v>
       </c>
       <c r="H350" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="A351" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B351">
-        <v>2.10375E-05</v>
+        <v>7.734374999999998E-06</v>
       </c>
       <c r="C351" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D351" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E351" t="s">
         <v>121</v>
@@ -7129,167 +7129,167 @@
         <v>219</v>
       </c>
       <c r="H351" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9">
-      <c r="A352" t="s">
-        <v>112</v>
-      </c>
-      <c r="B352">
-        <v>1.959375E-05</v>
-      </c>
-      <c r="C352" t="s">
-        <v>205</v>
-      </c>
-      <c r="D352" t="s">
-        <v>132</v>
-      </c>
-      <c r="E352" t="s">
-        <v>121</v>
-      </c>
-      <c r="G352" t="s">
-        <v>219</v>
-      </c>
-      <c r="H352" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="A353" t="s">
-        <v>100</v>
-      </c>
-      <c r="B353">
-        <v>7.734374999999998E-06</v>
-      </c>
-      <c r="C353" t="s">
-        <v>199</v>
-      </c>
-      <c r="D353" t="s">
-        <v>120</v>
-      </c>
-      <c r="E353" t="s">
-        <v>121</v>
-      </c>
-      <c r="G353" t="s">
-        <v>219</v>
-      </c>
-      <c r="H353" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B355" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" t="s">
-        <v>10</v>
-      </c>
-      <c r="B356">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B357" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>12</v>
-      </c>
-      <c r="B358" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359" t="s">
+        <v>13</v>
+      </c>
+      <c r="F359" t="s">
+        <v>214</v>
+      </c>
+      <c r="G359" t="s">
+        <v>217</v>
+      </c>
+      <c r="H359" t="s">
+        <v>221</v>
+      </c>
+      <c r="I359" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360" t="s">
+        <v>138</v>
+      </c>
+      <c r="D360" t="s">
+        <v>120</v>
+      </c>
+      <c r="E360" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360" t="s">
+        <v>218</v>
+      </c>
+      <c r="H360" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" t="s">
-        <v>15</v>
-      </c>
-      <c r="B361" t="s">
-        <v>122</v>
+        <v>34</v>
+      </c>
+      <c r="B361">
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="C361" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="D361" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E361" t="s">
-        <v>13</v>
-      </c>
-      <c r="F361" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G361" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H361" t="s">
-        <v>221</v>
-      </c>
-      <c r="I361" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>0.0005</v>
       </c>
       <c r="C362" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="D362" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E362" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G362" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H362" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B363">
-        <v>6.999999999999999E-05</v>
+        <v>0.00247</v>
       </c>
       <c r="C363" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="D363" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E363" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="G363" t="s">
         <v>219</v>
@@ -7300,16 +7300,16 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B364">
-        <v>0.0005</v>
+        <v>0.002627659574468085</v>
       </c>
       <c r="C364" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D364" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E364" t="s">
         <v>121</v>
@@ -7323,448 +7323,522 @@
     </row>
     <row r="365" spans="1:9">
       <c r="A365" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B365">
-        <v>0.00247</v>
+        <v>10</v>
       </c>
       <c r="C365" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D365" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E365" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="G365" t="s">
         <v>219</v>
       </c>
       <c r="H365" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9">
-      <c r="A366" t="s">
-        <v>93</v>
-      </c>
-      <c r="B366">
-        <v>0.002627659574468085</v>
-      </c>
-      <c r="C366" t="s">
-        <v>194</v>
-      </c>
-      <c r="D366" t="s">
-        <v>132</v>
-      </c>
-      <c r="E366" t="s">
-        <v>121</v>
-      </c>
-      <c r="G366" t="s">
-        <v>219</v>
-      </c>
-      <c r="H366" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" t="s">
-        <v>109</v>
-      </c>
-      <c r="B367">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
         <v>10</v>
       </c>
-      <c r="C367" t="s">
-        <v>109</v>
-      </c>
-      <c r="D367" t="s">
-        <v>124</v>
-      </c>
-      <c r="E367" t="s">
-        <v>13</v>
-      </c>
-      <c r="G367" t="s">
-        <v>219</v>
-      </c>
-      <c r="H367" t="s">
+      <c r="B368">
         <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B369" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" t="s">
-        <v>10</v>
-      </c>
-      <c r="B370">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B370" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B371" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" t="s">
-        <v>12</v>
-      </c>
-      <c r="B372" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>13</v>
+      </c>
+      <c r="F373" t="s">
+        <v>214</v>
+      </c>
+      <c r="G373" t="s">
+        <v>217</v>
+      </c>
+      <c r="H373" t="s">
+        <v>221</v>
+      </c>
+      <c r="I373" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374" t="s">
+        <v>139</v>
+      </c>
+      <c r="D374" t="s">
+        <v>120</v>
+      </c>
+      <c r="E374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374" t="s">
+        <v>218</v>
+      </c>
+      <c r="H374" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" t="s">
-        <v>15</v>
-      </c>
-      <c r="B375" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
       </c>
       <c r="C375" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="D375" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E375" t="s">
         <v>13</v>
       </c>
-      <c r="F375" t="s">
-        <v>214</v>
-      </c>
       <c r="G375" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H375" t="s">
-        <v>221</v>
-      </c>
-      <c r="I375" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>0.005292</v>
       </c>
       <c r="C376" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D376" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E376" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G376" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H376" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B377">
-        <v>3</v>
+        <v>0.0046682578125</v>
       </c>
       <c r="C377" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="D377" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E377" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="G377" t="s">
         <v>219</v>
       </c>
       <c r="H377" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9">
-      <c r="A378" t="s">
-        <v>70</v>
-      </c>
-      <c r="B378">
-        <v>0.005292</v>
-      </c>
-      <c r="C378" t="s">
-        <v>177</v>
-      </c>
-      <c r="D378" t="s">
-        <v>138</v>
-      </c>
-      <c r="E378" t="s">
-        <v>121</v>
-      </c>
-      <c r="G378" t="s">
-        <v>219</v>
-      </c>
-      <c r="H378" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>90</v>
-      </c>
-      <c r="B379">
-        <v>0.01013183114765625</v>
-      </c>
-      <c r="C379" t="s">
-        <v>192</v>
-      </c>
-      <c r="D379" t="s">
-        <v>120</v>
-      </c>
-      <c r="E379" t="s">
-        <v>213</v>
-      </c>
-      <c r="G379" t="s">
-        <v>219</v>
-      </c>
-      <c r="H379" t="s">
-        <v>222</v>
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="B380">
-        <v>0.1884520593464062</v>
-      </c>
-      <c r="C380" t="s">
-        <v>208</v>
-      </c>
-      <c r="D380" t="s">
-        <v>132</v>
-      </c>
-      <c r="E380" t="s">
-        <v>213</v>
-      </c>
-      <c r="G380" t="s">
-        <v>219</v>
-      </c>
-      <c r="H380" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" t="s">
-        <v>90</v>
-      </c>
-      <c r="B381">
-        <v>0.0040527324590625</v>
-      </c>
-      <c r="C381" t="s">
-        <v>192</v>
-      </c>
-      <c r="D381" t="s">
-        <v>138</v>
-      </c>
-      <c r="E381" t="s">
-        <v>213</v>
-      </c>
-      <c r="G381" t="s">
-        <v>219</v>
-      </c>
-      <c r="H381" t="s">
-        <v>222</v>
+        <v>11</v>
+      </c>
+      <c r="B381" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B383" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" t="s">
-        <v>10</v>
-      </c>
-      <c r="B384">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" t="s">
+        <v>15</v>
+      </c>
+      <c r="B385" t="s">
+        <v>122</v>
+      </c>
+      <c r="C385" t="s">
         <v>11</v>
       </c>
-      <c r="B385" t="s">
-        <v>118</v>
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385" t="s">
+        <v>13</v>
+      </c>
+      <c r="F385" t="s">
+        <v>214</v>
+      </c>
+      <c r="G385" t="s">
+        <v>217</v>
+      </c>
+      <c r="H385" t="s">
+        <v>221</v>
+      </c>
+      <c r="I385" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" t="s">
-        <v>12</v>
-      </c>
-      <c r="B386" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386" t="s">
+        <v>140</v>
+      </c>
+      <c r="D386" t="s">
+        <v>136</v>
+      </c>
+      <c r="E386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386" t="s">
+        <v>218</v>
+      </c>
+      <c r="H386" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" t="s">
-        <v>13</v>
-      </c>
-      <c r="B387" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="B387">
+        <v>0.002213279678068411</v>
+      </c>
+      <c r="C387" t="s">
+        <v>170</v>
+      </c>
+      <c r="D387" t="s">
+        <v>131</v>
+      </c>
+      <c r="E387" t="s">
+        <v>121</v>
+      </c>
+      <c r="G387" t="s">
+        <v>219</v>
+      </c>
+      <c r="H387" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9">
-      <c r="A389" t="s">
-        <v>15</v>
-      </c>
-      <c r="B389" t="s">
-        <v>122</v>
-      </c>
-      <c r="C389" t="s">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s">
-        <v>12</v>
-      </c>
-      <c r="E389" t="s">
-        <v>13</v>
-      </c>
-      <c r="F389" t="s">
-        <v>214</v>
-      </c>
-      <c r="G389" t="s">
-        <v>217</v>
-      </c>
-      <c r="H389" t="s">
-        <v>221</v>
-      </c>
-      <c r="I389" t="s">
-        <v>224</v>
+        <v>57</v>
+      </c>
+      <c r="B388">
+        <v>0.0022</v>
+      </c>
+      <c r="C388" t="s">
+        <v>57</v>
+      </c>
+      <c r="D388" t="s">
+        <v>136</v>
+      </c>
+      <c r="E388" t="s">
+        <v>121</v>
+      </c>
+      <c r="G388" t="s">
+        <v>219</v>
+      </c>
+      <c r="H388" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
         <v>118</v>
-      </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-      <c r="C390" t="s">
-        <v>118</v>
-      </c>
-      <c r="D390" t="s">
-        <v>124</v>
-      </c>
-      <c r="E390" t="s">
-        <v>13</v>
-      </c>
-      <c r="G390" t="s">
-        <v>218</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B391">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="C391" t="s">
-        <v>141</v>
-      </c>
-      <c r="D391" t="s">
-        <v>124</v>
-      </c>
-      <c r="E391" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391" t="s">
-        <v>219</v>
-      </c>
-      <c r="H391" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" t="s">
-        <v>119</v>
-      </c>
-      <c r="B392">
-        <v>-0.000297</v>
-      </c>
-      <c r="C392" t="s">
-        <v>197</v>
-      </c>
-      <c r="D392" t="s">
-        <v>209</v>
-      </c>
-      <c r="E392" t="s">
-        <v>121</v>
-      </c>
-      <c r="G392" t="s">
-        <v>219</v>
-      </c>
-      <c r="H392" t="s">
-        <v>222</v>
+        <v>11</v>
+      </c>
+      <c r="B392" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" t="s">
+        <v>12</v>
+      </c>
+      <c r="B393" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>13</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>15</v>
+      </c>
+      <c r="B396" t="s">
+        <v>122</v>
+      </c>
+      <c r="C396" t="s">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" t="s">
+        <v>13</v>
+      </c>
+      <c r="F396" t="s">
+        <v>214</v>
+      </c>
+      <c r="G396" t="s">
+        <v>217</v>
+      </c>
+      <c r="H396" t="s">
+        <v>221</v>
+      </c>
+      <c r="I396" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>118</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397" t="s">
+        <v>118</v>
+      </c>
+      <c r="D397" t="s">
+        <v>120</v>
+      </c>
+      <c r="E397" t="s">
+        <v>13</v>
+      </c>
+      <c r="G397" t="s">
+        <v>218</v>
+      </c>
+      <c r="H397" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>116</v>
+      </c>
+      <c r="B398">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="C398" t="s">
+        <v>139</v>
+      </c>
+      <c r="D398" t="s">
+        <v>120</v>
+      </c>
+      <c r="E398" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" t="s">
+        <v>219</v>
+      </c>
+      <c r="H398" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>117</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
+        <v>140</v>
+      </c>
+      <c r="D399" t="s">
+        <v>136</v>
+      </c>
+      <c r="E399" t="s">
+        <v>13</v>
+      </c>
+      <c r="G399" t="s">
+        <v>219</v>
+      </c>
+      <c r="H399" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>119</v>
+      </c>
+      <c r="B400">
+        <v>-0.002497</v>
+      </c>
+      <c r="C400" t="s">
+        <v>196</v>
+      </c>
+      <c r="D400" t="s">
+        <v>207</v>
+      </c>
+      <c r="E400" t="s">
+        <v>121</v>
+      </c>
+      <c r="G400" t="s">
+        <v>219</v>
+      </c>
+      <c r="H400" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
         <v>101</v>
       </c>
-      <c r="B393">
+      <c r="B401">
         <v>-0.002632</v>
       </c>
-      <c r="C393" t="s">
-        <v>200</v>
-      </c>
-      <c r="D393" t="s">
-        <v>132</v>
-      </c>
-      <c r="E393" t="s">
-        <v>121</v>
-      </c>
-      <c r="G393" t="s">
-        <v>219</v>
-      </c>
-      <c r="H393" t="s">
+      <c r="C401" t="s">
+        <v>199</v>
+      </c>
+      <c r="D401" t="s">
+        <v>131</v>
+      </c>
+      <c r="E401" t="s">
+        <v>121</v>
+      </c>
+      <c r="G401" t="s">
+        <v>219</v>
+      </c>
+      <c r="H401" t="s">
         <v>222</v>
       </c>
     </row>

--- a/data/temp.xlsx
+++ b/data/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="249">
   <si>
     <t>Database</t>
   </si>
@@ -85,9 +85,6 @@
     <t>market for cottonseed meal</t>
   </si>
   <si>
-    <t>market for rape oil, crude</t>
-  </si>
-  <si>
     <t>market for soybean oil, refined</t>
   </si>
   <si>
@@ -289,7 +286,7 @@
     <t>market for transport, freight, lorry, unspecified</t>
   </si>
   <si>
-    <t>production of IV sets</t>
+    <t>production of IV bag</t>
   </si>
   <si>
     <t>market for extrusion, plastic pipes</t>
@@ -421,7 +418,7 @@
     <t>MY</t>
   </si>
   <si>
-    <t>IV sets</t>
+    <t>IV bag</t>
   </si>
   <si>
     <t>RER</t>
@@ -452,9 +449,6 @@
   </si>
   <si>
     <t>cottonseed meal</t>
-  </si>
-  <si>
-    <t>rape oil, crude</t>
   </si>
   <si>
     <t>soybean oil, refined</t>
@@ -1124,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1188,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1196,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1209,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1221,16 +1215,16 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1244,13 +1238,13 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -1264,19 +1258,19 @@
         <v>0.06804</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1287,19 +1281,19 @@
         <v>0.95897</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1310,19 +1304,19 @@
         <v>-0.02700999999999998</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1346,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1354,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1362,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1375,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1387,16 +1381,16 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1407,16 +1401,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H22" t="s">
         <v>1</v>
@@ -1427,22 +1421,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.00890313</v>
+        <v>0.01</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1450,22 +1444,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03561</v>
+        <v>0.03</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1473,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.035613</v>
+        <v>0.0029344</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1496,22 +1490,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.002849</v>
+        <v>0.9270656</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1519,74 +1513,59 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.890313</v>
+        <v>0.03</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.026709</v>
-      </c>
-      <c r="C28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
@@ -1594,44 +1573,59 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1639,22 +1633,22 @@
         <v>27</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.7317</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1662,97 +1656,82 @@
         <v>28</v>
       </c>
       <c r="B38">
-        <v>0.7317</v>
+        <v>0.487805</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>-0.2195050000000001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
         <v>29</v>
-      </c>
-      <c r="B39">
-        <v>0.487805</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" t="s">
-        <v>219</v>
-      </c>
-      <c r="H39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <v>-0.2195050000000001</v>
-      </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" t="s">
-        <v>219</v>
-      </c>
-      <c r="H40" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>120</v>
@@ -1760,44 +1739,59 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" t="s">
-        <v>122</v>
+        <v>29</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H48" t="s">
-        <v>221</v>
-      </c>
-      <c r="I48" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1805,22 +1799,25 @@
         <v>30</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H49" t="s">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="I49" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1828,25 +1825,25 @@
         <v>31</v>
       </c>
       <c r="B50">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1854,25 +1851,25 @@
         <v>32</v>
       </c>
       <c r="B51">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1880,25 +1877,25 @@
         <v>33</v>
       </c>
       <c r="B52">
-        <v>0.18</v>
+        <v>21.97777777777778</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1906,25 +1903,25 @@
         <v>34</v>
       </c>
       <c r="B53">
-        <v>21.97777777777778</v>
+        <v>5.18</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="G53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1932,25 +1929,22 @@
         <v>35</v>
       </c>
       <c r="B54">
-        <v>5.18</v>
+        <v>6.7155</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="G54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>222</v>
-      </c>
-      <c r="I54" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1958,175 +1952,178 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>8.91</v>
+        <v>4.02</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H55" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="I55" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>4.02</v>
+        <v>1.3</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H56" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>1.3</v>
+        <v>0.017865</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H57" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>0.03573</v>
+        <v>0.26</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H58" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H59" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>0.01</v>
+        <v>19.1</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I61" t="s">
         <v>226</v>
@@ -2134,54 +2131,51 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B62">
-        <v>19.1</v>
+        <v>0.03950103950103934</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H62" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B63">
-        <v>0.03950103950103934</v>
+        <v>-0.00535</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H63" t="s">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2189,68 +2183,65 @@
         <v>40</v>
       </c>
       <c r="B64">
-        <v>-0.00535</v>
+        <v>-1.07</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>-1.07</v>
+        <v>-0.03</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H65" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B66">
-        <v>-0.03</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" t="s">
-        <v>120</v>
+        <v>0.17</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>213</v>
       </c>
       <c r="G66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H66" t="s">
-        <v>1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2258,19 +2249,19 @@
         <v>42</v>
       </c>
       <c r="B67">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2278,19 +2269,19 @@
         <v>43</v>
       </c>
       <c r="B68">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2298,19 +2289,19 @@
         <v>44</v>
       </c>
       <c r="B69">
-        <v>0.18</v>
+        <v>6.58</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2318,19 +2309,19 @@
         <v>45</v>
       </c>
       <c r="B70">
-        <v>6.58</v>
+        <v>0.06</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2338,19 +2329,19 @@
         <v>46</v>
       </c>
       <c r="B71">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2358,19 +2349,19 @@
         <v>47</v>
       </c>
       <c r="B72">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2378,113 +2369,119 @@
         <v>48</v>
       </c>
       <c r="B73">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F73" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H73" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
         <v>49</v>
-      </c>
-      <c r="B74">
-        <v>0.01</v>
-      </c>
-      <c r="E74" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G74" t="s">
-        <v>220</v>
-      </c>
-      <c r="H74" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" t="s">
+        <v>215</v>
+      </c>
+      <c r="H81" t="s">
+        <v>219</v>
+      </c>
+      <c r="I81" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" t="s">
-        <v>122</v>
+        <v>49</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
       </c>
-      <c r="F82" t="s">
-        <v>214</v>
-      </c>
       <c r="G82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H82" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2492,77 +2489,77 @@
         <v>50</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.009333333333333334</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H83" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B84">
-        <v>0.009333333333333334</v>
+        <v>0.002645833333333333</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I84" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B85">
-        <v>0.002645833333333333</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2570,25 +2567,25 @@
         <v>52</v>
       </c>
       <c r="B86">
-        <v>0.1083333333333333</v>
+        <v>0.0005030181086519115</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="G86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2596,25 +2593,25 @@
         <v>53</v>
       </c>
       <c r="B87">
-        <v>0.0005030181086519115</v>
+        <v>0.0004583333333333333</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I87" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2622,25 +2619,25 @@
         <v>54</v>
       </c>
       <c r="B88">
-        <v>0.0004583333333333333</v>
+        <v>0.001047954393024816</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2648,25 +2645,25 @@
         <v>55</v>
       </c>
       <c r="B89">
-        <v>0.001047954393024816</v>
+        <v>0.0002724681421864521</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H89" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2674,25 +2671,25 @@
         <v>56</v>
       </c>
       <c r="B90">
-        <v>0.0002724681421864521</v>
+        <v>0.0018125</v>
       </c>
       <c r="C90" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G90" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -2700,197 +2697,197 @@
         <v>57</v>
       </c>
       <c r="B91">
-        <v>0.0018125</v>
+        <v>0.0004583333333333333</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H91" t="s">
-        <v>222</v>
-      </c>
-      <c r="I91" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
         <v>58</v>
-      </c>
-      <c r="B92">
-        <v>0.0004583333333333333</v>
-      </c>
-      <c r="C92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" t="s">
-        <v>121</v>
-      </c>
-      <c r="G92" t="s">
-        <v>219</v>
-      </c>
-      <c r="H92" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>212</v>
+      </c>
+      <c r="G99" t="s">
+        <v>215</v>
+      </c>
+      <c r="H99" t="s">
+        <v>219</v>
+      </c>
+      <c r="I99" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" t="s">
-        <v>122</v>
+        <v>58</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E100" t="s">
         <v>13</v>
       </c>
-      <c r="F100" t="s">
-        <v>214</v>
-      </c>
       <c r="G100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H100" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.002561789837166234</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="D101" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H101" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I101" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B102">
-        <v>0.002561789837166234</v>
+        <v>0.04244031830238727</v>
       </c>
       <c r="C102" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E102" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B103">
-        <v>0.04244031830238727</v>
+        <v>0.001040727121348782</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E103" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="G103" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I103" t="s">
         <v>231</v>
@@ -2898,80 +2895,80 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B104">
-        <v>0.001040727121348782</v>
+        <v>0.0003978779840848806</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G104" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B105">
-        <v>0.0003978779840848806</v>
+        <v>0.0002134824864305195</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B106">
-        <v>0.0002134824864305195</v>
+        <v>0.0001867971756267045</v>
       </c>
       <c r="C106" t="s">
         <v>168</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G106" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H106" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I106" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -2979,25 +2976,25 @@
         <v>61</v>
       </c>
       <c r="B107">
-        <v>0.0001867971756267045</v>
+        <v>0.000663129973474801</v>
       </c>
       <c r="C107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G107" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H107" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3005,197 +3002,194 @@
         <v>62</v>
       </c>
       <c r="B108">
-        <v>0.000663129973474801</v>
+        <v>0.002374992661539529</v>
       </c>
       <c r="C108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B109">
-        <v>0.002374992661539529</v>
+        <v>0.002882013566812013</v>
       </c>
       <c r="C109" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H109" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B110">
-        <v>0.002882013566812013</v>
+        <v>0.009204244031830238</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H110" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>57</v>
-      </c>
-      <c r="B111">
-        <v>0.009204244031830238</v>
-      </c>
-      <c r="C111" t="s">
-        <v>57</v>
-      </c>
-      <c r="D111" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" t="s">
-        <v>121</v>
-      </c>
-      <c r="G111" t="s">
-        <v>219</v>
-      </c>
-      <c r="H111" t="s">
-        <v>222</v>
-      </c>
-      <c r="I111" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>212</v>
+      </c>
+      <c r="G118" t="s">
+        <v>215</v>
+      </c>
+      <c r="H118" t="s">
+        <v>219</v>
+      </c>
+      <c r="I118" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
       </c>
-      <c r="F119" t="s">
-        <v>214</v>
-      </c>
       <c r="G119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H119" t="s">
-        <v>221</v>
-      </c>
-      <c r="I119" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H120" t="s">
         <v>1</v>
@@ -3203,22 +3197,22 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C121" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H121" t="s">
         <v>1</v>
@@ -3226,197 +3220,197 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B122">
-        <v>0.0005999999999999999</v>
+        <v>0.03125</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E122" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H122" t="s">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="I122" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B123">
-        <v>0.03125</v>
+        <v>0.4263392857142857</v>
       </c>
       <c r="C123" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="E123" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B124">
-        <v>0.4263392857142857</v>
+        <v>0.2008928571428572</v>
       </c>
       <c r="C124" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E124" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="G124" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I124" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125">
-        <v>0.2008928571428572</v>
-      </c>
-      <c r="C125" t="s">
-        <v>148</v>
-      </c>
-      <c r="D125" t="s">
-        <v>207</v>
-      </c>
-      <c r="E125" t="s">
-        <v>121</v>
-      </c>
-      <c r="G125" t="s">
-        <v>219</v>
-      </c>
-      <c r="H125" t="s">
-        <v>222</v>
-      </c>
-      <c r="I125" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>212</v>
+      </c>
+      <c r="G132" t="s">
+        <v>215</v>
+      </c>
+      <c r="H132" t="s">
+        <v>219</v>
+      </c>
+      <c r="I132" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
       </c>
-      <c r="F133" t="s">
-        <v>214</v>
-      </c>
       <c r="G133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H133" t="s">
-        <v>221</v>
-      </c>
-      <c r="I133" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H134" t="s">
         <v>1</v>
@@ -3424,22 +3418,22 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C135" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G135" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H135" t="s">
         <v>1</v>
@@ -3447,48 +3441,48 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B136">
-        <v>0.0005999999999999999</v>
+        <v>0.00676392572944297</v>
       </c>
       <c r="C136" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E136" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H136" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B137">
-        <v>0.00676392572944297</v>
+        <v>7.957559681697613E-05</v>
       </c>
       <c r="C137" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E137" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="G137" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H137" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -3496,22 +3490,22 @@
         <v>66</v>
       </c>
       <c r="B138">
-        <v>7.957559681697613E-05</v>
+        <v>4.641909814323608E-06</v>
       </c>
       <c r="C138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H138" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -3519,119 +3513,119 @@
         <v>67</v>
       </c>
       <c r="B139">
-        <v>4.641909814323608E-06</v>
+        <v>7.957559681697613E-05</v>
       </c>
       <c r="C139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H139" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
         <v>68</v>
-      </c>
-      <c r="B140">
-        <v>7.957559681697613E-05</v>
-      </c>
-      <c r="C140" t="s">
-        <v>175</v>
-      </c>
-      <c r="D140" t="s">
-        <v>136</v>
-      </c>
-      <c r="E140" t="s">
-        <v>121</v>
-      </c>
-      <c r="G140" t="s">
-        <v>219</v>
-      </c>
-      <c r="H140" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>212</v>
+      </c>
+      <c r="G147" t="s">
+        <v>215</v>
+      </c>
+      <c r="H147" t="s">
+        <v>219</v>
+      </c>
+      <c r="I147" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" t="s">
-        <v>122</v>
+        <v>68</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
       </c>
-      <c r="F148" t="s">
-        <v>214</v>
-      </c>
       <c r="G148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H148" t="s">
-        <v>221</v>
-      </c>
-      <c r="I148" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -3639,22 +3633,22 @@
         <v>69</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0.1587575</v>
       </c>
       <c r="C149" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D149" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G149" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H149" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -3662,22 +3656,22 @@
         <v>70</v>
       </c>
       <c r="B150">
-        <v>0.1587575</v>
+        <v>0.04328224</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G150" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H150" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -3685,211 +3679,211 @@
         <v>71</v>
       </c>
       <c r="B151">
-        <v>0.04328224</v>
+        <v>0.048612211</v>
       </c>
       <c r="C151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E151" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G151" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H151" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B152">
-        <v>0.048612211</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D152" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E152" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H152" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>-0.0775</v>
       </c>
       <c r="C153" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D153" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H153" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B154">
-        <v>-0.0775</v>
+        <v>-0.1015625</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D154" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="E154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G154" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H154" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
         <v>73</v>
-      </c>
-      <c r="B155">
-        <v>-0.1015625</v>
-      </c>
-      <c r="C155" t="s">
-        <v>179</v>
-      </c>
-      <c r="D155" t="s">
-        <v>208</v>
-      </c>
-      <c r="E155" t="s">
-        <v>121</v>
-      </c>
-      <c r="G155" t="s">
-        <v>219</v>
-      </c>
-      <c r="H155" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>10</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>13</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B162" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>212</v>
+      </c>
+      <c r="G162" t="s">
+        <v>215</v>
+      </c>
+      <c r="H162" t="s">
+        <v>219</v>
+      </c>
+      <c r="I162" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" t="s">
-        <v>122</v>
+        <v>73</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E163" t="s">
         <v>13</v>
       </c>
-      <c r="F163" t="s">
-        <v>214</v>
-      </c>
       <c r="G163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H163" t="s">
-        <v>221</v>
-      </c>
-      <c r="I163" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0.1587575</v>
       </c>
       <c r="C164" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G164" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H164" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -3897,22 +3891,22 @@
         <v>70</v>
       </c>
       <c r="B165">
-        <v>0.1587575</v>
+        <v>0.04328224</v>
       </c>
       <c r="C165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E165" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G165" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H165" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -3920,211 +3914,211 @@
         <v>71</v>
       </c>
       <c r="B166">
-        <v>0.04328224</v>
+        <v>0.2965355965</v>
       </c>
       <c r="C166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E166" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G166" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H166" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B167">
-        <v>0.2965355965</v>
+        <v>0.048612211</v>
       </c>
       <c r="C167" t="s">
         <v>178</v>
       </c>
       <c r="D167" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E167" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G167" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H167" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B168">
-        <v>0.048612211</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D168" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E168" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H168" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>-0.0775</v>
       </c>
       <c r="C169" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D169" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H169" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B170">
-        <v>-0.0775</v>
+        <v>-0.1015625</v>
       </c>
       <c r="C170" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D170" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="E170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G170" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H170" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" t="s">
-        <v>73</v>
-      </c>
-      <c r="B171">
-        <v>-0.1015625</v>
-      </c>
-      <c r="C171" t="s">
-        <v>179</v>
-      </c>
-      <c r="D171" t="s">
-        <v>208</v>
-      </c>
-      <c r="E171" t="s">
-        <v>121</v>
-      </c>
-      <c r="G171" t="s">
-        <v>219</v>
-      </c>
-      <c r="H171" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>9</v>
-      </c>
-      <c r="B173" t="s">
-        <v>76</v>
+        <v>10</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>10</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>13</v>
-      </c>
-      <c r="B177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>212</v>
+      </c>
+      <c r="G178" t="s">
+        <v>215</v>
+      </c>
+      <c r="H178" t="s">
+        <v>219</v>
+      </c>
+      <c r="I178" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" t="s">
-        <v>122</v>
+        <v>75</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="E179" t="s">
         <v>13</v>
       </c>
-      <c r="F179" t="s">
-        <v>214</v>
-      </c>
       <c r="G179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H179" t="s">
-        <v>221</v>
-      </c>
-      <c r="I179" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -4132,22 +4126,22 @@
         <v>76</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0.00547</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E180" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H180" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -4155,142 +4149,142 @@
         <v>77</v>
       </c>
       <c r="B181">
-        <v>0.00547</v>
+        <v>0.00358</v>
       </c>
       <c r="C181" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H181" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182">
+        <v>0.00189</v>
+      </c>
+      <c r="C182" t="s">
+        <v>163</v>
+      </c>
+      <c r="D182" t="s">
+        <v>130</v>
+      </c>
+      <c r="E182" t="s">
+        <v>120</v>
+      </c>
+      <c r="G182" t="s">
+        <v>217</v>
+      </c>
+      <c r="H182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
         <v>78</v>
-      </c>
-      <c r="B182">
-        <v>0.00358</v>
-      </c>
-      <c r="C182" t="s">
-        <v>181</v>
-      </c>
-      <c r="D182" t="s">
-        <v>131</v>
-      </c>
-      <c r="E182" t="s">
-        <v>121</v>
-      </c>
-      <c r="G182" t="s">
-        <v>219</v>
-      </c>
-      <c r="H182" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" t="s">
-        <v>53</v>
-      </c>
-      <c r="B183">
-        <v>0.00189</v>
-      </c>
-      <c r="C183" t="s">
-        <v>165</v>
-      </c>
-      <c r="D183" t="s">
-        <v>131</v>
-      </c>
-      <c r="E183" t="s">
-        <v>121</v>
-      </c>
-      <c r="G183" t="s">
-        <v>219</v>
-      </c>
-      <c r="H183" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>9</v>
-      </c>
-      <c r="B185" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B186" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>13</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B190" t="s">
+        <v>121</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>212</v>
+      </c>
+      <c r="G190" t="s">
+        <v>215</v>
+      </c>
+      <c r="H190" t="s">
+        <v>219</v>
+      </c>
+      <c r="I190" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E191" t="s">
         <v>13</v>
       </c>
-      <c r="F191" t="s">
-        <v>214</v>
-      </c>
       <c r="G191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H191" t="s">
-        <v>221</v>
-      </c>
-      <c r="I191" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -4298,22 +4292,22 @@
         <v>79</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0.00041</v>
       </c>
       <c r="C192" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="D192" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H192" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -4321,22 +4315,22 @@
         <v>80</v>
       </c>
       <c r="B193">
-        <v>0.00041</v>
+        <v>0.00036</v>
       </c>
       <c r="C193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D193" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E193" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G193" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H193" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -4344,22 +4338,22 @@
         <v>81</v>
       </c>
       <c r="B194">
-        <v>0.00036</v>
+        <v>0.00041</v>
       </c>
       <c r="C194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D194" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E194" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G194" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -4367,89 +4361,74 @@
         <v>82</v>
       </c>
       <c r="B195">
-        <v>0.00041</v>
+        <v>0.00015</v>
       </c>
       <c r="C195" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D195" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E195" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B196">
         <v>0.00015</v>
       </c>
       <c r="C196" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D196" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E196" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G196" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H196" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" t="s">
-        <v>72</v>
-      </c>
-      <c r="B197">
-        <v>0.00015</v>
-      </c>
-      <c r="C197" t="s">
-        <v>178</v>
-      </c>
-      <c r="D197" t="s">
-        <v>136</v>
-      </c>
-      <c r="E197" t="s">
-        <v>213</v>
-      </c>
-      <c r="G197" t="s">
-        <v>219</v>
-      </c>
-      <c r="H197" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>9</v>
-      </c>
-      <c r="B199" t="s">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>10</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
         <v>133</v>
@@ -4457,52 +4436,70 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>13</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>121</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
+        <v>212</v>
+      </c>
+      <c r="G204" t="s">
+        <v>215</v>
+      </c>
+      <c r="H204" t="s">
+        <v>219</v>
+      </c>
+      <c r="I204" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205" t="s">
-        <v>122</v>
+        <v>83</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D205" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E205" t="s">
         <v>13</v>
       </c>
-      <c r="F205" t="s">
-        <v>214</v>
-      </c>
       <c r="G205" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H205" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -4510,25 +4507,25 @@
         <v>84</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0.0224</v>
       </c>
       <c r="C206" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="D206" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H206" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I206" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -4536,25 +4533,25 @@
         <v>85</v>
       </c>
       <c r="B207">
-        <v>0.0224</v>
+        <v>0.006</v>
       </c>
       <c r="C207" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D207" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E207" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G207" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H207" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I207" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -4562,77 +4559,77 @@
         <v>86</v>
       </c>
       <c r="B208">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="C208" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D208" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="E208" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G208" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H208" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B209">
-        <v>0.002</v>
+        <v>0.024</v>
       </c>
       <c r="C209" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D209" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E209" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G209" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H209" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I209" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B210">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="C210" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D210" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="E210" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G210" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H210" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I210" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -4640,25 +4637,25 @@
         <v>88</v>
       </c>
       <c r="B211">
-        <v>0.032</v>
+        <v>0.49422912</v>
       </c>
       <c r="C211" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D211" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="E211" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G211" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H211" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I211" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -4666,72 +4663,54 @@
         <v>89</v>
       </c>
       <c r="B212">
-        <v>0.49422912</v>
+        <v>0.00448</v>
       </c>
       <c r="C212" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D212" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E212" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G212" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H212" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I212" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
         <v>90</v>
-      </c>
-      <c r="B213">
-        <v>0.00448</v>
-      </c>
-      <c r="C213" t="s">
-        <v>191</v>
-      </c>
-      <c r="D213" t="s">
-        <v>136</v>
-      </c>
-      <c r="E213" t="s">
-        <v>213</v>
-      </c>
-      <c r="G213" t="s">
-        <v>219</v>
-      </c>
-      <c r="H213" t="s">
-        <v>222</v>
-      </c>
-      <c r="I213" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>9</v>
-      </c>
-      <c r="B215" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>10</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B217" t="s">
         <v>135</v>
@@ -4739,471 +4718,486 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>13</v>
-      </c>
-      <c r="B219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B220" t="s">
+        <v>121</v>
+      </c>
+      <c r="C220" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s">
+        <v>212</v>
+      </c>
+      <c r="G220" t="s">
+        <v>215</v>
+      </c>
+      <c r="H220" t="s">
+        <v>219</v>
+      </c>
+      <c r="I220" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" t="s">
-        <v>122</v>
+        <v>90</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D221" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E221" t="s">
         <v>13</v>
       </c>
-      <c r="F221" t="s">
-        <v>214</v>
-      </c>
       <c r="G221" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H221" t="s">
-        <v>221</v>
-      </c>
-      <c r="I221" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0.00196</v>
       </c>
       <c r="C222" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="D222" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E222" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G222" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H222" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B223">
-        <v>0.00196</v>
+        <v>0.01534</v>
       </c>
       <c r="C223" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D223" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E223" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G223" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H223" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
+        <v>76</v>
+      </c>
+      <c r="B224">
+        <v>0.02998</v>
+      </c>
+      <c r="C224" t="s">
+        <v>56</v>
+      </c>
+      <c r="D224" t="s">
+        <v>130</v>
+      </c>
+      <c r="E224" t="s">
+        <v>120</v>
+      </c>
+      <c r="G224" t="s">
+        <v>217</v>
+      </c>
+      <c r="H224" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>86</v>
+      </c>
+      <c r="B225">
+        <v>0.00252</v>
+      </c>
+      <c r="C225" t="s">
+        <v>186</v>
+      </c>
+      <c r="D225" t="s">
+        <v>130</v>
+      </c>
+      <c r="E225" t="s">
+        <v>120</v>
+      </c>
+      <c r="G225" t="s">
+        <v>217</v>
+      </c>
+      <c r="H225" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>81</v>
+      </c>
+      <c r="B226">
+        <v>0.00112</v>
+      </c>
+      <c r="C226" t="s">
+        <v>182</v>
+      </c>
+      <c r="D226" t="s">
+        <v>135</v>
+      </c>
+      <c r="E226" t="s">
+        <v>120</v>
+      </c>
+      <c r="G226" t="s">
+        <v>217</v>
+      </c>
+      <c r="H226" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>77</v>
+      </c>
+      <c r="B227">
+        <v>0.00736</v>
+      </c>
+      <c r="C227" t="s">
+        <v>179</v>
+      </c>
+      <c r="D227" t="s">
+        <v>130</v>
+      </c>
+      <c r="E227" t="s">
+        <v>120</v>
+      </c>
+      <c r="G227" t="s">
+        <v>217</v>
+      </c>
+      <c r="H227" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>60</v>
+      </c>
+      <c r="B228">
+        <v>0.01563</v>
+      </c>
+      <c r="C228" t="s">
+        <v>168</v>
+      </c>
+      <c r="D228" t="s">
+        <v>130</v>
+      </c>
+      <c r="E228" t="s">
+        <v>120</v>
+      </c>
+      <c r="G228" t="s">
+        <v>217</v>
+      </c>
+      <c r="H228" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>59</v>
+      </c>
+      <c r="B229">
+        <v>0.00397</v>
+      </c>
+      <c r="C229" t="s">
+        <v>167</v>
+      </c>
+      <c r="D229" t="s">
+        <v>130</v>
+      </c>
+      <c r="E229" t="s">
+        <v>120</v>
+      </c>
+      <c r="G229" t="s">
+        <v>217</v>
+      </c>
+      <c r="H229" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
         <v>92</v>
       </c>
-      <c r="B224">
+      <c r="B230">
         <v>0.01534</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C230" t="s">
+        <v>191</v>
+      </c>
+      <c r="D230" t="s">
+        <v>130</v>
+      </c>
+      <c r="E230" t="s">
+        <v>120</v>
+      </c>
+      <c r="G230" t="s">
+        <v>217</v>
+      </c>
+      <c r="H230" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>82</v>
+      </c>
+      <c r="B231">
+        <v>0.0003</v>
+      </c>
+      <c r="C231" t="s">
+        <v>183</v>
+      </c>
+      <c r="D231" t="s">
+        <v>130</v>
+      </c>
+      <c r="E231" t="s">
+        <v>120</v>
+      </c>
+      <c r="G231" t="s">
+        <v>217</v>
+      </c>
+      <c r="H231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>93</v>
+      </c>
+      <c r="B232">
+        <v>0.00196</v>
+      </c>
+      <c r="C232" t="s">
         <v>192</v>
       </c>
-      <c r="D224" t="s">
-        <v>131</v>
-      </c>
-      <c r="E224" t="s">
+      <c r="D232" t="s">
+        <v>130</v>
+      </c>
+      <c r="E232" t="s">
+        <v>120</v>
+      </c>
+      <c r="G232" t="s">
+        <v>217</v>
+      </c>
+      <c r="H232" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" t="s">
         <v>121</v>
       </c>
-      <c r="G224" t="s">
+      <c r="C240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
+        <v>212</v>
+      </c>
+      <c r="G240" t="s">
+        <v>215</v>
+      </c>
+      <c r="H240" t="s">
         <v>219</v>
       </c>
-      <c r="H224" t="s">
+      <c r="I240" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>77</v>
-      </c>
-      <c r="B225">
-        <v>0.02998</v>
-      </c>
-      <c r="C225" t="s">
-        <v>57</v>
-      </c>
-      <c r="D225" t="s">
-        <v>131</v>
-      </c>
-      <c r="E225" t="s">
-        <v>121</v>
-      </c>
-      <c r="G225" t="s">
-        <v>219</v>
-      </c>
-      <c r="H225" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>87</v>
-      </c>
-      <c r="B226">
-        <v>0.00252</v>
-      </c>
-      <c r="C226" t="s">
-        <v>188</v>
-      </c>
-      <c r="D226" t="s">
-        <v>131</v>
-      </c>
-      <c r="E226" t="s">
-        <v>121</v>
-      </c>
-      <c r="G226" t="s">
-        <v>219</v>
-      </c>
-      <c r="H226" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>82</v>
-      </c>
-      <c r="B227">
-        <v>0.00112</v>
-      </c>
-      <c r="C227" t="s">
-        <v>184</v>
-      </c>
-      <c r="D227" t="s">
-        <v>136</v>
-      </c>
-      <c r="E227" t="s">
-        <v>121</v>
-      </c>
-      <c r="G227" t="s">
-        <v>219</v>
-      </c>
-      <c r="H227" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>78</v>
-      </c>
-      <c r="B228">
-        <v>0.00736</v>
-      </c>
-      <c r="C228" t="s">
-        <v>181</v>
-      </c>
-      <c r="D228" t="s">
-        <v>131</v>
-      </c>
-      <c r="E228" t="s">
-        <v>121</v>
-      </c>
-      <c r="G228" t="s">
-        <v>219</v>
-      </c>
-      <c r="H228" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="s">
-        <v>61</v>
-      </c>
-      <c r="B229">
-        <v>0.01563</v>
-      </c>
-      <c r="C229" t="s">
-        <v>170</v>
-      </c>
-      <c r="D229" t="s">
-        <v>131</v>
-      </c>
-      <c r="E229" t="s">
-        <v>121</v>
-      </c>
-      <c r="G229" t="s">
-        <v>219</v>
-      </c>
-      <c r="H229" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>60</v>
-      </c>
-      <c r="B230">
-        <v>0.00397</v>
-      </c>
-      <c r="C230" t="s">
-        <v>169</v>
-      </c>
-      <c r="D230" t="s">
-        <v>131</v>
-      </c>
-      <c r="E230" t="s">
-        <v>121</v>
-      </c>
-      <c r="G230" t="s">
-        <v>219</v>
-      </c>
-      <c r="H230" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>93</v>
-      </c>
-      <c r="B231">
-        <v>0.01534</v>
-      </c>
-      <c r="C231" t="s">
-        <v>193</v>
-      </c>
-      <c r="D231" t="s">
-        <v>131</v>
-      </c>
-      <c r="E231" t="s">
-        <v>121</v>
-      </c>
-      <c r="G231" t="s">
-        <v>219</v>
-      </c>
-      <c r="H231" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>83</v>
-      </c>
-      <c r="B232">
-        <v>0.0003</v>
-      </c>
-      <c r="C232" t="s">
-        <v>185</v>
-      </c>
-      <c r="D232" t="s">
-        <v>131</v>
-      </c>
-      <c r="E232" t="s">
-        <v>121</v>
-      </c>
-      <c r="G232" t="s">
-        <v>219</v>
-      </c>
-      <c r="H232" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>94</v>
-      </c>
-      <c r="B233">
-        <v>0.00196</v>
-      </c>
-      <c r="C233" t="s">
-        <v>194</v>
-      </c>
-      <c r="D233" t="s">
-        <v>131</v>
-      </c>
-      <c r="E233" t="s">
-        <v>121</v>
-      </c>
-      <c r="G233" t="s">
-        <v>219</v>
-      </c>
-      <c r="H233" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="s">
-        <v>9</v>
-      </c>
-      <c r="B235" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>10</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>11</v>
-      </c>
-      <c r="B237" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>12</v>
-      </c>
-      <c r="B238" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>13</v>
-      </c>
-      <c r="B239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" t="s">
-        <v>122</v>
+        <v>94</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D241" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
       </c>
-      <c r="F241" t="s">
-        <v>214</v>
-      </c>
       <c r="G241" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H241" t="s">
-        <v>221</v>
-      </c>
-      <c r="I241" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0.0012</v>
       </c>
       <c r="C242" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="D242" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E242" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G242" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H242" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B243">
-        <v>0.0012</v>
+        <v>0.006</v>
       </c>
       <c r="C243" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D243" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E243" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G243" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H243" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B244">
-        <v>0.006</v>
+        <v>0.00551</v>
       </c>
       <c r="C244" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="D244" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E244" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G244" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H244" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -5211,185 +5205,185 @@
         <v>77</v>
       </c>
       <c r="B245">
-        <v>0.00551</v>
+        <v>0.00124</v>
       </c>
       <c r="C245" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="D245" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E245" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G245" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H245" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B246">
-        <v>0.00124</v>
+        <v>0.00307</v>
       </c>
       <c r="C246" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D246" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E246" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G246" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H246" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B247">
-        <v>0.00307</v>
+        <v>0.0005</v>
       </c>
       <c r="C247" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D247" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E247" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G247" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H247" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" t="s">
-        <v>55</v>
-      </c>
-      <c r="B248">
-        <v>0.0005</v>
-      </c>
-      <c r="C248" t="s">
-        <v>167</v>
-      </c>
-      <c r="D248" t="s">
-        <v>131</v>
-      </c>
-      <c r="E248" t="s">
-        <v>121</v>
-      </c>
-      <c r="G248" t="s">
-        <v>219</v>
-      </c>
-      <c r="H248" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>9</v>
-      </c>
-      <c r="B250" t="s">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>10</v>
-      </c>
-      <c r="B251">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B251" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B252" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B253" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>13</v>
-      </c>
-      <c r="B254" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B255" t="s">
+        <v>121</v>
+      </c>
+      <c r="C255" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>212</v>
+      </c>
+      <c r="G255" t="s">
+        <v>215</v>
+      </c>
+      <c r="H255" t="s">
+        <v>219</v>
+      </c>
+      <c r="I255" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" t="s">
-        <v>122</v>
+        <v>96</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D256" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
       </c>
-      <c r="F256" t="s">
-        <v>214</v>
-      </c>
       <c r="G256" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H256" t="s">
-        <v>221</v>
-      </c>
-      <c r="I256" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D257" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
       </c>
       <c r="G257" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H257" t="s">
         <v>1</v>
@@ -5397,22 +5391,22 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C258" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D258" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
       </c>
       <c r="G258" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H258" t="s">
         <v>1</v>
@@ -5420,22 +5414,22 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B259">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D259" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E259" t="s">
         <v>13</v>
       </c>
       <c r="G259" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H259" t="s">
         <v>1</v>
@@ -5443,68 +5437,68 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>-0.09551460666666667</v>
       </c>
       <c r="C260" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="D260" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="E260" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G260" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H260" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B261">
-        <v>-0.1154741666666667</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D261" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="E261" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="G261" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H261" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D262" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
       </c>
       <c r="G262" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H262" t="s">
         <v>1</v>
@@ -5512,71 +5506,71 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0.0009000000000000001</v>
       </c>
       <c r="C263" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="D263" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E263" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G263" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H263" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B264">
-        <v>0.0009000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="D264" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E264" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="G264" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H264" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C265" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="D265" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E265" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G265" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H265" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -5584,22 +5578,22 @@
         <v>100</v>
       </c>
       <c r="B266">
-        <v>0.1</v>
+        <v>0.020203974</v>
       </c>
       <c r="C266" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D266" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E266" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G266" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H266" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -5607,136 +5601,136 @@
         <v>101</v>
       </c>
       <c r="B267">
-        <v>0.020203974</v>
-      </c>
-      <c r="C267" t="s">
-        <v>199</v>
-      </c>
-      <c r="D267" t="s">
-        <v>131</v>
+        <v>0.00036</v>
       </c>
       <c r="E267" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="F267" t="s">
+        <v>214</v>
       </c>
       <c r="G267" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H267" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" t="s">
         <v>102</v>
-      </c>
-      <c r="B268">
-        <v>0.00036</v>
-      </c>
-      <c r="E268" t="s">
-        <v>121</v>
-      </c>
-      <c r="F268" t="s">
-        <v>216</v>
-      </c>
-      <c r="G268" t="s">
-        <v>220</v>
-      </c>
-      <c r="H268" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>9</v>
-      </c>
-      <c r="B270" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>10</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B272" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B273" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>13</v>
-      </c>
-      <c r="B274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B275" t="s">
+        <v>121</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s">
+        <v>212</v>
+      </c>
+      <c r="G275" t="s">
+        <v>215</v>
+      </c>
+      <c r="H275" t="s">
+        <v>219</v>
+      </c>
+      <c r="I275" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D276" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
       </c>
-      <c r="F276" t="s">
-        <v>214</v>
-      </c>
       <c r="G276" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H276" t="s">
-        <v>221</v>
-      </c>
-      <c r="I276" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D277" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
       </c>
       <c r="G277" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H277" t="s">
         <v>1</v>
@@ -5744,22 +5738,22 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C278" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
       </c>
       <c r="G278" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H278" t="s">
         <v>1</v>
@@ -5767,91 +5761,91 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B279">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D279" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H279" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>-0.1595242440318302</v>
       </c>
       <c r="C280" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="D280" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="E280" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G280" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H280" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B281">
-        <v>-0.1595242440318302</v>
+        <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D281" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="E281" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="G281" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H281" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D282" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E282" t="s">
         <v>13</v>
       </c>
       <c r="G282" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H282" t="s">
         <v>1</v>
@@ -5859,71 +5853,71 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0.0009000000000000001</v>
       </c>
       <c r="C283" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="D283" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E283" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G283" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H283" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B284">
-        <v>0.0009000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="D284" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E284" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="G284" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H284" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C285" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="D285" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E285" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G285" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H285" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -5931,22 +5925,22 @@
         <v>100</v>
       </c>
       <c r="B286">
-        <v>0.1</v>
+        <v>0.020203974</v>
       </c>
       <c r="C286" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D286" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E286" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G286" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H286" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -5954,71 +5948,56 @@
         <v>101</v>
       </c>
       <c r="B287">
-        <v>0.020203974</v>
-      </c>
-      <c r="C287" t="s">
-        <v>199</v>
-      </c>
-      <c r="D287" t="s">
-        <v>131</v>
+        <v>0.00036</v>
       </c>
       <c r="E287" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="F287" t="s">
+        <v>214</v>
       </c>
       <c r="G287" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H287" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" t="s">
-        <v>102</v>
-      </c>
-      <c r="B288">
-        <v>0.00036</v>
-      </c>
-      <c r="E288" t="s">
-        <v>121</v>
-      </c>
-      <c r="F288" t="s">
-        <v>216</v>
-      </c>
-      <c r="G288" t="s">
-        <v>220</v>
-      </c>
-      <c r="H288" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>9</v>
-      </c>
-      <c r="B290" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>10</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B292" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B293" t="s">
         <v>120</v>
@@ -6026,67 +6005,85 @@
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>13</v>
-      </c>
-      <c r="B294" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B295" t="s">
+        <v>121</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s">
+        <v>212</v>
+      </c>
+      <c r="G295" t="s">
+        <v>215</v>
+      </c>
+      <c r="H295" t="s">
+        <v>219</v>
+      </c>
+      <c r="I295" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>15</v>
-      </c>
-      <c r="B296" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="D296" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E296" t="s">
-        <v>13</v>
-      </c>
-      <c r="F296" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="G296" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H296" t="s">
-        <v>221</v>
-      </c>
-      <c r="I296" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="C297" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D297" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E297" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G297" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H297" t="s">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="I297" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -6094,25 +6091,25 @@
         <v>31</v>
       </c>
       <c r="B298">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="C298" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D298" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E298" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G298" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H298" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I298" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -6120,25 +6117,25 @@
         <v>32</v>
       </c>
       <c r="B299">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="C299" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D299" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E299" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G299" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H299" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I299" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -6146,25 +6143,25 @@
         <v>33</v>
       </c>
       <c r="B300">
-        <v>0.18</v>
+        <v>21.97777777777778</v>
       </c>
       <c r="C300" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D300" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E300" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G300" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H300" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I300" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -6172,25 +6169,25 @@
         <v>34</v>
       </c>
       <c r="B301">
-        <v>21.97777777777778</v>
+        <v>5.18</v>
       </c>
       <c r="C301" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D301" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E301" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="G301" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H301" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I301" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -6198,25 +6195,22 @@
         <v>35</v>
       </c>
       <c r="B302">
-        <v>5.18</v>
+        <v>6.7155</v>
       </c>
       <c r="C302" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D302" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E302" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="G302" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H302" t="s">
-        <v>222</v>
-      </c>
-      <c r="I302" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -6224,175 +6218,178 @@
         <v>36</v>
       </c>
       <c r="B303">
-        <v>8.91</v>
+        <v>4.02</v>
       </c>
       <c r="C303" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D303" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E303" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="G303" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H303" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="I303" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B304">
-        <v>4.02</v>
+        <v>1.3</v>
       </c>
       <c r="C304" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D304" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E304" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G304" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H304" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I304" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B305">
-        <v>1.3</v>
+        <v>0.36</v>
       </c>
       <c r="C305" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="D305" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E305" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G305" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H305" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I305" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B306">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="C306" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="D306" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E306" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G306" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H306" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I306" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B307">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="C307" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D307" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E307" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G307" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H307" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I307" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B308">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="C308" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D308" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E308" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G308" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H308" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I308" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B309">
-        <v>0.01</v>
+        <v>19.1</v>
       </c>
       <c r="C309" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D309" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="E309" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G309" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H309" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I309" t="s">
         <v>226</v>
@@ -6400,54 +6397,51 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B310">
-        <v>19.1</v>
+        <v>0.03950103950103934</v>
       </c>
       <c r="C310" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D310" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="E310" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G310" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H310" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I310" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="B311">
-        <v>0.03950103950103934</v>
+        <v>-0.00535</v>
       </c>
       <c r="C311" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D311" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="E311" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G311" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H311" t="s">
-        <v>1</v>
-      </c>
-      <c r="I311" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -6455,68 +6449,65 @@
         <v>40</v>
       </c>
       <c r="B312">
-        <v>-0.00535</v>
+        <v>-1.07</v>
       </c>
       <c r="C312" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D312" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="E312" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G312" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H312" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B313">
-        <v>-1.07</v>
+        <v>-0.03</v>
       </c>
       <c r="C313" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="D313" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E313" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G313" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H313" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B314">
-        <v>-0.03</v>
-      </c>
-      <c r="C314" t="s">
-        <v>27</v>
-      </c>
-      <c r="D314" t="s">
-        <v>120</v>
+        <v>0.17</v>
       </c>
       <c r="E314" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="F314" t="s">
+        <v>213</v>
       </c>
       <c r="G314" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H314" t="s">
-        <v>1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -6524,19 +6515,19 @@
         <v>42</v>
       </c>
       <c r="B315">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E315" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F315" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G315" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H315" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -6544,19 +6535,19 @@
         <v>43</v>
       </c>
       <c r="B316">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="E316" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F316" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G316" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H316" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -6564,19 +6555,19 @@
         <v>44</v>
       </c>
       <c r="B317">
-        <v>0.18</v>
+        <v>6.58</v>
       </c>
       <c r="E317" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F317" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G317" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H317" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -6584,59 +6575,59 @@
         <v>45</v>
       </c>
       <c r="B318">
-        <v>6.58</v>
+        <v>0.06</v>
       </c>
       <c r="E318" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F318" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G318" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H318" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B319">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E319" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F319" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G319" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H319" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B320">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E320" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F320" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G320" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H320" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -6644,113 +6635,119 @@
         <v>48</v>
       </c>
       <c r="B321">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E321" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F321" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G321" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H321" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
-      <c r="A322" t="s">
-        <v>49</v>
-      </c>
-      <c r="B322">
-        <v>0.01</v>
-      </c>
-      <c r="E322" t="s">
-        <v>121</v>
-      </c>
-      <c r="F322" t="s">
-        <v>215</v>
-      </c>
-      <c r="G322" t="s">
-        <v>220</v>
-      </c>
-      <c r="H322" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>9</v>
-      </c>
-      <c r="B324" t="s">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>10</v>
-      </c>
-      <c r="B325">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B325" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B326" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B327" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>13</v>
-      </c>
-      <c r="B328" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B329" t="s">
+        <v>121</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" t="s">
+        <v>13</v>
+      </c>
+      <c r="F329" t="s">
+        <v>212</v>
+      </c>
+      <c r="G329" t="s">
+        <v>215</v>
+      </c>
+      <c r="H329" t="s">
+        <v>219</v>
+      </c>
+      <c r="I329" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>15</v>
-      </c>
-      <c r="B330" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D330" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E330" t="s">
-        <v>13</v>
-      </c>
-      <c r="F330" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="G330" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H330" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="I330" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -6758,145 +6755,145 @@
         <v>107</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>0.01033</v>
       </c>
       <c r="C331" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="D331" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E331" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G331" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H331" t="s">
-        <v>1</v>
-      </c>
-      <c r="I331" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" t="s">
+        <v>84</v>
+      </c>
+      <c r="B332">
+        <v>0.98967</v>
+      </c>
+      <c r="C332" t="s">
+        <v>184</v>
+      </c>
+      <c r="D332" t="s">
+        <v>135</v>
+      </c>
+      <c r="E332" t="s">
+        <v>120</v>
+      </c>
+      <c r="G332" t="s">
+        <v>217</v>
+      </c>
+      <c r="H332" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
         <v>108</v>
-      </c>
-      <c r="B332">
-        <v>0.01033</v>
-      </c>
-      <c r="C332" t="s">
-        <v>201</v>
-      </c>
-      <c r="D332" t="s">
-        <v>131</v>
-      </c>
-      <c r="E332" t="s">
-        <v>121</v>
-      </c>
-      <c r="G332" t="s">
-        <v>219</v>
-      </c>
-      <c r="H332" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
-      <c r="A333" t="s">
-        <v>85</v>
-      </c>
-      <c r="B333">
-        <v>0.98967</v>
-      </c>
-      <c r="C333" t="s">
-        <v>186</v>
-      </c>
-      <c r="D333" t="s">
-        <v>136</v>
-      </c>
-      <c r="E333" t="s">
-        <v>121</v>
-      </c>
-      <c r="G333" t="s">
-        <v>219</v>
-      </c>
-      <c r="H333" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" t="s">
-        <v>9</v>
-      </c>
-      <c r="B335" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" t="s">
-        <v>10</v>
-      </c>
-      <c r="B336">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B336" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B338" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>13</v>
-      </c>
-      <c r="B339" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B340" t="s">
+        <v>121</v>
+      </c>
+      <c r="C340" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>13</v>
+      </c>
+      <c r="F340" t="s">
+        <v>212</v>
+      </c>
+      <c r="G340" t="s">
+        <v>215</v>
+      </c>
+      <c r="H340" t="s">
+        <v>219</v>
+      </c>
+      <c r="I340" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" t="s">
-        <v>15</v>
-      </c>
-      <c r="B341" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="D341" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E341" t="s">
         <v>13</v>
       </c>
-      <c r="F341" t="s">
-        <v>214</v>
-      </c>
       <c r="G341" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H341" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="I341" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -6904,114 +6901,111 @@
         <v>109</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>9.281249999999999E-05</v>
       </c>
       <c r="C342" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D342" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E342" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G342" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H342" t="s">
-        <v>1</v>
-      </c>
-      <c r="I342" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B343">
-        <v>9.281249999999999E-05</v>
+        <v>4.296874999999998E-05</v>
       </c>
       <c r="C343" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D343" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E343" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G343" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H343" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B344">
-        <v>4.296874999999998E-05</v>
+        <v>5.671875E-06</v>
       </c>
       <c r="C344" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="D344" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E344" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="G344" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H344" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B345">
-        <v>5.671875E-06</v>
+        <v>5.646093749999999E-05</v>
       </c>
       <c r="C345" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="D345" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E345" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G345" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H345" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B346">
-        <v>5.646093749999999E-05</v>
+        <v>5.4140625E-06</v>
       </c>
       <c r="C346" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D346" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E346" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G346" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H346" t="s">
         <v>1</v>
@@ -7019,22 +7013,22 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B347">
-        <v>5.4140625E-06</v>
+        <v>0.0006600000000000001</v>
       </c>
       <c r="C347" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D347" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E347" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G347" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H347" t="s">
         <v>1</v>
@@ -7042,25 +7036,25 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B348">
-        <v>0.0006600000000000001</v>
+        <v>2.10375E-05</v>
       </c>
       <c r="C348" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="D348" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E348" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G348" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H348" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -7068,188 +7062,188 @@
         <v>111</v>
       </c>
       <c r="B349">
-        <v>2.10375E-05</v>
+        <v>1.959375E-05</v>
       </c>
       <c r="C349" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D349" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E349" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G349" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H349" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" t="s">
+        <v>99</v>
+      </c>
+      <c r="B350">
+        <v>7.734374999999998E-06</v>
+      </c>
+      <c r="C350" t="s">
+        <v>196</v>
+      </c>
+      <c r="D350" t="s">
+        <v>135</v>
+      </c>
+      <c r="E350" t="s">
+        <v>120</v>
+      </c>
+      <c r="G350" t="s">
+        <v>217</v>
+      </c>
+      <c r="H350" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
         <v>112</v>
-      </c>
-      <c r="B350">
-        <v>1.959375E-05</v>
-      </c>
-      <c r="C350" t="s">
-        <v>204</v>
-      </c>
-      <c r="D350" t="s">
-        <v>131</v>
-      </c>
-      <c r="E350" t="s">
-        <v>121</v>
-      </c>
-      <c r="G350" t="s">
-        <v>219</v>
-      </c>
-      <c r="H350" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
-      <c r="A351" t="s">
-        <v>100</v>
-      </c>
-      <c r="B351">
-        <v>7.734374999999998E-06</v>
-      </c>
-      <c r="C351" t="s">
-        <v>198</v>
-      </c>
-      <c r="D351" t="s">
-        <v>136</v>
-      </c>
-      <c r="E351" t="s">
-        <v>121</v>
-      </c>
-      <c r="G351" t="s">
-        <v>219</v>
-      </c>
-      <c r="H351" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="A353" t="s">
-        <v>9</v>
-      </c>
-      <c r="B353" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" t="s">
-        <v>10</v>
-      </c>
-      <c r="B354">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B354" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B355" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B356" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" t="s">
-        <v>13</v>
-      </c>
-      <c r="B357" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B358" t="s">
+        <v>121</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358" t="s">
+        <v>13</v>
+      </c>
+      <c r="F358" t="s">
+        <v>212</v>
+      </c>
+      <c r="G358" t="s">
+        <v>215</v>
+      </c>
+      <c r="H358" t="s">
+        <v>219</v>
+      </c>
+      <c r="I358" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" t="s">
-        <v>15</v>
-      </c>
-      <c r="B359" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D359" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E359" t="s">
         <v>13</v>
       </c>
-      <c r="F359" t="s">
-        <v>214</v>
-      </c>
       <c r="G359" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H359" t="s">
-        <v>221</v>
-      </c>
-      <c r="I359" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="C360" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D360" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E360" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="G360" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H360" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B361">
-        <v>6.999999999999999E-05</v>
+        <v>0.0005</v>
       </c>
       <c r="C361" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="D361" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E361" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="G361" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H361" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -7257,185 +7251,185 @@
         <v>114</v>
       </c>
       <c r="B362">
-        <v>0.0005</v>
+        <v>0.00247</v>
       </c>
       <c r="C362" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D362" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E362" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G362" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H362" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B363">
-        <v>0.00247</v>
+        <v>0.002627659574468085</v>
       </c>
       <c r="C363" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D363" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E363" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G363" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H363" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B364">
-        <v>0.002627659574468085</v>
+        <v>10</v>
       </c>
       <c r="C364" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="D364" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E364" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="G364" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H364" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9">
-      <c r="A365" t="s">
-        <v>109</v>
-      </c>
-      <c r="B365">
-        <v>10</v>
-      </c>
-      <c r="C365" t="s">
-        <v>109</v>
-      </c>
-      <c r="D365" t="s">
-        <v>136</v>
-      </c>
-      <c r="E365" t="s">
-        <v>13</v>
-      </c>
-      <c r="G365" t="s">
-        <v>219</v>
-      </c>
-      <c r="H365" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" t="s">
-        <v>9</v>
-      </c>
-      <c r="B367" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" t="s">
-        <v>10</v>
-      </c>
-      <c r="B368">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B368" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B369" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B370" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" t="s">
-        <v>13</v>
-      </c>
-      <c r="B371" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B372" t="s">
+        <v>121</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" t="s">
+        <v>13</v>
+      </c>
+      <c r="F372" t="s">
+        <v>212</v>
+      </c>
+      <c r="G372" t="s">
+        <v>215</v>
+      </c>
+      <c r="H372" t="s">
+        <v>219</v>
+      </c>
+      <c r="I372" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>15</v>
-      </c>
-      <c r="B373" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
       </c>
       <c r="C373" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="D373" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E373" t="s">
         <v>13</v>
       </c>
-      <c r="F373" t="s">
-        <v>214</v>
-      </c>
       <c r="G373" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H373" t="s">
-        <v>221</v>
-      </c>
-      <c r="I373" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C374" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D374" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E374" t="s">
         <v>13</v>
       </c>
       <c r="G374" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H374" t="s">
         <v>1</v>
@@ -7443,308 +7437,308 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>0.005292</v>
       </c>
       <c r="C375" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="D375" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E375" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G375" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H375" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B376">
-        <v>0.005292</v>
+        <v>0.0046682578125</v>
       </c>
       <c r="C376" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D376" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E376" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G376" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H376" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9">
-      <c r="A377" t="s">
-        <v>90</v>
-      </c>
-      <c r="B377">
-        <v>0.0046682578125</v>
-      </c>
-      <c r="C377" t="s">
-        <v>191</v>
-      </c>
-      <c r="D377" t="s">
-        <v>136</v>
-      </c>
-      <c r="E377" t="s">
-        <v>213</v>
-      </c>
-      <c r="G377" t="s">
-        <v>219</v>
-      </c>
-      <c r="H377" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>9</v>
-      </c>
-      <c r="B379" t="s">
-        <v>117</v>
+        <v>10</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" t="s">
-        <v>10</v>
-      </c>
-      <c r="B380">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B380" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B381" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B382" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" t="s">
-        <v>13</v>
-      </c>
-      <c r="B383" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B384" t="s">
+        <v>121</v>
+      </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" t="s">
+        <v>13</v>
+      </c>
+      <c r="F384" t="s">
+        <v>212</v>
+      </c>
+      <c r="G384" t="s">
+        <v>215</v>
+      </c>
+      <c r="H384" t="s">
+        <v>219</v>
+      </c>
+      <c r="I384" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" t="s">
-        <v>15</v>
-      </c>
-      <c r="B385" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
       </c>
       <c r="C385" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="D385" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E385" t="s">
         <v>13</v>
       </c>
-      <c r="F385" t="s">
-        <v>214</v>
-      </c>
       <c r="G385" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H385" t="s">
-        <v>221</v>
-      </c>
-      <c r="I385" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>0.002213279678068411</v>
       </c>
       <c r="C386" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D386" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E386" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G386" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H386" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B387">
-        <v>0.002213279678068411</v>
+        <v>0.0022</v>
       </c>
       <c r="C387" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="D387" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E387" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G387" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H387" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9">
-      <c r="A388" t="s">
-        <v>57</v>
-      </c>
-      <c r="B388">
-        <v>0.0022</v>
-      </c>
-      <c r="C388" t="s">
-        <v>57</v>
-      </c>
-      <c r="D388" t="s">
-        <v>136</v>
-      </c>
-      <c r="E388" t="s">
-        <v>121</v>
-      </c>
-      <c r="G388" t="s">
-        <v>219</v>
-      </c>
-      <c r="H388" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" t="s">
-        <v>9</v>
-      </c>
-      <c r="B390" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" t="s">
-        <v>10</v>
-      </c>
-      <c r="B391">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B391" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B392" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B393" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" t="s">
-        <v>13</v>
-      </c>
-      <c r="B394" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B395" t="s">
+        <v>121</v>
+      </c>
+      <c r="C395" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" t="s">
+        <v>13</v>
+      </c>
+      <c r="F395" t="s">
+        <v>212</v>
+      </c>
+      <c r="G395" t="s">
+        <v>215</v>
+      </c>
+      <c r="H395" t="s">
+        <v>219</v>
+      </c>
+      <c r="I395" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" t="s">
-        <v>15</v>
-      </c>
-      <c r="B396" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
       </c>
       <c r="C396" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D396" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E396" t="s">
         <v>13</v>
       </c>
-      <c r="F396" t="s">
-        <v>214</v>
-      </c>
       <c r="G396" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H396" t="s">
-        <v>221</v>
-      </c>
-      <c r="I396" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C397" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D397" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E397" t="s">
         <v>13</v>
       </c>
       <c r="G397" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H397" t="s">
         <v>1</v>
@@ -7755,19 +7749,19 @@
         <v>116</v>
       </c>
       <c r="B398">
-        <v>0.03333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C398" t="s">
         <v>139</v>
       </c>
       <c r="D398" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E398" t="s">
         <v>13</v>
       </c>
       <c r="G398" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H398" t="s">
         <v>1</v>
@@ -7775,71 +7769,48 @@
     </row>
     <row r="399" spans="1:9">
       <c r="A399" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>-0.002497</v>
       </c>
       <c r="C399" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="D399" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="E399" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G399" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H399" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B400">
-        <v>-0.002497</v>
+        <v>-0.002632</v>
       </c>
       <c r="C400" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D400" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="E400" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G400" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H400" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="A401" t="s">
-        <v>101</v>
-      </c>
-      <c r="B401">
-        <v>-0.002632</v>
-      </c>
-      <c r="C401" t="s">
-        <v>199</v>
-      </c>
-      <c r="D401" t="s">
-        <v>131</v>
-      </c>
-      <c r="E401" t="s">
-        <v>121</v>
-      </c>
-      <c r="G401" t="s">
-        <v>219</v>
-      </c>
-      <c r="H401" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
